--- a/database/industries/felezat/fasmin/product/monthly.xlsx
+++ b/database/industries/felezat/fasmin/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fasmin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE963BB-4F0C-45D2-A6F1-25765921ECD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689A7EC0-3E4F-450C-82BB-9F64326BE287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3696" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1644" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>سایر</t>
@@ -1583,154 +1583,154 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>460</v>
+        <v>474</v>
       </c>
       <c r="F12" s="13">
-        <v>474</v>
+        <v>288</v>
       </c>
       <c r="G12" s="13">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H12" s="13">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="I12" s="13">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="J12" s="13">
-        <v>203</v>
+        <v>291</v>
       </c>
       <c r="K12" s="13">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="L12" s="13">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="M12" s="13">
+        <v>367</v>
+      </c>
+      <c r="N12" s="13">
+        <v>385</v>
+      </c>
+      <c r="O12" s="13">
+        <v>735</v>
+      </c>
+      <c r="P12" s="13">
+        <v>703</v>
+      </c>
+      <c r="Q12" s="13">
         <v>439</v>
       </c>
-      <c r="N12" s="13">
-        <v>367</v>
-      </c>
-      <c r="O12" s="13">
-        <v>385</v>
-      </c>
-      <c r="P12" s="13">
-        <v>735</v>
-      </c>
-      <c r="Q12" s="13">
-        <v>703</v>
-      </c>
       <c r="R12" s="13">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="S12" s="13">
-        <v>519</v>
+        <v>556</v>
       </c>
       <c r="T12" s="13">
-        <v>556</v>
+        <v>469</v>
       </c>
       <c r="U12" s="13">
-        <v>469</v>
+        <v>229</v>
       </c>
       <c r="V12" s="13">
-        <v>229</v>
+        <v>68</v>
       </c>
       <c r="W12" s="13">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="X12" s="13">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="Y12" s="13">
-        <v>463</v>
+        <v>688</v>
       </c>
       <c r="Z12" s="13">
-        <v>688</v>
+        <v>529</v>
       </c>
       <c r="AA12" s="13">
-        <v>529</v>
+        <v>349</v>
       </c>
       <c r="AB12" s="13">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="AC12" s="13">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="AD12" s="13">
+        <v>285</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>350</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>396</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>484</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>451</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>393</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>490</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>586</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>405</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>379</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>334</v>
+      </c>
+      <c r="AO12" s="13">
         <v>213</v>
       </c>
-      <c r="AE12" s="13">
-        <v>285</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>350</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>396</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>484</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>451</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>393</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>490</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>586</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>405</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>379</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>334</v>
-      </c>
       <c r="AP12" s="13">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="AQ12" s="13">
-        <v>227</v>
+        <v>301</v>
       </c>
       <c r="AR12" s="13">
-        <v>301</v>
+        <v>376</v>
       </c>
       <c r="AS12" s="13">
-        <v>376</v>
+        <v>305</v>
       </c>
       <c r="AT12" s="13">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="AU12" s="13">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AV12" s="13">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="AW12" s="13">
-        <v>293</v>
+        <v>398</v>
       </c>
       <c r="AX12" s="13">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="AY12" s="13">
-        <v>343</v>
+        <v>317</v>
       </c>
       <c r="AZ12" s="13">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="BA12" s="13">
-        <v>302</v>
+        <v>353</v>
       </c>
       <c r="BB12" s="13">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1742,154 +1742,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>2584</v>
+        <v>2848</v>
       </c>
       <c r="F13" s="11">
-        <v>2848</v>
+        <v>2784</v>
       </c>
       <c r="G13" s="11">
-        <v>2784</v>
+        <v>1631</v>
       </c>
       <c r="H13" s="11">
-        <v>1631</v>
+        <v>1861</v>
       </c>
       <c r="I13" s="11">
-        <v>1861</v>
+        <v>2504</v>
       </c>
       <c r="J13" s="11">
-        <v>2504</v>
+        <v>1534</v>
       </c>
       <c r="K13" s="11">
-        <v>1534</v>
+        <v>2455</v>
       </c>
       <c r="L13" s="11">
-        <v>2455</v>
+        <v>2623</v>
       </c>
       <c r="M13" s="11">
-        <v>2623</v>
+        <v>1748</v>
       </c>
       <c r="N13" s="11">
-        <v>1748</v>
+        <v>1294</v>
       </c>
       <c r="O13" s="11">
-        <v>1294</v>
+        <v>2648</v>
       </c>
       <c r="P13" s="11">
-        <v>2648</v>
+        <v>2800</v>
       </c>
       <c r="Q13" s="11">
-        <v>2800</v>
+        <v>2580</v>
       </c>
       <c r="R13" s="11">
-        <v>2580</v>
+        <v>3080</v>
       </c>
       <c r="S13" s="11">
-        <v>3080</v>
+        <v>3580</v>
       </c>
       <c r="T13" s="11">
-        <v>3580</v>
+        <v>2593</v>
       </c>
       <c r="U13" s="11">
-        <v>2593</v>
+        <v>2113</v>
       </c>
       <c r="V13" s="11">
-        <v>2113</v>
+        <v>467</v>
       </c>
       <c r="W13" s="11">
-        <v>467</v>
+        <v>2637</v>
       </c>
       <c r="X13" s="11">
-        <v>2637</v>
+        <v>2728</v>
       </c>
       <c r="Y13" s="11">
-        <v>2728</v>
+        <v>2055</v>
       </c>
       <c r="Z13" s="11">
-        <v>2055</v>
+        <v>2614</v>
       </c>
       <c r="AA13" s="11">
-        <v>2614</v>
+        <v>3018</v>
       </c>
       <c r="AB13" s="11">
-        <v>3018</v>
+        <v>3140</v>
       </c>
       <c r="AC13" s="11">
-        <v>3140</v>
+        <v>2868</v>
       </c>
       <c r="AD13" s="11">
-        <v>2868</v>
+        <v>2911</v>
       </c>
       <c r="AE13" s="11">
-        <v>2911</v>
+        <v>2847</v>
       </c>
       <c r="AF13" s="11">
-        <v>2847</v>
+        <v>2948</v>
       </c>
       <c r="AG13" s="11">
-        <v>2948</v>
+        <v>3094</v>
       </c>
       <c r="AH13" s="11">
-        <v>3094</v>
+        <v>3134</v>
       </c>
       <c r="AI13" s="11">
-        <v>3134</v>
+        <v>3399</v>
       </c>
       <c r="AJ13" s="11">
-        <v>3399</v>
+        <v>3138</v>
       </c>
       <c r="AK13" s="11">
-        <v>3138</v>
+        <v>2953</v>
       </c>
       <c r="AL13" s="11">
-        <v>2953</v>
+        <v>2939</v>
       </c>
       <c r="AM13" s="11">
-        <v>2939</v>
+        <v>3107</v>
       </c>
       <c r="AN13" s="11">
-        <v>3107</v>
+        <v>3478</v>
       </c>
       <c r="AO13" s="11">
-        <v>3478</v>
+        <v>3658</v>
       </c>
       <c r="AP13" s="11">
-        <v>3658</v>
+        <v>3429</v>
       </c>
       <c r="AQ13" s="11">
-        <v>3429</v>
+        <v>3327</v>
       </c>
       <c r="AR13" s="11">
-        <v>3327</v>
+        <v>3137</v>
       </c>
       <c r="AS13" s="11">
-        <v>3137</v>
+        <v>3426</v>
       </c>
       <c r="AT13" s="11">
-        <v>3426</v>
+        <v>3390</v>
       </c>
       <c r="AU13" s="11">
-        <v>3390</v>
+        <v>3916</v>
       </c>
       <c r="AV13" s="11">
-        <v>3916</v>
+        <v>3727</v>
       </c>
       <c r="AW13" s="11">
-        <v>3727</v>
+        <v>3081</v>
       </c>
       <c r="AX13" s="11">
-        <v>3081</v>
+        <v>9937</v>
       </c>
       <c r="AY13" s="11">
-        <v>2498</v>
+        <v>2972</v>
       </c>
       <c r="AZ13" s="11">
-        <v>2972</v>
+        <v>11005</v>
       </c>
       <c r="BA13" s="11">
-        <v>3566</v>
+        <v>10978</v>
       </c>
       <c r="BB13" s="11">
-        <v>3539</v>
+        <v>3471</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1901,10 +1901,10 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>5552</v>
+        <v>191</v>
       </c>
       <c r="F14" s="13">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="G14" s="13">
         <v>0</v>
@@ -1951,8 +1951,8 @@
       <c r="U14" s="13">
         <v>0</v>
       </c>
-      <c r="V14" s="13">
-        <v>0</v>
+      <c r="V14" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="W14" s="13" t="s">
         <v>60</v>
@@ -2060,154 +2060,154 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>20300</v>
+        <v>16203</v>
       </c>
       <c r="F15" s="11">
-        <v>16203</v>
+        <v>13740</v>
       </c>
       <c r="G15" s="11">
-        <v>13740</v>
+        <v>11240</v>
       </c>
       <c r="H15" s="11">
-        <v>11240</v>
+        <v>11306</v>
       </c>
       <c r="I15" s="11">
-        <v>11306</v>
+        <v>11836</v>
       </c>
       <c r="J15" s="11">
-        <v>11836</v>
+        <v>11869</v>
       </c>
       <c r="K15" s="11">
-        <v>11869</v>
+        <v>11325</v>
       </c>
       <c r="L15" s="11">
-        <v>11325</v>
+        <v>14000</v>
       </c>
       <c r="M15" s="11">
-        <v>14000</v>
+        <v>14023</v>
       </c>
       <c r="N15" s="11">
-        <v>14023</v>
+        <v>12151</v>
       </c>
       <c r="O15" s="11">
-        <v>12151</v>
+        <v>12762</v>
       </c>
       <c r="P15" s="11">
-        <v>12762</v>
+        <v>16462</v>
       </c>
       <c r="Q15" s="11">
-        <v>16462</v>
+        <v>12187</v>
       </c>
       <c r="R15" s="11">
-        <v>12187</v>
+        <v>11439</v>
       </c>
       <c r="S15" s="11">
-        <v>11439</v>
+        <v>13383</v>
       </c>
       <c r="T15" s="11">
-        <v>13383</v>
+        <v>13425</v>
       </c>
       <c r="U15" s="11">
-        <v>13425</v>
+        <v>9364</v>
       </c>
       <c r="V15" s="11">
-        <v>9364</v>
+        <v>4097</v>
       </c>
       <c r="W15" s="11">
-        <v>4097</v>
+        <v>14916</v>
       </c>
       <c r="X15" s="11">
-        <v>14916</v>
+        <v>12499</v>
       </c>
       <c r="Y15" s="11">
-        <v>12499</v>
+        <v>15515</v>
       </c>
       <c r="Z15" s="11">
-        <v>15515</v>
+        <v>13602</v>
       </c>
       <c r="AA15" s="11">
-        <v>13602</v>
+        <v>13883</v>
       </c>
       <c r="AB15" s="11">
-        <v>13883</v>
+        <v>13187</v>
       </c>
       <c r="AC15" s="11">
-        <v>13187</v>
+        <v>12333</v>
       </c>
       <c r="AD15" s="11">
-        <v>12333</v>
+        <v>13867</v>
       </c>
       <c r="AE15" s="11">
-        <v>13867</v>
+        <v>15085</v>
       </c>
       <c r="AF15" s="11">
-        <v>15085</v>
+        <v>14150</v>
       </c>
       <c r="AG15" s="11">
-        <v>14150</v>
+        <v>15816</v>
       </c>
       <c r="AH15" s="11">
-        <v>15816</v>
+        <v>16615</v>
       </c>
       <c r="AI15" s="11">
-        <v>16615</v>
+        <v>14189</v>
       </c>
       <c r="AJ15" s="11">
-        <v>14189</v>
+        <v>17540</v>
       </c>
       <c r="AK15" s="11">
-        <v>17540</v>
+        <v>18827</v>
       </c>
       <c r="AL15" s="11">
-        <v>18827</v>
+        <v>15387</v>
       </c>
       <c r="AM15" s="11">
-        <v>15387</v>
+        <v>16391</v>
       </c>
       <c r="AN15" s="11">
-        <v>16391</v>
+        <v>15291</v>
       </c>
       <c r="AO15" s="11">
-        <v>15291</v>
+        <v>10208</v>
       </c>
       <c r="AP15" s="11">
-        <v>10208</v>
+        <v>11787</v>
       </c>
       <c r="AQ15" s="11">
-        <v>11787</v>
+        <v>14128</v>
       </c>
       <c r="AR15" s="11">
-        <v>14128</v>
+        <v>17289</v>
       </c>
       <c r="AS15" s="11">
-        <v>17289</v>
+        <v>17310</v>
       </c>
       <c r="AT15" s="11">
-        <v>17310</v>
+        <v>17678</v>
       </c>
       <c r="AU15" s="11">
-        <v>17678</v>
+        <v>16641</v>
       </c>
       <c r="AV15" s="11">
-        <v>16641</v>
+        <v>16926</v>
       </c>
       <c r="AW15" s="11">
-        <v>16926</v>
+        <v>16617</v>
       </c>
       <c r="AX15" s="11">
-        <v>16617</v>
+        <v>16896</v>
       </c>
       <c r="AY15" s="11">
-        <v>16896</v>
+        <v>17284</v>
       </c>
       <c r="AZ15" s="11">
-        <v>17284</v>
+        <v>15152</v>
       </c>
       <c r="BA15" s="11">
-        <v>15152</v>
+        <v>16569</v>
       </c>
       <c r="BB15" s="11">
-        <v>16569</v>
+        <v>16380</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2281,92 +2281,92 @@
       <c r="Y16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z16" s="13" t="s">
-        <v>60</v>
+      <c r="Z16" s="13">
+        <v>3145</v>
       </c>
       <c r="AA16" s="13">
-        <v>3145</v>
+        <v>2921</v>
       </c>
       <c r="AB16" s="13">
-        <v>2921</v>
+        <v>3092</v>
       </c>
       <c r="AC16" s="13">
-        <v>3092</v>
+        <v>1685</v>
       </c>
       <c r="AD16" s="13">
-        <v>1685</v>
+        <v>309</v>
       </c>
       <c r="AE16" s="13">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="AF16" s="13">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="AG16" s="13">
-        <v>545</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="13" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="AH16" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>585</v>
       </c>
       <c r="AJ16" s="13">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="13">
         <v>0</v>
       </c>
       <c r="AL16" s="13">
-        <v>0</v>
+        <v>1427</v>
       </c>
       <c r="AM16" s="13">
-        <v>1427</v>
+        <v>2199</v>
       </c>
       <c r="AN16" s="13">
-        <v>2199</v>
+        <v>1910</v>
       </c>
       <c r="AO16" s="13">
-        <v>1910</v>
+        <v>881</v>
       </c>
       <c r="AP16" s="13">
-        <v>881</v>
+        <v>1528</v>
       </c>
       <c r="AQ16" s="13">
-        <v>1528</v>
+        <v>1103</v>
       </c>
       <c r="AR16" s="13">
-        <v>1103</v>
+        <v>2952</v>
       </c>
       <c r="AS16" s="13">
-        <v>2952</v>
+        <v>2860</v>
       </c>
       <c r="AT16" s="13">
-        <v>2860</v>
+        <v>2383</v>
       </c>
       <c r="AU16" s="13">
-        <v>2383</v>
+        <v>2982</v>
       </c>
       <c r="AV16" s="13">
-        <v>2982</v>
+        <v>3279</v>
       </c>
       <c r="AW16" s="13">
-        <v>3279</v>
+        <v>2575</v>
       </c>
       <c r="AX16" s="13">
-        <v>2575</v>
+        <v>3412</v>
       </c>
       <c r="AY16" s="13">
-        <v>3412</v>
+        <v>3806</v>
       </c>
       <c r="AZ16" s="13">
-        <v>3806</v>
+        <v>2467</v>
       </c>
       <c r="BA16" s="13">
-        <v>2467</v>
+        <v>4356</v>
       </c>
       <c r="BB16" s="13">
-        <v>4356</v>
+        <v>5285</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2470,8 +2470,8 @@
       <c r="AI17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AJ17" s="11" t="s">
-        <v>60</v>
+      <c r="AJ17" s="11">
+        <v>0</v>
       </c>
       <c r="AK17" s="11">
         <v>0</v>
@@ -2671,8 +2671,8 @@
       <c r="AW18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AX18" s="13" t="s">
-        <v>60</v>
+      <c r="AX18" s="13">
+        <v>0</v>
       </c>
       <c r="AY18" s="13">
         <v>0</v>
@@ -2839,11 +2839,11 @@
       <c r="AG20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI20" s="11">
-        <v>0</v>
+      <c r="AH20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ20" s="11" t="s">
         <v>60</v>
@@ -2869,11 +2869,11 @@
       <c r="AQ20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS20" s="11">
-        <v>0</v>
+      <c r="AR20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AT20" s="11" t="s">
         <v>60</v>
@@ -2881,23 +2881,23 @@
       <c r="AU20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AV20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX20" s="11" t="s">
-        <v>60</v>
+      <c r="AV20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX20" s="11">
+        <v>0</v>
       </c>
       <c r="AY20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AZ20" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA20" s="11" t="s">
-        <v>60</v>
+      <c r="AZ20" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="11">
+        <v>0</v>
       </c>
       <c r="BB20" s="11" t="s">
         <v>60</v>
@@ -2971,8 +2971,8 @@
       <c r="X21" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Y21" s="13" t="s">
-        <v>60</v>
+      <c r="Y21" s="13">
+        <v>0</v>
       </c>
       <c r="Z21" s="13">
         <v>0</v>
@@ -2998,8 +2998,8 @@
       <c r="AG21" s="13">
         <v>0</v>
       </c>
-      <c r="AH21" s="13">
-        <v>0</v>
+      <c r="AH21" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AI21" s="13" t="s">
         <v>60</v>
@@ -3130,8 +3130,8 @@
       <c r="X22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y22" s="11" t="s">
-        <v>60</v>
+      <c r="Y22" s="11">
+        <v>0</v>
       </c>
       <c r="Z22" s="11">
         <v>0</v>
@@ -3160,8 +3160,8 @@
       <c r="AH22" s="11">
         <v>0</v>
       </c>
-      <c r="AI22" s="11">
-        <v>0</v>
+      <c r="AI22" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ22" s="11" t="s">
         <v>60</v>
@@ -3187,11 +3187,11 @@
       <c r="AQ22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS22" s="11">
-        <v>0</v>
+      <c r="AR22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AT22" s="11" t="s">
         <v>60</v>
@@ -3199,23 +3199,23 @@
       <c r="AU22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AV22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX22" s="11" t="s">
-        <v>60</v>
+      <c r="AV22" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX22" s="11">
+        <v>0</v>
       </c>
       <c r="AY22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AZ22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA22" s="11" t="s">
-        <v>60</v>
+      <c r="AZ22" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="11">
+        <v>0</v>
       </c>
       <c r="BB22" s="11" t="s">
         <v>60</v>
@@ -3358,23 +3358,23 @@
       <c r="AU23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AV23" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW23" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX23" s="13" t="s">
-        <v>60</v>
+      <c r="AV23" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX23" s="13">
+        <v>0</v>
       </c>
       <c r="AY23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AZ23" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA23" s="13" t="s">
-        <v>60</v>
+      <c r="AZ23" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="13">
+        <v>0</v>
       </c>
       <c r="BB23" s="13" t="s">
         <v>60</v>
@@ -3446,8 +3446,8 @@
       <c r="X24" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y24" s="15" t="s">
-        <v>60</v>
+      <c r="Y24" s="15">
+        <v>0</v>
       </c>
       <c r="Z24" s="15">
         <v>0</v>
@@ -3544,154 +3544,154 @@
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17">
-        <v>28896</v>
+        <v>19716</v>
       </c>
       <c r="F25" s="17">
-        <v>19716</v>
+        <v>16812</v>
       </c>
       <c r="G25" s="17">
-        <v>16812</v>
+        <v>13151</v>
       </c>
       <c r="H25" s="17">
-        <v>13151</v>
+        <v>13362</v>
       </c>
       <c r="I25" s="17">
-        <v>13362</v>
+        <v>14543</v>
       </c>
       <c r="J25" s="17">
-        <v>14543</v>
+        <v>13694</v>
       </c>
       <c r="K25" s="17">
-        <v>13694</v>
+        <v>14197</v>
       </c>
       <c r="L25" s="17">
-        <v>14197</v>
+        <v>17062</v>
       </c>
       <c r="M25" s="17">
-        <v>17062</v>
+        <v>16138</v>
       </c>
       <c r="N25" s="17">
-        <v>16138</v>
+        <v>13830</v>
       </c>
       <c r="O25" s="17">
-        <v>13830</v>
+        <v>16145</v>
       </c>
       <c r="P25" s="17">
-        <v>16145</v>
+        <v>19965</v>
       </c>
       <c r="Q25" s="17">
-        <v>19965</v>
+        <v>15206</v>
       </c>
       <c r="R25" s="17">
-        <v>15206</v>
+        <v>15038</v>
       </c>
       <c r="S25" s="17">
-        <v>15038</v>
+        <v>17519</v>
       </c>
       <c r="T25" s="17">
-        <v>17519</v>
+        <v>16487</v>
       </c>
       <c r="U25" s="17">
-        <v>16487</v>
+        <v>11706</v>
       </c>
       <c r="V25" s="17">
-        <v>11706</v>
+        <v>4632</v>
       </c>
       <c r="W25" s="17">
-        <v>4632</v>
+        <v>17553</v>
       </c>
       <c r="X25" s="17">
-        <v>17553</v>
+        <v>15690</v>
       </c>
       <c r="Y25" s="17">
-        <v>15690</v>
+        <v>18258</v>
       </c>
       <c r="Z25" s="17">
-        <v>18258</v>
+        <v>19890</v>
       </c>
       <c r="AA25" s="17">
-        <v>19890</v>
+        <v>20171</v>
       </c>
       <c r="AB25" s="17">
-        <v>20171</v>
+        <v>19727</v>
       </c>
       <c r="AC25" s="17">
-        <v>19727</v>
+        <v>17099</v>
       </c>
       <c r="AD25" s="17">
-        <v>17099</v>
+        <v>17372</v>
       </c>
       <c r="AE25" s="17">
-        <v>17372</v>
+        <v>18282</v>
       </c>
       <c r="AF25" s="17">
-        <v>18282</v>
+        <v>18039</v>
       </c>
       <c r="AG25" s="17">
-        <v>18039</v>
+        <v>19394</v>
       </c>
       <c r="AH25" s="17">
-        <v>19394</v>
+        <v>20200</v>
       </c>
       <c r="AI25" s="17">
-        <v>20200</v>
+        <v>18566</v>
       </c>
       <c r="AJ25" s="17">
-        <v>18566</v>
+        <v>21168</v>
       </c>
       <c r="AK25" s="17">
-        <v>21168</v>
+        <v>22366</v>
       </c>
       <c r="AL25" s="17">
-        <v>22366</v>
+        <v>20158</v>
       </c>
       <c r="AM25" s="17">
-        <v>20158</v>
+        <v>22076</v>
       </c>
       <c r="AN25" s="17">
-        <v>22076</v>
+        <v>21013</v>
       </c>
       <c r="AO25" s="17">
-        <v>21013</v>
+        <v>14960</v>
       </c>
       <c r="AP25" s="17">
-        <v>14960</v>
+        <v>16971</v>
       </c>
       <c r="AQ25" s="17">
-        <v>16971</v>
+        <v>18859</v>
       </c>
       <c r="AR25" s="17">
-        <v>18859</v>
+        <v>23754</v>
       </c>
       <c r="AS25" s="17">
-        <v>23754</v>
+        <v>23901</v>
       </c>
       <c r="AT25" s="17">
-        <v>23901</v>
+        <v>23765</v>
       </c>
       <c r="AU25" s="17">
-        <v>23765</v>
+        <v>23845</v>
       </c>
       <c r="AV25" s="17">
-        <v>23845</v>
+        <v>24225</v>
       </c>
       <c r="AW25" s="17">
-        <v>24225</v>
+        <v>22671</v>
       </c>
       <c r="AX25" s="17">
-        <v>22671</v>
+        <v>30588</v>
       </c>
       <c r="AY25" s="17">
-        <v>23149</v>
+        <v>24379</v>
       </c>
       <c r="AZ25" s="17">
-        <v>24379</v>
+        <v>28926</v>
       </c>
       <c r="BA25" s="17">
-        <v>21487</v>
+        <v>32256</v>
       </c>
       <c r="BB25" s="17">
-        <v>24817</v>
+        <v>25484</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -4206,10 +4206,10 @@
         <v>0</v>
       </c>
       <c r="AB32" s="11">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AC32" s="11">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AD32" s="11">
         <v>0</v>
@@ -4296,58 +4296,58 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>110</v>
+        <v>45</v>
       </c>
       <c r="F33" s="13">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="G33" s="13">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="H33" s="13">
-        <v>138</v>
+        <v>1834</v>
       </c>
       <c r="I33" s="13">
-        <v>1834</v>
+        <v>922</v>
       </c>
       <c r="J33" s="13">
-        <v>922</v>
+        <v>0</v>
       </c>
       <c r="K33" s="13">
-        <v>0</v>
+        <v>897</v>
       </c>
       <c r="L33" s="13">
-        <v>897</v>
+        <v>885</v>
       </c>
       <c r="M33" s="13">
-        <v>885</v>
+        <v>919</v>
       </c>
       <c r="N33" s="13">
-        <v>919</v>
+        <v>940</v>
       </c>
       <c r="O33" s="13">
-        <v>940</v>
+        <v>0</v>
       </c>
       <c r="P33" s="13">
-        <v>0</v>
+        <v>869</v>
       </c>
       <c r="Q33" s="13">
-        <v>869</v>
+        <v>42</v>
       </c>
       <c r="R33" s="13">
-        <v>42</v>
+        <v>877</v>
       </c>
       <c r="S33" s="13">
-        <v>877</v>
+        <v>0</v>
       </c>
       <c r="T33" s="13">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="U33" s="13">
-        <v>189</v>
+        <v>18</v>
       </c>
       <c r="V33" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="W33" s="13">
         <v>0</v>
@@ -4356,64 +4356,64 @@
         <v>0</v>
       </c>
       <c r="Y33" s="13">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="Z33" s="13">
-        <v>602</v>
+        <v>990</v>
       </c>
       <c r="AA33" s="13">
-        <v>990</v>
+        <v>1063</v>
       </c>
       <c r="AB33" s="13">
-        <v>1063</v>
+        <v>903</v>
       </c>
       <c r="AC33" s="13">
-        <v>903</v>
+        <v>886</v>
       </c>
       <c r="AD33" s="13">
-        <v>886</v>
+        <v>180</v>
       </c>
       <c r="AE33" s="13">
-        <v>180</v>
+        <v>564</v>
       </c>
       <c r="AF33" s="13">
-        <v>564</v>
+        <v>51</v>
       </c>
       <c r="AG33" s="13">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="13">
         <v>0</v>
       </c>
       <c r="AI33" s="13">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="AJ33" s="13">
-        <v>713</v>
+        <v>1000</v>
       </c>
       <c r="AK33" s="13">
-        <v>1000</v>
+        <v>661</v>
       </c>
       <c r="AL33" s="13">
-        <v>661</v>
+        <v>244</v>
       </c>
       <c r="AM33" s="13">
-        <v>244</v>
+        <v>609</v>
       </c>
       <c r="AN33" s="13">
-        <v>609</v>
+        <v>474</v>
       </c>
       <c r="AO33" s="13">
-        <v>474</v>
+        <v>328</v>
       </c>
       <c r="AP33" s="13">
-        <v>328</v>
+        <v>220</v>
       </c>
       <c r="AQ33" s="13">
-        <v>220</v>
+        <v>150</v>
       </c>
       <c r="AR33" s="13">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="13">
         <v>0</v>
@@ -4428,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="AW33" s="13">
-        <v>0</v>
+        <v>2477</v>
       </c>
       <c r="AX33" s="13">
-        <v>2477</v>
+        <v>0</v>
       </c>
       <c r="AY33" s="13">
         <v>0</v>
@@ -4455,154 +4455,154 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="F34" s="11">
-        <v>390</v>
+        <v>735</v>
       </c>
       <c r="G34" s="11">
-        <v>735</v>
+        <v>2109</v>
       </c>
       <c r="H34" s="11">
-        <v>2109</v>
+        <v>0</v>
       </c>
       <c r="I34" s="11">
-        <v>0</v>
+        <v>4294</v>
       </c>
       <c r="J34" s="11">
-        <v>4294</v>
+        <v>120</v>
       </c>
       <c r="K34" s="11">
-        <v>120</v>
+        <v>792</v>
       </c>
       <c r="L34" s="11">
-        <v>792</v>
+        <v>12058</v>
       </c>
       <c r="M34" s="11">
-        <v>12058</v>
+        <v>4033</v>
       </c>
       <c r="N34" s="11">
-        <v>4033</v>
+        <v>679</v>
       </c>
       <c r="O34" s="11">
-        <v>679</v>
+        <v>300</v>
       </c>
       <c r="P34" s="11">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="11">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R34" s="11">
-        <v>27</v>
+        <v>762</v>
       </c>
       <c r="S34" s="11">
-        <v>762</v>
+        <v>1697</v>
       </c>
       <c r="T34" s="11">
-        <v>1697</v>
+        <v>5943</v>
       </c>
       <c r="U34" s="11">
-        <v>5943</v>
+        <v>2321</v>
       </c>
       <c r="V34" s="11">
-        <v>2321</v>
+        <v>454</v>
       </c>
       <c r="W34" s="11">
-        <v>454</v>
+        <v>2922</v>
       </c>
       <c r="X34" s="11">
-        <v>2922</v>
+        <v>2569</v>
       </c>
       <c r="Y34" s="11">
-        <v>2569</v>
+        <v>3202</v>
       </c>
       <c r="Z34" s="11">
-        <v>3202</v>
+        <v>658</v>
       </c>
       <c r="AA34" s="11">
-        <v>658</v>
+        <v>4483</v>
       </c>
       <c r="AB34" s="11">
-        <v>4483</v>
+        <v>5224</v>
       </c>
       <c r="AC34" s="11">
-        <v>5224</v>
+        <v>785</v>
       </c>
       <c r="AD34" s="11">
-        <v>785</v>
+        <v>4000</v>
       </c>
       <c r="AE34" s="11">
-        <v>4000</v>
+        <v>52</v>
       </c>
       <c r="AF34" s="11">
-        <v>52</v>
+        <v>3161</v>
       </c>
       <c r="AG34" s="11">
-        <v>3161</v>
+        <v>240</v>
       </c>
       <c r="AH34" s="11">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="AI34" s="11">
-        <v>145</v>
+        <v>4278</v>
       </c>
       <c r="AJ34" s="11">
-        <v>4278</v>
+        <v>3471</v>
       </c>
       <c r="AK34" s="11">
-        <v>3471</v>
+        <v>1778</v>
       </c>
       <c r="AL34" s="11">
-        <v>1778</v>
+        <v>2589</v>
       </c>
       <c r="AM34" s="11">
-        <v>2589</v>
+        <v>2399</v>
       </c>
       <c r="AN34" s="11">
-        <v>2399</v>
+        <v>2126</v>
       </c>
       <c r="AO34" s="11">
-        <v>2126</v>
+        <v>2323</v>
       </c>
       <c r="AP34" s="11">
-        <v>2323</v>
+        <v>4733</v>
       </c>
       <c r="AQ34" s="11">
-        <v>4733</v>
+        <v>2989</v>
       </c>
       <c r="AR34" s="11">
-        <v>2989</v>
+        <v>5019</v>
       </c>
       <c r="AS34" s="11">
-        <v>5019</v>
+        <v>6875</v>
       </c>
       <c r="AT34" s="11">
-        <v>6875</v>
+        <v>999</v>
       </c>
       <c r="AU34" s="11">
-        <v>999</v>
+        <v>1149</v>
       </c>
       <c r="AV34" s="11">
-        <v>1149</v>
+        <v>10686</v>
       </c>
       <c r="AW34" s="11">
-        <v>10686</v>
+        <v>3173</v>
       </c>
       <c r="AX34" s="11">
-        <v>3173</v>
+        <v>3719</v>
       </c>
       <c r="AY34" s="11">
-        <v>3122</v>
+        <v>4470</v>
       </c>
       <c r="AZ34" s="11">
-        <v>4470</v>
+        <v>3897</v>
       </c>
       <c r="BA34" s="11">
-        <v>3300</v>
+        <v>3696</v>
       </c>
       <c r="BB34" s="11">
-        <v>3099</v>
+        <v>13391</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4664,8 +4664,8 @@
       <c r="U35" s="13">
         <v>0</v>
       </c>
-      <c r="V35" s="13">
-        <v>0</v>
+      <c r="V35" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="W35" s="13" t="s">
         <v>60</v>
@@ -4773,55 +4773,55 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>0</v>
+        <v>1581</v>
       </c>
       <c r="F36" s="11">
-        <v>1581</v>
+        <v>2102</v>
       </c>
       <c r="G36" s="11">
-        <v>2102</v>
+        <v>2325</v>
       </c>
       <c r="H36" s="11">
-        <v>2325</v>
+        <v>0</v>
       </c>
       <c r="I36" s="11">
-        <v>0</v>
+        <v>2711</v>
       </c>
       <c r="J36" s="11">
-        <v>2711</v>
+        <v>0</v>
       </c>
       <c r="K36" s="11">
         <v>0</v>
       </c>
       <c r="L36" s="11">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="M36" s="11">
-        <v>714</v>
+        <v>66</v>
       </c>
       <c r="N36" s="11">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="O36" s="11">
-        <v>0</v>
+        <v>1794</v>
       </c>
       <c r="P36" s="11">
-        <v>1794</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="11">
-        <v>0</v>
+        <v>258</v>
       </c>
       <c r="R36" s="11">
-        <v>258</v>
+        <v>952</v>
       </c>
       <c r="S36" s="11">
-        <v>952</v>
+        <v>1018</v>
       </c>
       <c r="T36" s="11">
-        <v>1018</v>
+        <v>2427</v>
       </c>
       <c r="U36" s="11">
-        <v>2427</v>
+        <v>0</v>
       </c>
       <c r="V36" s="11">
         <v>0</v>
@@ -4830,55 +4830,55 @@
         <v>0</v>
       </c>
       <c r="X36" s="11">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="Y36" s="11">
-        <v>4200</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="11">
-        <v>0</v>
+        <v>893</v>
       </c>
       <c r="AA36" s="11">
-        <v>893</v>
+        <v>2056</v>
       </c>
       <c r="AB36" s="11">
-        <v>2056</v>
+        <v>0</v>
       </c>
       <c r="AC36" s="11">
-        <v>0</v>
+        <v>2907</v>
       </c>
       <c r="AD36" s="11">
-        <v>2907</v>
+        <v>0</v>
       </c>
       <c r="AE36" s="11">
-        <v>0</v>
+        <v>1724</v>
       </c>
       <c r="AF36" s="11">
-        <v>1724</v>
+        <v>622</v>
       </c>
       <c r="AG36" s="11">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="11">
         <v>0</v>
       </c>
       <c r="AI36" s="11">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="AJ36" s="11">
-        <v>541</v>
+        <v>1998</v>
       </c>
       <c r="AK36" s="11">
-        <v>1998</v>
+        <v>2019</v>
       </c>
       <c r="AL36" s="11">
-        <v>2019</v>
+        <v>2209</v>
       </c>
       <c r="AM36" s="11">
-        <v>2209</v>
+        <v>4137</v>
       </c>
       <c r="AN36" s="11">
-        <v>4137</v>
+        <v>0</v>
       </c>
       <c r="AO36" s="11">
         <v>0</v>
@@ -4994,8 +4994,8 @@
       <c r="Y37" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z37" s="13" t="s">
-        <v>60</v>
+      <c r="Z37" s="13">
+        <v>0</v>
       </c>
       <c r="AA37" s="13">
         <v>0</v>
@@ -5018,11 +5018,11 @@
       <c r="AG37" s="13">
         <v>0</v>
       </c>
-      <c r="AH37" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI37" s="13" t="s">
-        <v>60</v>
+      <c r="AH37" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI37" s="13">
+        <v>0</v>
       </c>
       <c r="AJ37" s="13">
         <v>0</v>
@@ -5183,62 +5183,62 @@
       <c r="AI38" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AJ38" s="11" t="s">
-        <v>60</v>
+      <c r="AJ38" s="11">
+        <v>500</v>
       </c>
       <c r="AK38" s="11">
-        <v>500</v>
+        <v>25</v>
       </c>
       <c r="AL38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="11">
         <v>25</v>
       </c>
-      <c r="AM38" s="11">
-        <v>0</v>
-      </c>
       <c r="AN38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="11">
+        <v>100</v>
+      </c>
+      <c r="AQ38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="11">
         <v>25</v>
       </c>
-      <c r="AO38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AQ38" s="11">
-        <v>100</v>
-      </c>
-      <c r="AR38" s="11">
-        <v>0</v>
-      </c>
       <c r="AS38" s="11">
+        <v>50</v>
+      </c>
+      <c r="AT38" s="11">
+        <v>150</v>
+      </c>
+      <c r="AU38" s="11">
+        <v>1425</v>
+      </c>
+      <c r="AV38" s="11">
         <v>25</v>
-      </c>
-      <c r="AT38" s="11">
-        <v>50</v>
-      </c>
-      <c r="AU38" s="11">
-        <v>150</v>
-      </c>
-      <c r="AV38" s="11">
-        <v>1425</v>
       </c>
       <c r="AW38" s="11">
         <v>25</v>
       </c>
       <c r="AX38" s="11">
+        <v>75</v>
+      </c>
+      <c r="AY38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="11">
         <v>25</v>
       </c>
-      <c r="AY38" s="11">
-        <v>75</v>
-      </c>
-      <c r="AZ38" s="11">
-        <v>0</v>
-      </c>
       <c r="BA38" s="11">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="11">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="39" spans="2:54" x14ac:dyDescent="0.3">
@@ -5384,11 +5384,11 @@
       <c r="AW39" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AX39" s="13" t="s">
-        <v>60</v>
+      <c r="AX39" s="13">
+        <v>439</v>
       </c>
       <c r="AY39" s="13">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="13">
         <v>0</v>
@@ -5552,11 +5552,11 @@
       <c r="AG41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI41" s="11">
-        <v>0</v>
+      <c r="AH41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AJ41" s="11" t="s">
         <v>60</v>
@@ -5582,11 +5582,11 @@
       <c r="AQ41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS41" s="11">
-        <v>0</v>
+      <c r="AR41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AT41" s="11" t="s">
         <v>60</v>
@@ -5594,23 +5594,23 @@
       <c r="AU41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AV41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW41" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX41" s="11" t="s">
-        <v>60</v>
+      <c r="AV41" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX41" s="11">
+        <v>0</v>
       </c>
       <c r="AY41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AZ41" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA41" s="11" t="s">
-        <v>60</v>
+      <c r="AZ41" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA41" s="11">
+        <v>0</v>
       </c>
       <c r="BB41" s="11" t="s">
         <v>60</v>
@@ -5684,8 +5684,8 @@
       <c r="X42" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Y42" s="13" t="s">
-        <v>60</v>
+      <c r="Y42" s="13">
+        <v>0</v>
       </c>
       <c r="Z42" s="13">
         <v>0</v>
@@ -5711,8 +5711,8 @@
       <c r="AG42" s="13">
         <v>0</v>
       </c>
-      <c r="AH42" s="13">
-        <v>0</v>
+      <c r="AH42" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AI42" s="13" t="s">
         <v>60</v>
@@ -5843,14 +5843,14 @@
       <c r="X43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>60</v>
+      <c r="Y43" s="11">
+        <v>0</v>
       </c>
       <c r="Z43" s="11">
-        <v>0</v>
+        <v>1119</v>
       </c>
       <c r="AA43" s="11">
-        <v>1119</v>
+        <v>0</v>
       </c>
       <c r="AB43" s="11">
         <v>0</v>
@@ -5859,76 +5859,76 @@
         <v>0</v>
       </c>
       <c r="AD43" s="11">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="AE43" s="11">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="AF43" s="11">
-        <v>0</v>
+        <v>1794</v>
       </c>
       <c r="AG43" s="11">
-        <v>1794</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="11">
         <v>0</v>
       </c>
-      <c r="AI43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK43" s="11">
+      <c r="AI43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ43" s="11">
         <v>2980</v>
       </c>
-      <c r="AL43" s="11" t="s">
-        <v>60</v>
+      <c r="AK43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL43" s="11">
+        <v>1234</v>
       </c>
       <c r="AM43" s="11">
-        <v>1234</v>
+        <v>2194</v>
       </c>
       <c r="AN43" s="11">
-        <v>2194</v>
+        <v>3142</v>
       </c>
       <c r="AO43" s="11">
-        <v>3142</v>
-      </c>
-      <c r="AP43" s="11">
         <v>2642</v>
       </c>
-      <c r="AQ43" s="11" t="s">
-        <v>60</v>
+      <c r="AP43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ43" s="11">
+        <v>0</v>
       </c>
       <c r="AR43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS43" s="11">
         <v>5897</v>
       </c>
+      <c r="AS43" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AT43" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AU43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AV43" s="11" t="s">
-        <v>60</v>
+      <c r="AV43" s="11">
+        <v>0</v>
       </c>
       <c r="AW43" s="11">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="AX43" s="11">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="AY43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AZ43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA43" s="11" t="s">
-        <v>60</v>
+      <c r="AZ43" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA43" s="11">
+        <v>0</v>
       </c>
       <c r="BB43" s="11" t="s">
         <v>60</v>
@@ -6071,23 +6071,23 @@
       <c r="AU44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AV44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW44" s="13">
-        <v>0</v>
-      </c>
-      <c r="AX44" s="13" t="s">
-        <v>60</v>
+      <c r="AV44" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX44" s="13">
+        <v>0</v>
       </c>
       <c r="AY44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AZ44" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA44" s="13" t="s">
-        <v>60</v>
+      <c r="AZ44" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA44" s="13">
+        <v>0</v>
       </c>
       <c r="BB44" s="13" t="s">
         <v>60</v>
@@ -6159,14 +6159,14 @@
       <c r="X45" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y45" s="15" t="s">
-        <v>60</v>
+      <c r="Y45" s="15">
+        <v>0</v>
       </c>
       <c r="Z45" s="15">
-        <v>0</v>
+        <v>1119</v>
       </c>
       <c r="AA45" s="15">
-        <v>1119</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="15">
         <v>0</v>
@@ -6175,16 +6175,16 @@
         <v>0</v>
       </c>
       <c r="AD45" s="15">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="AE45" s="15">
-        <v>1187</v>
+        <v>0</v>
       </c>
       <c r="AF45" s="15">
-        <v>0</v>
+        <v>1794</v>
       </c>
       <c r="AG45" s="15">
-        <v>1794</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="15">
         <v>0</v>
@@ -6193,34 +6193,34 @@
         <v>0</v>
       </c>
       <c r="AJ45" s="15">
-        <v>0</v>
+        <v>2980</v>
       </c>
       <c r="AK45" s="15">
-        <v>2980</v>
+        <v>0</v>
       </c>
       <c r="AL45" s="15">
-        <v>0</v>
+        <v>1234</v>
       </c>
       <c r="AM45" s="15">
-        <v>1234</v>
+        <v>2194</v>
       </c>
       <c r="AN45" s="15">
-        <v>2194</v>
+        <v>3142</v>
       </c>
       <c r="AO45" s="15">
-        <v>3142</v>
+        <v>2642</v>
       </c>
       <c r="AP45" s="15">
-        <v>2642</v>
+        <v>0</v>
       </c>
       <c r="AQ45" s="15">
         <v>0</v>
       </c>
       <c r="AR45" s="15">
-        <v>0</v>
+        <v>5897</v>
       </c>
       <c r="AS45" s="15">
-        <v>5897</v>
+        <v>0</v>
       </c>
       <c r="AT45" s="15">
         <v>0</v>
@@ -6232,10 +6232,10 @@
         <v>0</v>
       </c>
       <c r="AW45" s="15">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="AX45" s="15">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="AY45" s="15">
         <v>0</v>
@@ -6373,8 +6373,8 @@
       <c r="X47" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y47" s="15" t="s">
-        <v>60</v>
+      <c r="Y47" s="15">
+        <v>0</v>
       </c>
       <c r="Z47" s="15">
         <v>0</v>
@@ -6471,154 +6471,154 @@
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17">
-        <v>110</v>
+        <v>2016</v>
       </c>
       <c r="F48" s="17">
-        <v>2016</v>
+        <v>2837</v>
       </c>
       <c r="G48" s="17">
-        <v>2837</v>
+        <v>4572</v>
       </c>
       <c r="H48" s="17">
-        <v>4572</v>
+        <v>1834</v>
       </c>
       <c r="I48" s="17">
-        <v>1834</v>
+        <v>7927</v>
       </c>
       <c r="J48" s="17">
-        <v>7927</v>
+        <v>120</v>
       </c>
       <c r="K48" s="17">
-        <v>120</v>
+        <v>1689</v>
       </c>
       <c r="L48" s="17">
-        <v>1689</v>
+        <v>13657</v>
       </c>
       <c r="M48" s="17">
-        <v>13657</v>
+        <v>5018</v>
       </c>
       <c r="N48" s="17">
-        <v>5018</v>
+        <v>1619</v>
       </c>
       <c r="O48" s="17">
-        <v>1619</v>
+        <v>2094</v>
       </c>
       <c r="P48" s="17">
-        <v>2094</v>
+        <v>869</v>
       </c>
       <c r="Q48" s="17">
-        <v>869</v>
+        <v>327</v>
       </c>
       <c r="R48" s="17">
-        <v>327</v>
+        <v>2591</v>
       </c>
       <c r="S48" s="17">
-        <v>2591</v>
+        <v>2715</v>
       </c>
       <c r="T48" s="17">
-        <v>2715</v>
+        <v>8559</v>
       </c>
       <c r="U48" s="17">
-        <v>8559</v>
+        <v>2339</v>
       </c>
       <c r="V48" s="17">
-        <v>2339</v>
+        <v>454</v>
       </c>
       <c r="W48" s="17">
-        <v>454</v>
+        <v>2922</v>
       </c>
       <c r="X48" s="17">
-        <v>2922</v>
+        <v>6769</v>
       </c>
       <c r="Y48" s="17">
-        <v>6769</v>
+        <v>3804</v>
       </c>
       <c r="Z48" s="17">
-        <v>3804</v>
+        <v>3660</v>
       </c>
       <c r="AA48" s="17">
-        <v>3660</v>
+        <v>7602</v>
       </c>
       <c r="AB48" s="17">
-        <v>7602</v>
+        <v>6252</v>
       </c>
       <c r="AC48" s="17">
-        <v>6252</v>
+        <v>4578</v>
       </c>
       <c r="AD48" s="17">
-        <v>4578</v>
+        <v>5367</v>
       </c>
       <c r="AE48" s="17">
-        <v>5367</v>
+        <v>2340</v>
       </c>
       <c r="AF48" s="17">
-        <v>2340</v>
+        <v>5628</v>
       </c>
       <c r="AG48" s="17">
-        <v>5628</v>
+        <v>240</v>
       </c>
       <c r="AH48" s="17">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="AI48" s="17">
-        <v>145</v>
+        <v>5532</v>
       </c>
       <c r="AJ48" s="17">
-        <v>5532</v>
+        <v>9949</v>
       </c>
       <c r="AK48" s="17">
-        <v>9949</v>
+        <v>4483</v>
       </c>
       <c r="AL48" s="17">
-        <v>4483</v>
+        <v>6276</v>
       </c>
       <c r="AM48" s="17">
-        <v>6276</v>
+        <v>9364</v>
       </c>
       <c r="AN48" s="17">
-        <v>9364</v>
+        <v>5742</v>
       </c>
       <c r="AO48" s="17">
-        <v>5742</v>
+        <v>5293</v>
       </c>
       <c r="AP48" s="17">
-        <v>5293</v>
+        <v>5053</v>
       </c>
       <c r="AQ48" s="17">
-        <v>5053</v>
+        <v>3139</v>
       </c>
       <c r="AR48" s="17">
-        <v>3139</v>
+        <v>10941</v>
       </c>
       <c r="AS48" s="17">
-        <v>10941</v>
+        <v>6925</v>
       </c>
       <c r="AT48" s="17">
-        <v>6925</v>
+        <v>1149</v>
       </c>
       <c r="AU48" s="17">
-        <v>1149</v>
+        <v>2574</v>
       </c>
       <c r="AV48" s="17">
-        <v>2574</v>
+        <v>10711</v>
       </c>
       <c r="AW48" s="17">
-        <v>10711</v>
+        <v>6393</v>
       </c>
       <c r="AX48" s="17">
-        <v>6393</v>
+        <v>4233</v>
       </c>
       <c r="AY48" s="17">
-        <v>3636</v>
+        <v>4470</v>
       </c>
       <c r="AZ48" s="17">
-        <v>4470</v>
+        <v>3922</v>
       </c>
       <c r="BA48" s="17">
-        <v>3325</v>
+        <v>3696</v>
       </c>
       <c r="BB48" s="17">
-        <v>3099</v>
+        <v>13591</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -7064,154 +7064,154 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>53109</v>
+        <v>12945</v>
       </c>
       <c r="F55" s="11">
-        <v>12945</v>
+        <v>12325</v>
       </c>
       <c r="G55" s="11">
-        <v>12325</v>
+        <v>17935</v>
       </c>
       <c r="H55" s="11">
-        <v>17935</v>
+        <v>46860</v>
       </c>
       <c r="I55" s="11">
-        <v>46860</v>
+        <v>103020</v>
       </c>
       <c r="J55" s="11">
-        <v>103020</v>
+        <v>6299</v>
       </c>
       <c r="K55" s="11">
-        <v>6299</v>
+        <v>109221</v>
       </c>
       <c r="L55" s="11">
-        <v>109221</v>
+        <v>10750</v>
       </c>
       <c r="M55" s="11">
-        <v>10750</v>
+        <v>52572</v>
       </c>
       <c r="N55" s="11">
-        <v>52572</v>
+        <v>2544</v>
       </c>
       <c r="O55" s="11">
-        <v>2544</v>
+        <v>51655</v>
       </c>
       <c r="P55" s="11">
-        <v>51655</v>
+        <v>28776</v>
       </c>
       <c r="Q55" s="11">
-        <v>28776</v>
+        <v>31276</v>
       </c>
       <c r="R55" s="11">
-        <v>31276</v>
+        <v>182989</v>
       </c>
       <c r="S55" s="11">
-        <v>182989</v>
+        <v>197320</v>
       </c>
       <c r="T55" s="11">
-        <v>197320</v>
+        <v>147722</v>
       </c>
       <c r="U55" s="11">
-        <v>147722</v>
+        <v>140038</v>
       </c>
       <c r="V55" s="11">
-        <v>140038</v>
+        <v>13754</v>
       </c>
       <c r="W55" s="11">
-        <v>13754</v>
+        <v>56779</v>
       </c>
       <c r="X55" s="11">
-        <v>56779</v>
+        <v>33730</v>
       </c>
       <c r="Y55" s="11">
-        <v>33730</v>
+        <v>43867</v>
       </c>
       <c r="Z55" s="11">
-        <v>43867</v>
+        <v>25753</v>
       </c>
       <c r="AA55" s="11">
-        <v>25753</v>
+        <v>57358</v>
       </c>
       <c r="AB55" s="11">
-        <v>57358</v>
+        <v>50558</v>
       </c>
       <c r="AC55" s="11">
-        <v>50558</v>
+        <v>64396</v>
       </c>
       <c r="AD55" s="11">
-        <v>64396</v>
+        <v>88119</v>
       </c>
       <c r="AE55" s="11">
-        <v>88119</v>
+        <v>68728</v>
       </c>
       <c r="AF55" s="11">
-        <v>68728</v>
+        <v>71452</v>
       </c>
       <c r="AG55" s="11">
-        <v>71452</v>
+        <v>14733</v>
       </c>
       <c r="AH55" s="11">
-        <v>14733</v>
+        <v>4751</v>
       </c>
       <c r="AI55" s="11">
-        <v>4751</v>
+        <v>23232</v>
       </c>
       <c r="AJ55" s="11">
-        <v>23232</v>
+        <v>3373</v>
       </c>
       <c r="AK55" s="11">
-        <v>3373</v>
+        <v>11890</v>
       </c>
       <c r="AL55" s="11">
-        <v>11890</v>
+        <v>12740</v>
       </c>
       <c r="AM55" s="11">
-        <v>12740</v>
+        <v>2130</v>
       </c>
       <c r="AN55" s="11">
-        <v>2130</v>
+        <v>0</v>
       </c>
       <c r="AO55" s="11">
-        <v>0</v>
+        <v>3029</v>
       </c>
       <c r="AP55" s="11">
-        <v>3029</v>
+        <v>5668</v>
       </c>
       <c r="AQ55" s="11">
-        <v>5668</v>
+        <v>3096</v>
       </c>
       <c r="AR55" s="11">
-        <v>3096</v>
+        <v>7587</v>
       </c>
       <c r="AS55" s="11">
-        <v>7587</v>
+        <v>3841</v>
       </c>
       <c r="AT55" s="11">
-        <v>3841</v>
+        <v>0</v>
       </c>
       <c r="AU55" s="11">
-        <v>0</v>
+        <v>13487</v>
       </c>
       <c r="AV55" s="11">
-        <v>13487</v>
+        <v>4858</v>
       </c>
       <c r="AW55" s="11">
-        <v>4858</v>
+        <v>6609</v>
       </c>
       <c r="AX55" s="11">
-        <v>6609</v>
+        <v>-32380</v>
       </c>
       <c r="AY55" s="11">
-        <v>10703</v>
+        <v>16255</v>
       </c>
       <c r="AZ55" s="11">
-        <v>16255</v>
+        <v>-37178</v>
       </c>
       <c r="BA55" s="11">
-        <v>5905</v>
+        <v>-36653</v>
       </c>
       <c r="BB55" s="11">
-        <v>6430</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="56" spans="2:54" x14ac:dyDescent="0.3">
@@ -7223,58 +7223,58 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>4731</v>
+        <v>1806</v>
       </c>
       <c r="F56" s="13">
-        <v>1806</v>
+        <v>0</v>
       </c>
       <c r="G56" s="13">
-        <v>0</v>
+        <v>9998</v>
       </c>
       <c r="H56" s="13">
-        <v>9998</v>
+        <v>180242</v>
       </c>
       <c r="I56" s="13">
-        <v>180242</v>
+        <v>109184</v>
       </c>
       <c r="J56" s="13">
-        <v>109184</v>
+        <v>0</v>
       </c>
       <c r="K56" s="13">
-        <v>0</v>
+        <v>107115</v>
       </c>
       <c r="L56" s="13">
-        <v>107115</v>
+        <v>103005</v>
       </c>
       <c r="M56" s="13">
-        <v>103005</v>
+        <v>107783</v>
       </c>
       <c r="N56" s="13">
-        <v>107783</v>
+        <v>100993</v>
       </c>
       <c r="O56" s="13">
-        <v>100993</v>
+        <v>0</v>
       </c>
       <c r="P56" s="13">
-        <v>0</v>
+        <v>73508</v>
       </c>
       <c r="Q56" s="13">
-        <v>73508</v>
+        <v>3520</v>
       </c>
       <c r="R56" s="13">
-        <v>3520</v>
+        <v>83794</v>
       </c>
       <c r="S56" s="13">
-        <v>83794</v>
+        <v>0</v>
       </c>
       <c r="T56" s="13">
-        <v>0</v>
+        <v>14289</v>
       </c>
       <c r="U56" s="13">
-        <v>14289</v>
+        <v>1649</v>
       </c>
       <c r="V56" s="13">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="W56" s="13">
         <v>0</v>
@@ -7283,64 +7283,64 @@
         <v>0</v>
       </c>
       <c r="Y56" s="13">
-        <v>0</v>
+        <v>52199</v>
       </c>
       <c r="Z56" s="13">
-        <v>52199</v>
+        <v>150669</v>
       </c>
       <c r="AA56" s="13">
-        <v>150669</v>
+        <v>209481</v>
       </c>
       <c r="AB56" s="13">
-        <v>209481</v>
+        <v>231043</v>
       </c>
       <c r="AC56" s="13">
-        <v>231043</v>
+        <v>227905</v>
       </c>
       <c r="AD56" s="13">
-        <v>227905</v>
+        <v>48453</v>
       </c>
       <c r="AE56" s="13">
-        <v>48453</v>
+        <v>163036</v>
       </c>
       <c r="AF56" s="13">
-        <v>163036</v>
+        <v>15575</v>
       </c>
       <c r="AG56" s="13">
-        <v>15575</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="13">
         <v>0</v>
       </c>
       <c r="AI56" s="13">
-        <v>0</v>
+        <v>228075</v>
       </c>
       <c r="AJ56" s="13">
-        <v>228075</v>
+        <v>290662</v>
       </c>
       <c r="AK56" s="13">
-        <v>290662</v>
+        <v>201548</v>
       </c>
       <c r="AL56" s="13">
-        <v>201548</v>
+        <v>71928</v>
       </c>
       <c r="AM56" s="13">
-        <v>71928</v>
+        <v>243294</v>
       </c>
       <c r="AN56" s="13">
-        <v>243294</v>
+        <v>153563</v>
       </c>
       <c r="AO56" s="13">
-        <v>153563</v>
+        <v>111071</v>
       </c>
       <c r="AP56" s="13">
-        <v>111071</v>
+        <v>74240</v>
       </c>
       <c r="AQ56" s="13">
-        <v>74240</v>
+        <v>49945</v>
       </c>
       <c r="AR56" s="13">
-        <v>49945</v>
+        <v>0</v>
       </c>
       <c r="AS56" s="13">
         <v>0</v>
@@ -7355,10 +7355,10 @@
         <v>0</v>
       </c>
       <c r="AW56" s="13">
-        <v>0</v>
+        <v>750227</v>
       </c>
       <c r="AX56" s="13">
-        <v>750227</v>
+        <v>0</v>
       </c>
       <c r="AY56" s="13">
         <v>0</v>
@@ -7382,154 +7382,154 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>0</v>
+        <v>117392</v>
       </c>
       <c r="F57" s="11">
-        <v>117392</v>
+        <v>192625</v>
       </c>
       <c r="G57" s="11">
-        <v>192625</v>
+        <v>614219</v>
       </c>
       <c r="H57" s="11">
-        <v>614219</v>
+        <v>0</v>
       </c>
       <c r="I57" s="11">
-        <v>0</v>
+        <v>982811</v>
       </c>
       <c r="J57" s="11">
-        <v>982811</v>
+        <v>34467</v>
       </c>
       <c r="K57" s="11">
-        <v>34467</v>
+        <v>250287</v>
       </c>
       <c r="L57" s="11">
-        <v>250287</v>
+        <v>2717049</v>
       </c>
       <c r="M57" s="11">
-        <v>2717049</v>
+        <v>1040878</v>
       </c>
       <c r="N57" s="11">
-        <v>1040878</v>
+        <v>171956</v>
       </c>
       <c r="O57" s="11">
-        <v>171956</v>
+        <v>74815</v>
       </c>
       <c r="P57" s="11">
-        <v>74815</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="11">
-        <v>0</v>
+        <v>8006</v>
       </c>
       <c r="R57" s="11">
-        <v>8006</v>
+        <v>195493</v>
       </c>
       <c r="S57" s="11">
-        <v>195493</v>
+        <v>438769</v>
       </c>
       <c r="T57" s="11">
-        <v>438769</v>
+        <v>1660643</v>
       </c>
       <c r="U57" s="11">
-        <v>1660643</v>
+        <v>636209</v>
       </c>
       <c r="V57" s="11">
-        <v>636209</v>
+        <v>120339</v>
       </c>
       <c r="W57" s="11">
-        <v>120339</v>
+        <v>858578</v>
       </c>
       <c r="X57" s="11">
-        <v>858578</v>
+        <v>797425</v>
       </c>
       <c r="Y57" s="11">
-        <v>797425</v>
+        <v>1233819</v>
       </c>
       <c r="Z57" s="11">
-        <v>1233819</v>
+        <v>300284</v>
       </c>
       <c r="AA57" s="11">
-        <v>300284</v>
+        <v>2367017</v>
       </c>
       <c r="AB57" s="11">
-        <v>2367017</v>
+        <v>2909361</v>
       </c>
       <c r="AC57" s="11">
-        <v>2909361</v>
+        <v>509342</v>
       </c>
       <c r="AD57" s="11">
-        <v>509342</v>
+        <v>2624036</v>
       </c>
       <c r="AE57" s="11">
-        <v>2624036</v>
+        <v>36951</v>
       </c>
       <c r="AF57" s="11">
-        <v>36951</v>
+        <v>2039006</v>
       </c>
       <c r="AG57" s="11">
-        <v>2039006</v>
+        <v>147940</v>
       </c>
       <c r="AH57" s="11">
-        <v>147940</v>
+        <v>85325</v>
       </c>
       <c r="AI57" s="11">
-        <v>85325</v>
+        <v>2541984</v>
       </c>
       <c r="AJ57" s="11">
-        <v>2541984</v>
+        <v>2066909</v>
       </c>
       <c r="AK57" s="11">
-        <v>2066909</v>
+        <v>1127328</v>
       </c>
       <c r="AL57" s="11">
-        <v>1127328</v>
+        <v>1732985</v>
       </c>
       <c r="AM57" s="11">
-        <v>1732985</v>
+        <v>1656590</v>
       </c>
       <c r="AN57" s="11">
-        <v>1656590</v>
+        <v>1574923</v>
       </c>
       <c r="AO57" s="11">
-        <v>1574923</v>
+        <v>1702412</v>
       </c>
       <c r="AP57" s="11">
-        <v>1702412</v>
+        <v>3657221</v>
       </c>
       <c r="AQ57" s="11">
-        <v>3657221</v>
+        <v>2480629</v>
       </c>
       <c r="AR57" s="11">
-        <v>2480629</v>
+        <v>4425218</v>
       </c>
       <c r="AS57" s="11">
-        <v>4425218</v>
+        <v>5934217</v>
       </c>
       <c r="AT57" s="11">
-        <v>5934217</v>
+        <v>1030589</v>
       </c>
       <c r="AU57" s="11">
-        <v>1030589</v>
+        <v>1086915</v>
       </c>
       <c r="AV57" s="11">
-        <v>1086915</v>
+        <v>9373335</v>
       </c>
       <c r="AW57" s="11">
-        <v>9373335</v>
+        <v>2671952</v>
       </c>
       <c r="AX57" s="11">
-        <v>2671952</v>
+        <v>3038294</v>
       </c>
       <c r="AY57" s="11">
-        <v>2571805</v>
+        <v>3741776</v>
       </c>
       <c r="AZ57" s="11">
-        <v>3741776</v>
+        <v>3092943</v>
       </c>
       <c r="BA57" s="11">
-        <v>2626454</v>
+        <v>2939917</v>
       </c>
       <c r="BB57" s="11">
-        <v>2473428</v>
+        <v>11216055</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -7591,8 +7591,8 @@
       <c r="U58" s="13">
         <v>0</v>
       </c>
-      <c r="V58" s="13">
-        <v>0</v>
+      <c r="V58" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="W58" s="13" t="s">
         <v>60</v>
@@ -7700,55 +7700,55 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>0</v>
+        <v>31645</v>
       </c>
       <c r="F59" s="11">
-        <v>31645</v>
+        <v>37737</v>
       </c>
       <c r="G59" s="11">
-        <v>37737</v>
+        <v>84560</v>
       </c>
       <c r="H59" s="11">
-        <v>84560</v>
+        <v>0</v>
       </c>
       <c r="I59" s="11">
-        <v>0</v>
+        <v>88802</v>
       </c>
       <c r="J59" s="11">
-        <v>88802</v>
+        <v>0</v>
       </c>
       <c r="K59" s="11">
         <v>0</v>
       </c>
       <c r="L59" s="11">
-        <v>0</v>
+        <v>12724</v>
       </c>
       <c r="M59" s="11">
-        <v>12724</v>
+        <v>1075</v>
       </c>
       <c r="N59" s="11">
-        <v>1075</v>
+        <v>0</v>
       </c>
       <c r="O59" s="11">
-        <v>0</v>
+        <v>75447</v>
       </c>
       <c r="P59" s="11">
-        <v>75447</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="11">
-        <v>0</v>
+        <v>6341</v>
       </c>
       <c r="R59" s="11">
-        <v>6341</v>
+        <v>22297</v>
       </c>
       <c r="S59" s="11">
-        <v>22297</v>
+        <v>20070</v>
       </c>
       <c r="T59" s="11">
-        <v>20070</v>
+        <v>53498</v>
       </c>
       <c r="U59" s="11">
-        <v>53498</v>
+        <v>0</v>
       </c>
       <c r="V59" s="11">
         <v>0</v>
@@ -7757,55 +7757,55 @@
         <v>0</v>
       </c>
       <c r="X59" s="11">
-        <v>0</v>
+        <v>125806</v>
       </c>
       <c r="Y59" s="11">
-        <v>125806</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="11">
-        <v>0</v>
+        <v>30759</v>
       </c>
       <c r="AA59" s="11">
-        <v>30759</v>
+        <v>58764</v>
       </c>
       <c r="AB59" s="11">
-        <v>58764</v>
+        <v>0</v>
       </c>
       <c r="AC59" s="11">
-        <v>0</v>
+        <v>131096</v>
       </c>
       <c r="AD59" s="11">
-        <v>131096</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="11">
-        <v>0</v>
+        <v>125506</v>
       </c>
       <c r="AF59" s="11">
-        <v>125506</v>
+        <v>34544</v>
       </c>
       <c r="AG59" s="11">
-        <v>34544</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="11">
         <v>0</v>
       </c>
       <c r="AI59" s="11">
-        <v>0</v>
+        <v>31657</v>
       </c>
       <c r="AJ59" s="11">
-        <v>31657</v>
+        <v>190777</v>
       </c>
       <c r="AK59" s="11">
-        <v>190777</v>
+        <v>153208</v>
       </c>
       <c r="AL59" s="11">
-        <v>153208</v>
+        <v>241544</v>
       </c>
       <c r="AM59" s="11">
-        <v>241544</v>
+        <v>316234</v>
       </c>
       <c r="AN59" s="11">
-        <v>316234</v>
+        <v>0</v>
       </c>
       <c r="AO59" s="11">
         <v>0</v>
@@ -7817,10 +7817,10 @@
         <v>0</v>
       </c>
       <c r="AR59" s="11">
-        <v>0</v>
+        <v>21892</v>
       </c>
       <c r="AS59" s="11">
-        <v>21892</v>
+        <v>0</v>
       </c>
       <c r="AT59" s="11">
         <v>0</v>
@@ -7921,8 +7921,8 @@
       <c r="Y60" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Z60" s="13" t="s">
-        <v>60</v>
+      <c r="Z60" s="13">
+        <v>0</v>
       </c>
       <c r="AA60" s="13">
         <v>0</v>
@@ -7945,11 +7945,11 @@
       <c r="AG60" s="13">
         <v>0</v>
       </c>
-      <c r="AH60" s="13">
-        <v>0</v>
-      </c>
-      <c r="AI60" s="13" t="s">
-        <v>60</v>
+      <c r="AH60" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI60" s="13">
+        <v>0</v>
       </c>
       <c r="AJ60" s="13">
         <v>0</v>
@@ -8110,62 +8110,62 @@
       <c r="AI61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AJ61" s="11" t="s">
-        <v>60</v>
+      <c r="AJ61" s="11">
+        <v>256500</v>
       </c>
       <c r="AK61" s="11">
-        <v>256500</v>
+        <v>14825</v>
       </c>
       <c r="AL61" s="11">
-        <v>14825</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="11">
-        <v>0</v>
+        <v>16760</v>
       </c>
       <c r="AN61" s="11">
-        <v>16760</v>
+        <v>0</v>
       </c>
       <c r="AO61" s="11">
         <v>0</v>
       </c>
       <c r="AP61" s="11">
-        <v>0</v>
+        <v>67777</v>
       </c>
       <c r="AQ61" s="11">
-        <v>67777</v>
+        <v>0</v>
       </c>
       <c r="AR61" s="11">
-        <v>0</v>
+        <v>17713</v>
       </c>
       <c r="AS61" s="11">
-        <v>17713</v>
+        <v>29668</v>
       </c>
       <c r="AT61" s="11">
-        <v>29668</v>
+        <v>89453</v>
       </c>
       <c r="AU61" s="11">
-        <v>89453</v>
+        <v>929778</v>
       </c>
       <c r="AV61" s="11">
-        <v>929778</v>
+        <v>16335</v>
       </c>
       <c r="AW61" s="11">
-        <v>16335</v>
+        <v>17750</v>
       </c>
       <c r="AX61" s="11">
-        <v>17750</v>
+        <v>52741</v>
       </c>
       <c r="AY61" s="11">
-        <v>52741</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="11">
-        <v>0</v>
+        <v>18060</v>
       </c>
       <c r="BA61" s="11">
-        <v>18060</v>
+        <v>0</v>
       </c>
       <c r="BB61" s="11">
-        <v>0</v>
+        <v>136853</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8311,11 +8311,11 @@
       <c r="AW62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AX62" s="13" t="s">
-        <v>60</v>
+      <c r="AX62" s="13">
+        <v>344975</v>
       </c>
       <c r="AY62" s="13">
-        <v>344975</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="13">
         <v>0</v>
@@ -8479,8 +8479,8 @@
       <c r="AG64" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH64" s="11" t="s">
-        <v>60</v>
+      <c r="AH64" s="11">
+        <v>0</v>
       </c>
       <c r="AI64" s="11">
         <v>0</v>
@@ -8611,8 +8611,8 @@
       <c r="X65" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Y65" s="13" t="s">
-        <v>60</v>
+      <c r="Y65" s="13">
+        <v>0</v>
       </c>
       <c r="Z65" s="13">
         <v>0</v>
@@ -8638,8 +8638,8 @@
       <c r="AG65" s="13">
         <v>0</v>
       </c>
-      <c r="AH65" s="13">
-        <v>0</v>
+      <c r="AH65" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AI65" s="13" t="s">
         <v>60</v>
@@ -8770,14 +8770,14 @@
       <c r="X66" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y66" s="11" t="s">
-        <v>60</v>
+      <c r="Y66" s="11">
+        <v>0</v>
       </c>
       <c r="Z66" s="11">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="AA66" s="11">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="AB66" s="11">
         <v>0</v>
@@ -8786,16 +8786,16 @@
         <v>0</v>
       </c>
       <c r="AD66" s="11">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="AE66" s="11">
-        <v>946</v>
+        <v>0</v>
       </c>
       <c r="AF66" s="11">
-        <v>0</v>
+        <v>3398</v>
       </c>
       <c r="AG66" s="11">
-        <v>3398</v>
+        <v>0</v>
       </c>
       <c r="AH66" s="11">
         <v>0</v>
@@ -8804,34 +8804,34 @@
         <v>0</v>
       </c>
       <c r="AJ66" s="11">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="AK66" s="11">
-        <v>4405</v>
+        <v>0</v>
       </c>
       <c r="AL66" s="11">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="AM66" s="11">
-        <v>962</v>
+        <v>1811</v>
       </c>
       <c r="AN66" s="11">
-        <v>1811</v>
+        <v>4556</v>
       </c>
       <c r="AO66" s="11">
-        <v>4556</v>
+        <v>4491</v>
       </c>
       <c r="AP66" s="11">
-        <v>4491</v>
+        <v>0</v>
       </c>
       <c r="AQ66" s="11">
         <v>0</v>
       </c>
       <c r="AR66" s="11">
-        <v>0</v>
+        <v>25575</v>
       </c>
       <c r="AS66" s="11">
-        <v>25575</v>
+        <v>0</v>
       </c>
       <c r="AT66" s="11">
         <v>0</v>
@@ -8843,10 +8843,10 @@
         <v>0</v>
       </c>
       <c r="AW66" s="11">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="AX66" s="11">
-        <v>1929</v>
+        <v>0</v>
       </c>
       <c r="AY66" s="11">
         <v>0</v>
@@ -8992,8 +8992,8 @@
       <c r="AS67" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT67" s="13" t="s">
-        <v>60</v>
+      <c r="AT67" s="13">
+        <v>0</v>
       </c>
       <c r="AU67" s="13">
         <v>0</v>
@@ -9088,14 +9088,14 @@
       <c r="X68" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y68" s="15" t="s">
-        <v>60</v>
+      <c r="Y68" s="15">
+        <v>0</v>
       </c>
       <c r="Z68" s="15">
-        <v>0</v>
+        <v>912</v>
       </c>
       <c r="AA68" s="15">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="AB68" s="15">
         <v>0</v>
@@ -9104,16 +9104,16 @@
         <v>0</v>
       </c>
       <c r="AD68" s="15">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="AE68" s="15">
-        <v>946</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="15">
-        <v>0</v>
+        <v>3398</v>
       </c>
       <c r="AG68" s="15">
-        <v>3398</v>
+        <v>0</v>
       </c>
       <c r="AH68" s="15">
         <v>0</v>
@@ -9122,34 +9122,34 @@
         <v>0</v>
       </c>
       <c r="AJ68" s="15">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="AK68" s="15">
-        <v>4405</v>
+        <v>0</v>
       </c>
       <c r="AL68" s="15">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="AM68" s="15">
-        <v>962</v>
+        <v>1811</v>
       </c>
       <c r="AN68" s="15">
-        <v>1811</v>
+        <v>4556</v>
       </c>
       <c r="AO68" s="15">
-        <v>4556</v>
+        <v>4491</v>
       </c>
       <c r="AP68" s="15">
-        <v>4491</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="15">
         <v>0</v>
       </c>
       <c r="AR68" s="15">
-        <v>0</v>
+        <v>25575</v>
       </c>
       <c r="AS68" s="15">
-        <v>25575</v>
+        <v>0</v>
       </c>
       <c r="AT68" s="15">
         <v>0</v>
@@ -9161,10 +9161,10 @@
         <v>0</v>
       </c>
       <c r="AW68" s="15">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="AX68" s="15">
-        <v>1929</v>
+        <v>0</v>
       </c>
       <c r="AY68" s="15">
         <v>0</v>
@@ -9304,8 +9304,8 @@
       <c r="X70" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Y70" s="15" t="s">
-        <v>60</v>
+      <c r="Y70" s="15">
+        <v>0</v>
       </c>
       <c r="Z70" s="15">
         <v>0</v>
@@ -9520,8 +9520,8 @@
       <c r="X72" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y72" s="11" t="s">
-        <v>60</v>
+      <c r="Y72" s="11">
+        <v>0</v>
       </c>
       <c r="Z72" s="11">
         <v>0</v>
@@ -9618,154 +9618,154 @@
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17">
-        <v>57840</v>
+        <v>163788</v>
       </c>
       <c r="F73" s="17">
-        <v>163788</v>
+        <v>242687</v>
       </c>
       <c r="G73" s="17">
-        <v>242687</v>
+        <v>726712</v>
       </c>
       <c r="H73" s="17">
-        <v>726712</v>
+        <v>227102</v>
       </c>
       <c r="I73" s="17">
-        <v>227102</v>
+        <v>1283817</v>
       </c>
       <c r="J73" s="17">
-        <v>1283817</v>
+        <v>40766</v>
       </c>
       <c r="K73" s="17">
-        <v>40766</v>
+        <v>466623</v>
       </c>
       <c r="L73" s="17">
-        <v>466623</v>
+        <v>2843528</v>
       </c>
       <c r="M73" s="17">
-        <v>2843528</v>
+        <v>1202308</v>
       </c>
       <c r="N73" s="17">
-        <v>1202308</v>
+        <v>275493</v>
       </c>
       <c r="O73" s="17">
-        <v>275493</v>
+        <v>201917</v>
       </c>
       <c r="P73" s="17">
-        <v>201917</v>
+        <v>102284</v>
       </c>
       <c r="Q73" s="17">
-        <v>102284</v>
+        <v>49143</v>
       </c>
       <c r="R73" s="17">
-        <v>49143</v>
+        <v>484573</v>
       </c>
       <c r="S73" s="17">
-        <v>484573</v>
+        <v>656159</v>
       </c>
       <c r="T73" s="17">
-        <v>656159</v>
+        <v>1876152</v>
       </c>
       <c r="U73" s="17">
-        <v>1876152</v>
+        <v>777896</v>
       </c>
       <c r="V73" s="17">
-        <v>777896</v>
+        <v>134093</v>
       </c>
       <c r="W73" s="17">
-        <v>134093</v>
+        <v>915357</v>
       </c>
       <c r="X73" s="17">
-        <v>915357</v>
+        <v>956961</v>
       </c>
       <c r="Y73" s="17">
-        <v>956961</v>
+        <v>1329885</v>
       </c>
       <c r="Z73" s="17">
-        <v>1329885</v>
+        <v>508377</v>
       </c>
       <c r="AA73" s="17">
-        <v>508377</v>
+        <v>2692620</v>
       </c>
       <c r="AB73" s="17">
-        <v>2692620</v>
+        <v>3190962</v>
       </c>
       <c r="AC73" s="17">
-        <v>3190962</v>
+        <v>932739</v>
       </c>
       <c r="AD73" s="17">
-        <v>932739</v>
+        <v>2761554</v>
       </c>
       <c r="AE73" s="17">
-        <v>2761554</v>
+        <v>394221</v>
       </c>
       <c r="AF73" s="17">
-        <v>394221</v>
+        <v>2163975</v>
       </c>
       <c r="AG73" s="17">
-        <v>2163975</v>
+        <v>162673</v>
       </c>
       <c r="AH73" s="17">
-        <v>162673</v>
+        <v>90076</v>
       </c>
       <c r="AI73" s="17">
-        <v>90076</v>
+        <v>2824948</v>
       </c>
       <c r="AJ73" s="17">
-        <v>2824948</v>
+        <v>2812626</v>
       </c>
       <c r="AK73" s="17">
-        <v>2812626</v>
+        <v>1508799</v>
       </c>
       <c r="AL73" s="17">
-        <v>1508799</v>
+        <v>2060159</v>
       </c>
       <c r="AM73" s="17">
-        <v>2060159</v>
+        <v>2236819</v>
       </c>
       <c r="AN73" s="17">
-        <v>2236819</v>
+        <v>1733042</v>
       </c>
       <c r="AO73" s="17">
-        <v>1733042</v>
+        <v>1821003</v>
       </c>
       <c r="AP73" s="17">
-        <v>1821003</v>
+        <v>3804906</v>
       </c>
       <c r="AQ73" s="17">
-        <v>3804906</v>
+        <v>2533670</v>
       </c>
       <c r="AR73" s="17">
-        <v>2533670</v>
+        <v>4497985</v>
       </c>
       <c r="AS73" s="17">
-        <v>4497985</v>
+        <v>5967726</v>
       </c>
       <c r="AT73" s="17">
-        <v>5967726</v>
+        <v>1120042</v>
       </c>
       <c r="AU73" s="17">
-        <v>1120042</v>
+        <v>2030180</v>
       </c>
       <c r="AV73" s="17">
-        <v>2030180</v>
+        <v>9394528</v>
       </c>
       <c r="AW73" s="17">
-        <v>9394528</v>
+        <v>3448467</v>
       </c>
       <c r="AX73" s="17">
-        <v>3448467</v>
+        <v>3403630</v>
       </c>
       <c r="AY73" s="17">
-        <v>2980224</v>
+        <v>3758031</v>
       </c>
       <c r="AZ73" s="17">
-        <v>3758031</v>
+        <v>3073825</v>
       </c>
       <c r="BA73" s="17">
-        <v>2650419</v>
+        <v>2903264</v>
       </c>
       <c r="BB73" s="17">
-        <v>2479858</v>
+        <v>11354145</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -10261,8 +10261,8 @@
       <c r="U80" s="11">
         <v>0</v>
       </c>
-      <c r="V80" s="11">
-        <v>0</v>
+      <c r="V80" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="W80" s="11" t="s">
         <v>60</v>
@@ -10279,11 +10279,11 @@
       <c r="AA80" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AB80" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AC80" s="11">
+      <c r="AB80" s="11">
         <v>404464000</v>
+      </c>
+      <c r="AC80" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AD80" s="11" t="s">
         <v>60</v>
@@ -10370,127 +10370,127 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>43009091</v>
+        <v>40133333</v>
       </c>
       <c r="F81" s="13">
-        <v>40133333</v>
+        <v>0</v>
       </c>
       <c r="G81" s="13">
-        <v>0</v>
+        <v>72449275</v>
       </c>
       <c r="H81" s="13">
-        <v>72449275</v>
+        <v>98278081</v>
       </c>
       <c r="I81" s="13">
-        <v>98278081</v>
+        <v>118420824</v>
       </c>
       <c r="J81" s="13">
-        <v>118420824</v>
+        <v>0</v>
       </c>
       <c r="K81" s="13">
-        <v>0</v>
+        <v>119414716</v>
       </c>
       <c r="L81" s="13">
-        <v>119414716</v>
+        <v>116389831</v>
       </c>
       <c r="M81" s="13">
-        <v>116389831</v>
+        <v>117282916</v>
       </c>
       <c r="N81" s="13">
-        <v>117282916</v>
+        <v>107439362</v>
       </c>
       <c r="O81" s="13">
-        <v>107439362</v>
+        <v>0</v>
       </c>
       <c r="P81" s="13">
-        <v>0</v>
+        <v>84589183</v>
       </c>
       <c r="Q81" s="13">
-        <v>84589183</v>
+        <v>83809524</v>
       </c>
       <c r="R81" s="13">
-        <v>83809524</v>
+        <v>95546180</v>
       </c>
       <c r="S81" s="13">
-        <v>95546180</v>
+        <v>0</v>
       </c>
       <c r="T81" s="13">
-        <v>0</v>
+        <v>75603175</v>
       </c>
       <c r="U81" s="13">
-        <v>75603175</v>
-      </c>
-      <c r="V81" s="13">
         <v>91611111</v>
       </c>
+      <c r="V81" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="W81" s="13" t="s">
         <v>60</v>
       </c>
       <c r="X81" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Y81" s="13" t="s">
-        <v>60</v>
+      <c r="Y81" s="13">
+        <v>86709302</v>
       </c>
       <c r="Z81" s="13">
-        <v>86709302</v>
+        <v>152190909</v>
       </c>
       <c r="AA81" s="13">
-        <v>152190909</v>
+        <v>197065851</v>
       </c>
       <c r="AB81" s="13">
-        <v>197065851</v>
+        <v>255861573</v>
       </c>
       <c r="AC81" s="13">
-        <v>255861573</v>
+        <v>257229120</v>
       </c>
       <c r="AD81" s="13">
-        <v>257229120</v>
+        <v>269183333</v>
       </c>
       <c r="AE81" s="13">
-        <v>269183333</v>
+        <v>289070922</v>
       </c>
       <c r="AF81" s="13">
-        <v>289070922</v>
-      </c>
-      <c r="AG81" s="13">
         <v>305392157</v>
       </c>
+      <c r="AG81" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AH81" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AI81" s="13" t="s">
-        <v>60</v>
+      <c r="AI81" s="13">
+        <v>319880785</v>
       </c>
       <c r="AJ81" s="13">
-        <v>319880785</v>
+        <v>290662000</v>
       </c>
       <c r="AK81" s="13">
-        <v>290662000</v>
+        <v>304913767</v>
       </c>
       <c r="AL81" s="13">
-        <v>304913767</v>
+        <v>294786885</v>
       </c>
       <c r="AM81" s="13">
-        <v>294786885</v>
+        <v>399497537</v>
       </c>
       <c r="AN81" s="13">
-        <v>399497537</v>
+        <v>323972574</v>
       </c>
       <c r="AO81" s="13">
-        <v>323972574</v>
+        <v>338631098</v>
       </c>
       <c r="AP81" s="13">
-        <v>338631098</v>
+        <v>337454545</v>
       </c>
       <c r="AQ81" s="13">
-        <v>337454545</v>
+        <v>332966667</v>
       </c>
       <c r="AR81" s="13">
-        <v>332966667</v>
-      </c>
-      <c r="AS81" s="13">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AS81" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AT81" s="13" t="s">
         <v>60</v>
@@ -10501,20 +10501,20 @@
       <c r="AV81" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AW81" s="13" t="s">
-        <v>60</v>
+      <c r="AW81" s="13">
+        <v>302877271</v>
       </c>
       <c r="AX81" s="13">
-        <v>302877271</v>
+        <v>0</v>
       </c>
       <c r="AY81" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AZ81" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA81" s="13" t="s">
-        <v>60</v>
+      <c r="AZ81" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA81" s="13">
+        <v>0</v>
       </c>
       <c r="BB81" s="13" t="s">
         <v>60</v>
@@ -10529,154 +10529,154 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>0</v>
+        <v>301005128</v>
       </c>
       <c r="F82" s="11">
-        <v>301005128</v>
+        <v>262074830</v>
       </c>
       <c r="G82" s="11">
-        <v>262074830</v>
+        <v>291237079</v>
       </c>
       <c r="H82" s="11">
-        <v>291237079</v>
+        <v>0</v>
       </c>
       <c r="I82" s="11">
-        <v>0</v>
+        <v>228880065</v>
       </c>
       <c r="J82" s="11">
-        <v>228880065</v>
+        <v>287225000</v>
       </c>
       <c r="K82" s="11">
-        <v>287225000</v>
+        <v>316018939</v>
       </c>
       <c r="L82" s="11">
-        <v>316018939</v>
+        <v>225331647</v>
       </c>
       <c r="M82" s="11">
-        <v>225331647</v>
+        <v>258090255</v>
       </c>
       <c r="N82" s="11">
-        <v>258090255</v>
+        <v>253248895</v>
       </c>
       <c r="O82" s="11">
-        <v>253248895</v>
+        <v>249383333</v>
       </c>
       <c r="P82" s="11">
-        <v>249383333</v>
+        <v>0</v>
       </c>
       <c r="Q82" s="11">
-        <v>0</v>
+        <v>296518519</v>
       </c>
       <c r="R82" s="11">
-        <v>296518519</v>
+        <v>256552493</v>
       </c>
       <c r="S82" s="11">
-        <v>256552493</v>
+        <v>258555687</v>
       </c>
       <c r="T82" s="11">
-        <v>258555687</v>
+        <v>279428403</v>
       </c>
       <c r="U82" s="11">
-        <v>279428403</v>
+        <v>274109866</v>
       </c>
       <c r="V82" s="11">
-        <v>274109866</v>
+        <v>265063877</v>
       </c>
       <c r="W82" s="11">
-        <v>265063877</v>
+        <v>293832307</v>
       </c>
       <c r="X82" s="11">
-        <v>293832307</v>
+        <v>310402881</v>
       </c>
       <c r="Y82" s="11">
-        <v>310402881</v>
+        <v>385327608</v>
       </c>
       <c r="Z82" s="11">
-        <v>385327608</v>
+        <v>456358663</v>
       </c>
       <c r="AA82" s="11">
-        <v>456358663</v>
+        <v>527998439</v>
       </c>
       <c r="AB82" s="11">
-        <v>527998439</v>
+        <v>556922090</v>
       </c>
       <c r="AC82" s="11">
-        <v>556922090</v>
+        <v>648843312</v>
       </c>
       <c r="AD82" s="11">
-        <v>648843312</v>
+        <v>656009000</v>
       </c>
       <c r="AE82" s="11">
-        <v>656009000</v>
+        <v>710596154</v>
       </c>
       <c r="AF82" s="11">
-        <v>710596154</v>
+        <v>645050933</v>
       </c>
       <c r="AG82" s="11">
-        <v>645050933</v>
+        <v>616416667</v>
       </c>
       <c r="AH82" s="11">
-        <v>616416667</v>
+        <v>588448276</v>
       </c>
       <c r="AI82" s="11">
-        <v>588448276</v>
+        <v>594199158</v>
       </c>
       <c r="AJ82" s="11">
-        <v>594199158</v>
+        <v>595479401</v>
       </c>
       <c r="AK82" s="11">
-        <v>595479401</v>
+        <v>634042745</v>
       </c>
       <c r="AL82" s="11">
-        <v>634042745</v>
+        <v>669364620</v>
       </c>
       <c r="AM82" s="11">
-        <v>669364620</v>
+        <v>690533556</v>
       </c>
       <c r="AN82" s="11">
-        <v>690533556</v>
+        <v>740791627</v>
       </c>
       <c r="AO82" s="11">
-        <v>740791627</v>
+        <v>732850624</v>
       </c>
       <c r="AP82" s="11">
-        <v>732850624</v>
+        <v>772706740</v>
       </c>
       <c r="AQ82" s="11">
-        <v>772706740</v>
+        <v>829919371</v>
       </c>
       <c r="AR82" s="11">
-        <v>829919371</v>
+        <v>865775150</v>
       </c>
       <c r="AS82" s="11">
-        <v>865775150</v>
+        <v>863158836</v>
       </c>
       <c r="AT82" s="11">
-        <v>863158836</v>
+        <v>1031620621</v>
       </c>
       <c r="AU82" s="11">
-        <v>1031620621</v>
+        <v>945966057</v>
       </c>
       <c r="AV82" s="11">
-        <v>945966057</v>
+        <v>877057088</v>
       </c>
       <c r="AW82" s="11">
-        <v>877057088</v>
+        <v>842090136</v>
       </c>
       <c r="AX82" s="11">
-        <v>842090136</v>
+        <v>820940492</v>
       </c>
       <c r="AY82" s="11">
-        <v>823768418</v>
+        <v>837086353</v>
       </c>
       <c r="AZ82" s="11">
-        <v>837086353</v>
+        <v>793672825</v>
       </c>
       <c r="BA82" s="11">
-        <v>795895152</v>
+        <v>795432089</v>
       </c>
       <c r="BB82" s="11">
-        <v>798137464</v>
+        <v>837581585</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -10738,8 +10738,8 @@
       <c r="U83" s="13">
         <v>0</v>
       </c>
-      <c r="V83" s="13">
-        <v>0</v>
+      <c r="V83" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="W83" s="13" t="s">
         <v>60</v>
@@ -10847,113 +10847,113 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>0</v>
+        <v>20015813</v>
       </c>
       <c r="F84" s="11">
-        <v>20015813</v>
+        <v>17952902</v>
       </c>
       <c r="G84" s="11">
-        <v>17952902</v>
+        <v>36369892</v>
       </c>
       <c r="H84" s="11">
-        <v>36369892</v>
+        <v>0</v>
       </c>
       <c r="I84" s="11">
-        <v>0</v>
+        <v>32756179</v>
       </c>
       <c r="J84" s="11">
-        <v>32756179</v>
+        <v>0</v>
       </c>
       <c r="K84" s="11">
         <v>0</v>
       </c>
       <c r="L84" s="11">
-        <v>0</v>
+        <v>17820728</v>
       </c>
       <c r="M84" s="11">
-        <v>17820728</v>
+        <v>16287879</v>
       </c>
       <c r="N84" s="11">
-        <v>16287879</v>
+        <v>0</v>
       </c>
       <c r="O84" s="11">
-        <v>0</v>
+        <v>42055184</v>
       </c>
       <c r="P84" s="11">
-        <v>42055184</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="11">
-        <v>0</v>
+        <v>24577519</v>
       </c>
       <c r="R84" s="11">
-        <v>24577519</v>
+        <v>23421218</v>
       </c>
       <c r="S84" s="11">
-        <v>23421218</v>
+        <v>19715128</v>
       </c>
       <c r="T84" s="11">
-        <v>19715128</v>
+        <v>22042851</v>
       </c>
       <c r="U84" s="11">
-        <v>22042851</v>
-      </c>
-      <c r="V84" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="V84" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="W84" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="X84" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y84" s="11">
+      <c r="X84" s="11">
         <v>29953810</v>
       </c>
-      <c r="Z84" s="11" t="s">
-        <v>60</v>
+      <c r="Y84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z84" s="11">
+        <v>34444569</v>
       </c>
       <c r="AA84" s="11">
-        <v>34444569</v>
-      </c>
-      <c r="AB84" s="11">
         <v>28581712</v>
       </c>
-      <c r="AC84" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AD84" s="11">
+      <c r="AB84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AC84" s="11">
         <v>45096663</v>
       </c>
-      <c r="AE84" s="11" t="s">
-        <v>60</v>
+      <c r="AD84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AE84" s="11">
+        <v>72799304</v>
       </c>
       <c r="AF84" s="11">
-        <v>72799304</v>
-      </c>
-      <c r="AG84" s="11">
         <v>55536977</v>
       </c>
+      <c r="AG84" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AH84" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AI84" s="11" t="s">
-        <v>60</v>
+      <c r="AI84" s="11">
+        <v>58515712</v>
       </c>
       <c r="AJ84" s="11">
-        <v>58515712</v>
+        <v>95483984</v>
       </c>
       <c r="AK84" s="11">
-        <v>95483984</v>
+        <v>75883110</v>
       </c>
       <c r="AL84" s="11">
-        <v>75883110</v>
+        <v>109345405</v>
       </c>
       <c r="AM84" s="11">
-        <v>109345405</v>
-      </c>
-      <c r="AN84" s="11">
         <v>76440416</v>
       </c>
+      <c r="AN84" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AO84" s="11" t="s">
         <v>60</v>
       </c>
@@ -10963,11 +10963,11 @@
       <c r="AQ84" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR84" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS84" s="11">
+      <c r="AR84" s="11">
         <v>2007704</v>
+      </c>
+      <c r="AS84" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AT84" s="11" t="s">
         <v>60</v>
@@ -11098,62 +11098,62 @@
       <c r="AI85" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AJ85" s="13" t="s">
-        <v>60</v>
+      <c r="AJ85" s="13">
+        <v>513000000</v>
       </c>
       <c r="AK85" s="13">
-        <v>513000000</v>
-      </c>
-      <c r="AL85" s="13">
         <v>593000000</v>
       </c>
-      <c r="AM85" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN85" s="13">
+      <c r="AL85" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM85" s="13">
         <v>670400000</v>
       </c>
+      <c r="AN85" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AO85" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AP85" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ85" s="13">
+      <c r="AP85" s="13">
         <v>677770000</v>
       </c>
-      <c r="AR85" s="13" t="s">
-        <v>60</v>
+      <c r="AQ85" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR85" s="13">
+        <v>708520000</v>
       </c>
       <c r="AS85" s="13">
-        <v>708520000</v>
+        <v>593360000</v>
       </c>
       <c r="AT85" s="13">
-        <v>593360000</v>
+        <v>596353333</v>
       </c>
       <c r="AU85" s="13">
-        <v>596353333</v>
+        <v>652475789</v>
       </c>
       <c r="AV85" s="13">
-        <v>652475789</v>
+        <v>653400000</v>
       </c>
       <c r="AW85" s="13">
-        <v>653400000</v>
+        <v>710000000</v>
       </c>
       <c r="AX85" s="13">
-        <v>710000000</v>
-      </c>
-      <c r="AY85" s="13">
         <v>703213333</v>
       </c>
-      <c r="AZ85" s="13" t="s">
-        <v>60</v>
+      <c r="AY85" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ85" s="13">
+        <v>722400000</v>
       </c>
       <c r="BA85" s="13">
-        <v>722400000</v>
-      </c>
-      <c r="BB85" s="13" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="BB85" s="13">
+        <v>684265000</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -11299,17 +11299,17 @@
       <c r="AW86" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX86" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AY86" s="11">
+      <c r="AX86" s="11">
         <v>785820046</v>
       </c>
-      <c r="AZ86" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="BA86" s="11" t="s">
-        <v>60</v>
+      <c r="AY86" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AZ86" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA86" s="11">
+        <v>0</v>
       </c>
       <c r="BB86" s="11" t="s">
         <v>60</v>
@@ -11467,8 +11467,8 @@
       <c r="AG88" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH88" s="11" t="s">
-        <v>60</v>
+      <c r="AH88" s="11">
+        <v>0</v>
       </c>
       <c r="AI88" s="11">
         <v>0</v>
@@ -11599,8 +11599,8 @@
       <c r="X89" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="Y89" s="13" t="s">
-        <v>60</v>
+      <c r="Y89" s="13">
+        <v>0</v>
       </c>
       <c r="Z89" s="13">
         <v>0</v>
@@ -11626,8 +11626,8 @@
       <c r="AG89" s="13">
         <v>0</v>
       </c>
-      <c r="AH89" s="13">
-        <v>0</v>
+      <c r="AH89" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AI89" s="13" t="s">
         <v>60</v>
@@ -11758,14 +11758,14 @@
       <c r="X90" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y90" s="11" t="s">
-        <v>60</v>
+      <c r="Y90" s="11">
+        <v>0</v>
       </c>
       <c r="Z90" s="11">
-        <v>0</v>
+        <v>815013</v>
       </c>
       <c r="AA90" s="11">
-        <v>815013</v>
+        <v>0</v>
       </c>
       <c r="AB90" s="11">
         <v>0</v>
@@ -11774,16 +11774,16 @@
         <v>0</v>
       </c>
       <c r="AD90" s="11">
-        <v>0</v>
+        <v>796967</v>
       </c>
       <c r="AE90" s="11">
-        <v>796967</v>
+        <v>0</v>
       </c>
       <c r="AF90" s="11">
-        <v>0</v>
+        <v>1894091</v>
       </c>
       <c r="AG90" s="11">
-        <v>1894091</v>
+        <v>0</v>
       </c>
       <c r="AH90" s="11">
         <v>0</v>
@@ -11792,34 +11792,34 @@
         <v>0</v>
       </c>
       <c r="AJ90" s="11">
-        <v>0</v>
+        <v>1478188</v>
       </c>
       <c r="AK90" s="11">
-        <v>1478188</v>
+        <v>0</v>
       </c>
       <c r="AL90" s="11">
-        <v>0</v>
+        <v>779579</v>
       </c>
       <c r="AM90" s="11">
-        <v>779579</v>
+        <v>825433</v>
       </c>
       <c r="AN90" s="11">
-        <v>825433</v>
+        <v>1450032</v>
       </c>
       <c r="AO90" s="11">
-        <v>1450032</v>
+        <v>1699849</v>
       </c>
       <c r="AP90" s="11">
-        <v>1699849</v>
+        <v>0</v>
       </c>
       <c r="AQ90" s="11">
         <v>0</v>
       </c>
       <c r="AR90" s="11">
-        <v>0</v>
+        <v>980006</v>
       </c>
       <c r="AS90" s="11">
-        <v>980006</v>
+        <v>0</v>
       </c>
       <c r="AT90" s="11">
         <v>0</v>
@@ -11831,10 +11831,10 @@
         <v>0</v>
       </c>
       <c r="AW90" s="11">
-        <v>0</v>
+        <v>2686630</v>
       </c>
       <c r="AX90" s="11">
-        <v>2686630</v>
+        <v>0</v>
       </c>
       <c r="AY90" s="11">
         <v>0</v>
@@ -11980,8 +11980,8 @@
       <c r="AS91" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AT91" s="13" t="s">
-        <v>60</v>
+      <c r="AT91" s="13">
+        <v>0</v>
       </c>
       <c r="AU91" s="13">
         <v>0</v>

--- a/database/industries/felezat/fasmin/product/monthly.xlsx
+++ b/database/industries/felezat/fasmin/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\felezat\fasmin\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\felezat\fasmin\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689A7EC0-3E4F-450C-82BB-9F64326BE287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375BC593-F4A5-45D5-8DD7-7275C9473431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1605" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1567" uniqueCount="82">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>فاسمین-کالسیمین‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>سایر</t>
@@ -748,12 +748,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -808,7 +808,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -865,7 +865,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -922,7 +922,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -977,7 +977,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1034,7 +1034,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1091,7 +1091,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1146,7 +1146,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1303,7 +1303,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1358,7 +1358,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1583,157 +1583,157 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>474</v>
+        <v>280</v>
       </c>
       <c r="F12" s="13">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="G12" s="13">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="H12" s="13">
-        <v>195</v>
+        <v>291</v>
       </c>
       <c r="I12" s="13">
-        <v>203</v>
+        <v>417</v>
       </c>
       <c r="J12" s="13">
-        <v>291</v>
+        <v>439</v>
       </c>
       <c r="K12" s="13">
-        <v>417</v>
+        <v>367</v>
       </c>
       <c r="L12" s="13">
+        <v>385</v>
+      </c>
+      <c r="M12" s="13">
+        <v>735</v>
+      </c>
+      <c r="N12" s="13">
+        <v>703</v>
+      </c>
+      <c r="O12" s="13">
         <v>439</v>
       </c>
-      <c r="M12" s="13">
-        <v>367</v>
-      </c>
-      <c r="N12" s="13">
-        <v>385</v>
-      </c>
-      <c r="O12" s="13">
-        <v>735</v>
-      </c>
       <c r="P12" s="13">
-        <v>703</v>
+        <v>519</v>
       </c>
       <c r="Q12" s="13">
-        <v>439</v>
+        <v>556</v>
       </c>
       <c r="R12" s="13">
-        <v>519</v>
+        <v>469</v>
       </c>
       <c r="S12" s="13">
-        <v>556</v>
+        <v>229</v>
       </c>
       <c r="T12" s="13">
-        <v>469</v>
+        <v>68</v>
       </c>
       <c r="U12" s="13">
-        <v>229</v>
+        <v>0</v>
       </c>
       <c r="V12" s="13">
-        <v>68</v>
+        <v>463</v>
       </c>
       <c r="W12" s="13">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="X12" s="13">
-        <v>463</v>
+        <v>529</v>
       </c>
       <c r="Y12" s="13">
-        <v>688</v>
+        <v>349</v>
       </c>
       <c r="Z12" s="13">
-        <v>529</v>
+        <v>308</v>
       </c>
       <c r="AA12" s="13">
-        <v>349</v>
+        <v>213</v>
       </c>
       <c r="AB12" s="13">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="AC12" s="13">
+        <v>350</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>396</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>484</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>451</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>393</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>490</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>586</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>405</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>379</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>334</v>
+      </c>
+      <c r="AM12" s="13">
         <v>213</v>
       </c>
-      <c r="AD12" s="13">
-        <v>285</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>350</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>396</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>484</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>451</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>393</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>490</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>586</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>405</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>379</v>
-      </c>
       <c r="AN12" s="13">
-        <v>334</v>
+        <v>227</v>
       </c>
       <c r="AO12" s="13">
-        <v>213</v>
+        <v>301</v>
       </c>
       <c r="AP12" s="13">
-        <v>227</v>
+        <v>376</v>
       </c>
       <c r="AQ12" s="13">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AR12" s="13">
-        <v>376</v>
+        <v>314</v>
       </c>
       <c r="AS12" s="13">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AT12" s="13">
-        <v>314</v>
+        <v>293</v>
       </c>
       <c r="AU12" s="13">
-        <v>306</v>
+        <v>398</v>
       </c>
       <c r="AV12" s="13">
-        <v>293</v>
+        <v>343</v>
       </c>
       <c r="AW12" s="13">
-        <v>398</v>
+        <v>317</v>
       </c>
       <c r="AX12" s="13">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="AY12" s="13">
-        <v>317</v>
+        <v>353</v>
       </c>
       <c r="AZ12" s="13">
-        <v>302</v>
+        <v>348</v>
       </c>
       <c r="BA12" s="13">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="BB12" s="13">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>58</v>
       </c>
@@ -1742,157 +1742,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>2848</v>
+        <v>1631</v>
       </c>
       <c r="F13" s="11">
-        <v>2784</v>
+        <v>1861</v>
       </c>
       <c r="G13" s="11">
-        <v>1631</v>
+        <v>2504</v>
       </c>
       <c r="H13" s="11">
-        <v>1861</v>
+        <v>1534</v>
       </c>
       <c r="I13" s="11">
-        <v>2504</v>
+        <v>2455</v>
       </c>
       <c r="J13" s="11">
-        <v>1534</v>
+        <v>2623</v>
       </c>
       <c r="K13" s="11">
-        <v>2455</v>
+        <v>1748</v>
       </c>
       <c r="L13" s="11">
-        <v>2623</v>
+        <v>1294</v>
       </c>
       <c r="M13" s="11">
-        <v>1748</v>
+        <v>2648</v>
       </c>
       <c r="N13" s="11">
-        <v>1294</v>
+        <v>2800</v>
       </c>
       <c r="O13" s="11">
-        <v>2648</v>
+        <v>2580</v>
       </c>
       <c r="P13" s="11">
-        <v>2800</v>
+        <v>3080</v>
       </c>
       <c r="Q13" s="11">
-        <v>2580</v>
+        <v>3580</v>
       </c>
       <c r="R13" s="11">
-        <v>3080</v>
+        <v>2593</v>
       </c>
       <c r="S13" s="11">
-        <v>3580</v>
+        <v>2113</v>
       </c>
       <c r="T13" s="11">
-        <v>2593</v>
+        <v>467</v>
       </c>
       <c r="U13" s="11">
-        <v>2113</v>
+        <v>2637</v>
       </c>
       <c r="V13" s="11">
-        <v>467</v>
+        <v>2728</v>
       </c>
       <c r="W13" s="11">
-        <v>2637</v>
+        <v>2055</v>
       </c>
       <c r="X13" s="11">
-        <v>2728</v>
+        <v>2614</v>
       </c>
       <c r="Y13" s="11">
-        <v>2055</v>
+        <v>3018</v>
       </c>
       <c r="Z13" s="11">
-        <v>2614</v>
+        <v>3140</v>
       </c>
       <c r="AA13" s="11">
-        <v>3018</v>
+        <v>2868</v>
       </c>
       <c r="AB13" s="11">
-        <v>3140</v>
+        <v>2911</v>
       </c>
       <c r="AC13" s="11">
-        <v>2868</v>
+        <v>2847</v>
       </c>
       <c r="AD13" s="11">
-        <v>2911</v>
+        <v>2948</v>
       </c>
       <c r="AE13" s="11">
-        <v>2847</v>
+        <v>3094</v>
       </c>
       <c r="AF13" s="11">
-        <v>2948</v>
+        <v>3134</v>
       </c>
       <c r="AG13" s="11">
-        <v>3094</v>
+        <v>3399</v>
       </c>
       <c r="AH13" s="11">
-        <v>3134</v>
+        <v>3138</v>
       </c>
       <c r="AI13" s="11">
-        <v>3399</v>
+        <v>2953</v>
       </c>
       <c r="AJ13" s="11">
-        <v>3138</v>
+        <v>2939</v>
       </c>
       <c r="AK13" s="11">
-        <v>2953</v>
+        <v>3107</v>
       </c>
       <c r="AL13" s="11">
-        <v>2939</v>
+        <v>3478</v>
       </c>
       <c r="AM13" s="11">
-        <v>3107</v>
+        <v>3658</v>
       </c>
       <c r="AN13" s="11">
-        <v>3478</v>
+        <v>3429</v>
       </c>
       <c r="AO13" s="11">
-        <v>3658</v>
+        <v>3327</v>
       </c>
       <c r="AP13" s="11">
-        <v>3429</v>
+        <v>3137</v>
       </c>
       <c r="AQ13" s="11">
-        <v>3327</v>
+        <v>3426</v>
       </c>
       <c r="AR13" s="11">
-        <v>3137</v>
+        <v>3390</v>
       </c>
       <c r="AS13" s="11">
-        <v>3426</v>
+        <v>3916</v>
       </c>
       <c r="AT13" s="11">
-        <v>3390</v>
+        <v>3727</v>
       </c>
       <c r="AU13" s="11">
-        <v>3916</v>
+        <v>3081</v>
       </c>
       <c r="AV13" s="11">
-        <v>3727</v>
+        <v>2498</v>
       </c>
       <c r="AW13" s="11">
-        <v>3081</v>
+        <v>2972</v>
       </c>
       <c r="AX13" s="11">
-        <v>9937</v>
+        <v>3566</v>
       </c>
       <c r="AY13" s="11">
-        <v>2972</v>
+        <v>3539</v>
       </c>
       <c r="AZ13" s="11">
-        <v>11005</v>
+        <v>3471</v>
       </c>
       <c r="BA13" s="11">
-        <v>10978</v>
+        <v>3470</v>
       </c>
       <c r="BB13" s="11">
-        <v>3471</v>
+        <v>2765</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>59</v>
       </c>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="F14" s="13">
         <v>0</v>
@@ -1945,11 +1945,11 @@
       <c r="S14" s="13">
         <v>0</v>
       </c>
-      <c r="T14" s="13">
-        <v>0</v>
-      </c>
-      <c r="U14" s="13">
-        <v>0</v>
+      <c r="T14" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="V14" s="13" t="s">
         <v>60</v>
@@ -2051,7 +2051,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2060,157 +2060,157 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>16203</v>
+        <v>11240</v>
       </c>
       <c r="F15" s="11">
-        <v>13740</v>
+        <v>11306</v>
       </c>
       <c r="G15" s="11">
-        <v>11240</v>
+        <v>11836</v>
       </c>
       <c r="H15" s="11">
-        <v>11306</v>
+        <v>11869</v>
       </c>
       <c r="I15" s="11">
-        <v>11836</v>
+        <v>11325</v>
       </c>
       <c r="J15" s="11">
-        <v>11869</v>
+        <v>14000</v>
       </c>
       <c r="K15" s="11">
-        <v>11325</v>
+        <v>14023</v>
       </c>
       <c r="L15" s="11">
-        <v>14000</v>
+        <v>12151</v>
       </c>
       <c r="M15" s="11">
-        <v>14023</v>
+        <v>12762</v>
       </c>
       <c r="N15" s="11">
-        <v>12151</v>
+        <v>16462</v>
       </c>
       <c r="O15" s="11">
-        <v>12762</v>
+        <v>12187</v>
       </c>
       <c r="P15" s="11">
-        <v>16462</v>
+        <v>11439</v>
       </c>
       <c r="Q15" s="11">
-        <v>12187</v>
+        <v>13383</v>
       </c>
       <c r="R15" s="11">
-        <v>11439</v>
+        <v>13425</v>
       </c>
       <c r="S15" s="11">
-        <v>13383</v>
+        <v>9364</v>
       </c>
       <c r="T15" s="11">
-        <v>13425</v>
+        <v>4097</v>
       </c>
       <c r="U15" s="11">
-        <v>9364</v>
+        <v>14916</v>
       </c>
       <c r="V15" s="11">
-        <v>4097</v>
+        <v>12499</v>
       </c>
       <c r="W15" s="11">
-        <v>14916</v>
+        <v>15515</v>
       </c>
       <c r="X15" s="11">
-        <v>12499</v>
+        <v>13602</v>
       </c>
       <c r="Y15" s="11">
-        <v>15515</v>
+        <v>13883</v>
       </c>
       <c r="Z15" s="11">
-        <v>13602</v>
+        <v>13187</v>
       </c>
       <c r="AA15" s="11">
-        <v>13883</v>
+        <v>12333</v>
       </c>
       <c r="AB15" s="11">
-        <v>13187</v>
+        <v>13867</v>
       </c>
       <c r="AC15" s="11">
-        <v>12333</v>
+        <v>15085</v>
       </c>
       <c r="AD15" s="11">
-        <v>13867</v>
+        <v>14150</v>
       </c>
       <c r="AE15" s="11">
-        <v>15085</v>
+        <v>15816</v>
       </c>
       <c r="AF15" s="11">
-        <v>14150</v>
+        <v>16615</v>
       </c>
       <c r="AG15" s="11">
-        <v>15816</v>
+        <v>14189</v>
       </c>
       <c r="AH15" s="11">
-        <v>16615</v>
+        <v>17540</v>
       </c>
       <c r="AI15" s="11">
-        <v>14189</v>
+        <v>18827</v>
       </c>
       <c r="AJ15" s="11">
-        <v>17540</v>
+        <v>15387</v>
       </c>
       <c r="AK15" s="11">
-        <v>18827</v>
+        <v>16391</v>
       </c>
       <c r="AL15" s="11">
-        <v>15387</v>
+        <v>15291</v>
       </c>
       <c r="AM15" s="11">
-        <v>16391</v>
+        <v>10208</v>
       </c>
       <c r="AN15" s="11">
-        <v>15291</v>
+        <v>11787</v>
       </c>
       <c r="AO15" s="11">
-        <v>10208</v>
+        <v>14128</v>
       </c>
       <c r="AP15" s="11">
-        <v>11787</v>
+        <v>17289</v>
       </c>
       <c r="AQ15" s="11">
-        <v>14128</v>
+        <v>17310</v>
       </c>
       <c r="AR15" s="11">
-        <v>17289</v>
+        <v>17678</v>
       </c>
       <c r="AS15" s="11">
-        <v>17310</v>
+        <v>16641</v>
       </c>
       <c r="AT15" s="11">
-        <v>17678</v>
+        <v>16926</v>
       </c>
       <c r="AU15" s="11">
-        <v>16641</v>
+        <v>16617</v>
       </c>
       <c r="AV15" s="11">
-        <v>16926</v>
+        <v>16896</v>
       </c>
       <c r="AW15" s="11">
-        <v>16617</v>
+        <v>17284</v>
       </c>
       <c r="AX15" s="11">
-        <v>16896</v>
+        <v>15152</v>
       </c>
       <c r="AY15" s="11">
-        <v>17284</v>
+        <v>16569</v>
       </c>
       <c r="AZ15" s="11">
-        <v>15152</v>
+        <v>16380</v>
       </c>
       <c r="BA15" s="11">
-        <v>16569</v>
+        <v>15914</v>
       </c>
       <c r="BB15" s="11">
-        <v>16380</v>
+        <v>16519</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2275,101 +2275,101 @@
       <c r="W16" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="X16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y16" s="13" t="s">
-        <v>60</v>
+      <c r="X16" s="13">
+        <v>3145</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>2921</v>
       </c>
       <c r="Z16" s="13">
-        <v>3145</v>
+        <v>3092</v>
       </c>
       <c r="AA16" s="13">
-        <v>2921</v>
+        <v>1685</v>
       </c>
       <c r="AB16" s="13">
-        <v>3092</v>
+        <v>309</v>
       </c>
       <c r="AC16" s="13">
-        <v>1685</v>
+        <v>0</v>
       </c>
       <c r="AD16" s="13">
-        <v>309</v>
+        <v>545</v>
       </c>
       <c r="AE16" s="13">
         <v>0</v>
       </c>
-      <c r="AF16" s="13">
-        <v>545</v>
+      <c r="AF16" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AG16" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="13" t="s">
-        <v>60</v>
+        <v>585</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>0</v>
       </c>
       <c r="AI16" s="13">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="13">
-        <v>0</v>
+        <v>1427</v>
       </c>
       <c r="AK16" s="13">
-        <v>0</v>
+        <v>2199</v>
       </c>
       <c r="AL16" s="13">
-        <v>1427</v>
+        <v>1910</v>
       </c>
       <c r="AM16" s="13">
-        <v>2199</v>
+        <v>881</v>
       </c>
       <c r="AN16" s="13">
-        <v>1910</v>
+        <v>1528</v>
       </c>
       <c r="AO16" s="13">
-        <v>881</v>
+        <v>1103</v>
       </c>
       <c r="AP16" s="13">
-        <v>1528</v>
+        <v>2952</v>
       </c>
       <c r="AQ16" s="13">
-        <v>1103</v>
+        <v>2860</v>
       </c>
       <c r="AR16" s="13">
-        <v>2952</v>
+        <v>2383</v>
       </c>
       <c r="AS16" s="13">
-        <v>2860</v>
+        <v>2982</v>
       </c>
       <c r="AT16" s="13">
-        <v>2383</v>
+        <v>3279</v>
       </c>
       <c r="AU16" s="13">
-        <v>2982</v>
+        <v>2575</v>
       </c>
       <c r="AV16" s="13">
-        <v>3279</v>
+        <v>3412</v>
       </c>
       <c r="AW16" s="13">
-        <v>2575</v>
+        <v>3806</v>
       </c>
       <c r="AX16" s="13">
-        <v>3412</v>
+        <v>2467</v>
       </c>
       <c r="AY16" s="13">
-        <v>3806</v>
+        <v>4356</v>
       </c>
       <c r="AZ16" s="13">
-        <v>2467</v>
+        <v>5285</v>
       </c>
       <c r="BA16" s="13">
-        <v>4356</v>
+        <v>5651</v>
       </c>
       <c r="BB16" s="13">
-        <v>5285</v>
+        <v>2878</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2464,11 +2464,11 @@
       <c r="AG17" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI17" s="11" t="s">
-        <v>60</v>
+      <c r="AH17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="11">
+        <v>0</v>
       </c>
       <c r="AJ17" s="11">
         <v>0</v>
@@ -2528,7 +2528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2665,11 +2665,11 @@
       <c r="AU18" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AV18" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW18" s="13" t="s">
-        <v>60</v>
+      <c r="AV18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="13">
+        <v>0</v>
       </c>
       <c r="AX18" s="13">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="8" t="s">
         <v>65</v>
       </c>
@@ -2744,7 +2744,7 @@
       <c r="BA19" s="9"/>
       <c r="BB19" s="9"/>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="10" t="s">
         <v>55</v>
       </c>
@@ -2833,14 +2833,14 @@
       <c r="AE20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF20" s="11" t="s">
-        <v>60</v>
+      <c r="AF20" s="11">
+        <v>0</v>
       </c>
       <c r="AG20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH20" s="11">
-        <v>0</v>
+      <c r="AH20" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AI20" s="11" t="s">
         <v>60</v>
@@ -2869,8 +2869,8 @@
       <c r="AQ20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR20" s="11">
-        <v>0</v>
+      <c r="AR20" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AS20" s="11" t="s">
         <v>60</v>
@@ -2881,29 +2881,29 @@
       <c r="AU20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AV20" s="11">
-        <v>0</v>
+      <c r="AV20" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AW20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX20" s="11">
-        <v>0</v>
+      <c r="AX20" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AY20" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AZ20" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA20" s="11">
-        <v>0</v>
+      <c r="AZ20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA20" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="BB20" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
         <v>57</v>
       </c>
@@ -2956,20 +2956,20 @@
       <c r="S21" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="T21" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U21" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="V21" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W21" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X21" s="13" t="s">
-        <v>60</v>
+      <c r="T21" s="13">
+        <v>0</v>
+      </c>
+      <c r="U21" s="13">
+        <v>0</v>
+      </c>
+      <c r="V21" s="13">
+        <v>0</v>
+      </c>
+      <c r="W21" s="13">
+        <v>0</v>
+      </c>
+      <c r="X21" s="13">
+        <v>0</v>
       </c>
       <c r="Y21" s="13">
         <v>0</v>
@@ -2992,11 +2992,11 @@
       <c r="AE21" s="13">
         <v>0</v>
       </c>
-      <c r="AF21" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="13">
-        <v>0</v>
+      <c r="AF21" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG21" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AH21" s="13" t="s">
         <v>60</v>
@@ -3062,7 +3062,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>61</v>
       </c>
@@ -3115,20 +3115,20 @@
       <c r="S22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="T22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W22" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X22" s="11" t="s">
-        <v>60</v>
+      <c r="T22" s="11">
+        <v>0</v>
+      </c>
+      <c r="U22" s="11">
+        <v>0</v>
+      </c>
+      <c r="V22" s="11">
+        <v>0</v>
+      </c>
+      <c r="W22" s="11">
+        <v>0</v>
+      </c>
+      <c r="X22" s="11">
+        <v>0</v>
       </c>
       <c r="Y22" s="11">
         <v>0</v>
@@ -3154,11 +3154,11 @@
       <c r="AF22" s="11">
         <v>0</v>
       </c>
-      <c r="AG22" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="11">
-        <v>0</v>
+      <c r="AG22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH22" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AI22" s="11" t="s">
         <v>60</v>
@@ -3187,8 +3187,8 @@
       <c r="AQ22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR22" s="11">
-        <v>0</v>
+      <c r="AR22" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AS22" s="11" t="s">
         <v>60</v>
@@ -3199,29 +3199,29 @@
       <c r="AU22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AV22" s="11">
-        <v>0</v>
+      <c r="AV22" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AW22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX22" s="11">
-        <v>0</v>
+      <c r="AX22" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AY22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AZ22" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA22" s="11">
-        <v>0</v>
+      <c r="AZ22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA22" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="BB22" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
         <v>66</v>
       </c>
@@ -3358,29 +3358,29 @@
       <c r="AU23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AV23" s="13">
-        <v>0</v>
+      <c r="AV23" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AW23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AX23" s="13">
-        <v>0</v>
+      <c r="AX23" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AY23" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AZ23" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA23" s="13">
-        <v>0</v>
+      <c r="AZ23" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA23" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="BB23" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
         <v>67</v>
       </c>
@@ -3431,20 +3431,20 @@
       <c r="S24" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="U24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="V24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="W24" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X24" s="15" t="s">
-        <v>60</v>
+      <c r="T24" s="15">
+        <v>0</v>
+      </c>
+      <c r="U24" s="15">
+        <v>0</v>
+      </c>
+      <c r="V24" s="15">
+        <v>0</v>
+      </c>
+      <c r="W24" s="15">
+        <v>0</v>
+      </c>
+      <c r="X24" s="15">
+        <v>0</v>
       </c>
       <c r="Y24" s="15">
         <v>0</v>
@@ -3537,164 +3537,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="17">
-        <v>19716</v>
+        <v>13151</v>
       </c>
       <c r="F25" s="17">
-        <v>16812</v>
+        <v>13362</v>
       </c>
       <c r="G25" s="17">
-        <v>13151</v>
+        <v>14543</v>
       </c>
       <c r="H25" s="17">
-        <v>13362</v>
+        <v>13694</v>
       </c>
       <c r="I25" s="17">
-        <v>14543</v>
+        <v>14197</v>
       </c>
       <c r="J25" s="17">
-        <v>13694</v>
+        <v>17062</v>
       </c>
       <c r="K25" s="17">
-        <v>14197</v>
+        <v>16138</v>
       </c>
       <c r="L25" s="17">
-        <v>17062</v>
+        <v>13830</v>
       </c>
       <c r="M25" s="17">
-        <v>16138</v>
+        <v>16145</v>
       </c>
       <c r="N25" s="17">
-        <v>13830</v>
+        <v>19965</v>
       </c>
       <c r="O25" s="17">
-        <v>16145</v>
+        <v>15206</v>
       </c>
       <c r="P25" s="17">
-        <v>19965</v>
+        <v>15038</v>
       </c>
       <c r="Q25" s="17">
-        <v>15206</v>
+        <v>17519</v>
       </c>
       <c r="R25" s="17">
-        <v>15038</v>
+        <v>16487</v>
       </c>
       <c r="S25" s="17">
-        <v>17519</v>
+        <v>11706</v>
       </c>
       <c r="T25" s="17">
-        <v>16487</v>
+        <v>4632</v>
       </c>
       <c r="U25" s="17">
-        <v>11706</v>
+        <v>17553</v>
       </c>
       <c r="V25" s="17">
-        <v>4632</v>
+        <v>15690</v>
       </c>
       <c r="W25" s="17">
-        <v>17553</v>
+        <v>18258</v>
       </c>
       <c r="X25" s="17">
-        <v>15690</v>
+        <v>19890</v>
       </c>
       <c r="Y25" s="17">
-        <v>18258</v>
+        <v>20171</v>
       </c>
       <c r="Z25" s="17">
-        <v>19890</v>
+        <v>19727</v>
       </c>
       <c r="AA25" s="17">
-        <v>20171</v>
+        <v>17099</v>
       </c>
       <c r="AB25" s="17">
-        <v>19727</v>
+        <v>17372</v>
       </c>
       <c r="AC25" s="17">
-        <v>17099</v>
+        <v>18282</v>
       </c>
       <c r="AD25" s="17">
-        <v>17372</v>
+        <v>18039</v>
       </c>
       <c r="AE25" s="17">
-        <v>18282</v>
+        <v>19394</v>
       </c>
       <c r="AF25" s="17">
-        <v>18039</v>
+        <v>20200</v>
       </c>
       <c r="AG25" s="17">
-        <v>19394</v>
+        <v>18566</v>
       </c>
       <c r="AH25" s="17">
-        <v>20200</v>
+        <v>21168</v>
       </c>
       <c r="AI25" s="17">
-        <v>18566</v>
+        <v>22366</v>
       </c>
       <c r="AJ25" s="17">
-        <v>21168</v>
+        <v>20158</v>
       </c>
       <c r="AK25" s="17">
-        <v>22366</v>
+        <v>22076</v>
       </c>
       <c r="AL25" s="17">
-        <v>20158</v>
+        <v>21013</v>
       </c>
       <c r="AM25" s="17">
-        <v>22076</v>
+        <v>14960</v>
       </c>
       <c r="AN25" s="17">
-        <v>21013</v>
+        <v>16971</v>
       </c>
       <c r="AO25" s="17">
-        <v>14960</v>
+        <v>18859</v>
       </c>
       <c r="AP25" s="17">
-        <v>16971</v>
+        <v>23754</v>
       </c>
       <c r="AQ25" s="17">
-        <v>18859</v>
+        <v>23901</v>
       </c>
       <c r="AR25" s="17">
-        <v>23754</v>
+        <v>23765</v>
       </c>
       <c r="AS25" s="17">
-        <v>23901</v>
+        <v>23845</v>
       </c>
       <c r="AT25" s="17">
-        <v>23765</v>
+        <v>24225</v>
       </c>
       <c r="AU25" s="17">
-        <v>23845</v>
+        <v>22671</v>
       </c>
       <c r="AV25" s="17">
-        <v>24225</v>
+        <v>23149</v>
       </c>
       <c r="AW25" s="17">
-        <v>22671</v>
+        <v>24379</v>
       </c>
       <c r="AX25" s="17">
-        <v>30588</v>
+        <v>21487</v>
       </c>
       <c r="AY25" s="17">
-        <v>24379</v>
+        <v>24817</v>
       </c>
       <c r="AZ25" s="17">
-        <v>28926</v>
+        <v>25484</v>
       </c>
       <c r="BA25" s="17">
-        <v>32256</v>
+        <v>25423</v>
       </c>
       <c r="BB25" s="17">
-        <v>25484</v>
+        <v>22514</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3749,7 +3749,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3804,7 +3804,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -3859,7 +3859,7 @@
       <c r="BA28" s="1"/>
       <c r="BB28" s="1"/>
     </row>
-    <row r="29" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>69</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4071,7 +4071,7 @@
       <c r="BA30" s="1"/>
       <c r="BB30" s="1"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
         <v>69</v>
       </c>
@@ -4128,7 +4128,7 @@
       <c r="BA31" s="9"/>
       <c r="BB31" s="9"/>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>55</v>
       </c>
@@ -4200,13 +4200,13 @@
         <v>0</v>
       </c>
       <c r="Z32" s="11">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="AA32" s="11">
         <v>0</v>
       </c>
       <c r="AB32" s="11">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="AC32" s="11">
         <v>0</v>
@@ -4287,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>57</v>
       </c>
@@ -4296,121 +4296,121 @@
       </c>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
-        <v>45</v>
+        <v>138</v>
       </c>
       <c r="F33" s="13">
-        <v>0</v>
+        <v>1834</v>
       </c>
       <c r="G33" s="13">
-        <v>138</v>
+        <v>922</v>
       </c>
       <c r="H33" s="13">
-        <v>1834</v>
+        <v>0</v>
       </c>
       <c r="I33" s="13">
-        <v>922</v>
+        <v>897</v>
       </c>
       <c r="J33" s="13">
-        <v>0</v>
+        <v>885</v>
       </c>
       <c r="K33" s="13">
-        <v>897</v>
+        <v>919</v>
       </c>
       <c r="L33" s="13">
-        <v>885</v>
+        <v>940</v>
       </c>
       <c r="M33" s="13">
-        <v>919</v>
+        <v>0</v>
       </c>
       <c r="N33" s="13">
-        <v>940</v>
+        <v>869</v>
       </c>
       <c r="O33" s="13">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="P33" s="13">
-        <v>869</v>
+        <v>877</v>
       </c>
       <c r="Q33" s="13">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="R33" s="13">
-        <v>877</v>
+        <v>189</v>
       </c>
       <c r="S33" s="13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="T33" s="13">
-        <v>189</v>
+        <v>0</v>
       </c>
       <c r="U33" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="V33" s="13">
         <v>0</v>
       </c>
       <c r="W33" s="13">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="X33" s="13">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y33" s="13">
-        <v>602</v>
+        <v>1063</v>
       </c>
       <c r="Z33" s="13">
-        <v>990</v>
+        <v>903</v>
       </c>
       <c r="AA33" s="13">
-        <v>1063</v>
+        <v>886</v>
       </c>
       <c r="AB33" s="13">
-        <v>903</v>
+        <v>180</v>
       </c>
       <c r="AC33" s="13">
-        <v>886</v>
+        <v>564</v>
       </c>
       <c r="AD33" s="13">
-        <v>180</v>
+        <v>51</v>
       </c>
       <c r="AE33" s="13">
-        <v>564</v>
+        <v>0</v>
       </c>
       <c r="AF33" s="13">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="13">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="AH33" s="13">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI33" s="13">
-        <v>713</v>
+        <v>661</v>
       </c>
       <c r="AJ33" s="13">
-        <v>1000</v>
+        <v>244</v>
       </c>
       <c r="AK33" s="13">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="AL33" s="13">
-        <v>244</v>
+        <v>474</v>
       </c>
       <c r="AM33" s="13">
-        <v>609</v>
+        <v>328</v>
       </c>
       <c r="AN33" s="13">
-        <v>474</v>
+        <v>220</v>
       </c>
       <c r="AO33" s="13">
-        <v>328</v>
+        <v>150</v>
       </c>
       <c r="AP33" s="13">
-        <v>220</v>
+        <v>0</v>
       </c>
       <c r="AQ33" s="13">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AR33" s="13">
         <v>0</v>
@@ -4422,13 +4422,13 @@
         <v>0</v>
       </c>
       <c r="AU33" s="13">
-        <v>0</v>
+        <v>2477</v>
       </c>
       <c r="AV33" s="13">
         <v>0</v>
       </c>
       <c r="AW33" s="13">
-        <v>2477</v>
+        <v>0</v>
       </c>
       <c r="AX33" s="13">
         <v>0</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>58</v>
       </c>
@@ -4455,157 +4455,157 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>390</v>
+        <v>2109</v>
       </c>
       <c r="F34" s="11">
-        <v>735</v>
+        <v>0</v>
       </c>
       <c r="G34" s="11">
-        <v>2109</v>
+        <v>4294</v>
       </c>
       <c r="H34" s="11">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I34" s="11">
-        <v>4294</v>
+        <v>792</v>
       </c>
       <c r="J34" s="11">
-        <v>120</v>
+        <v>12058</v>
       </c>
       <c r="K34" s="11">
-        <v>792</v>
+        <v>4033</v>
       </c>
       <c r="L34" s="11">
-        <v>12058</v>
+        <v>679</v>
       </c>
       <c r="M34" s="11">
-        <v>4033</v>
+        <v>300</v>
       </c>
       <c r="N34" s="11">
-        <v>679</v>
+        <v>0</v>
       </c>
       <c r="O34" s="11">
-        <v>300</v>
+        <v>27</v>
       </c>
       <c r="P34" s="11">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="Q34" s="11">
-        <v>27</v>
+        <v>1697</v>
       </c>
       <c r="R34" s="11">
-        <v>762</v>
+        <v>5943</v>
       </c>
       <c r="S34" s="11">
-        <v>1697</v>
+        <v>2321</v>
       </c>
       <c r="T34" s="11">
-        <v>5943</v>
+        <v>454</v>
       </c>
       <c r="U34" s="11">
-        <v>2321</v>
+        <v>2922</v>
       </c>
       <c r="V34" s="11">
-        <v>454</v>
+        <v>2569</v>
       </c>
       <c r="W34" s="11">
-        <v>2922</v>
+        <v>3202</v>
       </c>
       <c r="X34" s="11">
-        <v>2569</v>
+        <v>658</v>
       </c>
       <c r="Y34" s="11">
-        <v>3202</v>
+        <v>4483</v>
       </c>
       <c r="Z34" s="11">
-        <v>658</v>
+        <v>5224</v>
       </c>
       <c r="AA34" s="11">
-        <v>4483</v>
+        <v>785</v>
       </c>
       <c r="AB34" s="11">
-        <v>5224</v>
+        <v>4000</v>
       </c>
       <c r="AC34" s="11">
-        <v>785</v>
+        <v>52</v>
       </c>
       <c r="AD34" s="11">
-        <v>4000</v>
+        <v>3161</v>
       </c>
       <c r="AE34" s="11">
-        <v>52</v>
+        <v>240</v>
       </c>
       <c r="AF34" s="11">
-        <v>3161</v>
+        <v>145</v>
       </c>
       <c r="AG34" s="11">
-        <v>240</v>
+        <v>4278</v>
       </c>
       <c r="AH34" s="11">
-        <v>145</v>
+        <v>3471</v>
       </c>
       <c r="AI34" s="11">
-        <v>4278</v>
+        <v>1778</v>
       </c>
       <c r="AJ34" s="11">
-        <v>3471</v>
+        <v>2589</v>
       </c>
       <c r="AK34" s="11">
-        <v>1778</v>
+        <v>2399</v>
       </c>
       <c r="AL34" s="11">
-        <v>2589</v>
+        <v>2126</v>
       </c>
       <c r="AM34" s="11">
-        <v>2399</v>
+        <v>2323</v>
       </c>
       <c r="AN34" s="11">
-        <v>2126</v>
+        <v>4733</v>
       </c>
       <c r="AO34" s="11">
-        <v>2323</v>
+        <v>2989</v>
       </c>
       <c r="AP34" s="11">
-        <v>4733</v>
+        <v>5073</v>
       </c>
       <c r="AQ34" s="11">
-        <v>2989</v>
+        <v>6875</v>
       </c>
       <c r="AR34" s="11">
-        <v>5019</v>
+        <v>999</v>
       </c>
       <c r="AS34" s="11">
-        <v>6875</v>
+        <v>1149</v>
       </c>
       <c r="AT34" s="11">
-        <v>999</v>
+        <v>10686</v>
       </c>
       <c r="AU34" s="11">
-        <v>1149</v>
+        <v>3173</v>
       </c>
       <c r="AV34" s="11">
-        <v>10686</v>
+        <v>3122</v>
       </c>
       <c r="AW34" s="11">
-        <v>3173</v>
+        <v>4470</v>
       </c>
       <c r="AX34" s="11">
-        <v>3719</v>
+        <v>3300</v>
       </c>
       <c r="AY34" s="11">
-        <v>4470</v>
+        <v>3099</v>
       </c>
       <c r="AZ34" s="11">
-        <v>3897</v>
+        <v>13391</v>
       </c>
       <c r="BA34" s="11">
-        <v>3696</v>
+        <v>1815</v>
       </c>
       <c r="BB34" s="11">
-        <v>13391</v>
+        <v>4271</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="12" t="s">
         <v>59</v>
       </c>
@@ -4658,11 +4658,11 @@
       <c r="S35" s="13">
         <v>0</v>
       </c>
-      <c r="T35" s="13">
-        <v>0</v>
-      </c>
-      <c r="U35" s="13">
-        <v>0</v>
+      <c r="T35" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="V35" s="13" t="s">
         <v>60</v>
@@ -4764,7 +4764,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>61</v>
       </c>
@@ -4773,109 +4773,109 @@
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11">
-        <v>1581</v>
+        <v>2325</v>
       </c>
       <c r="F36" s="11">
-        <v>2102</v>
+        <v>0</v>
       </c>
       <c r="G36" s="11">
-        <v>2325</v>
+        <v>2711</v>
       </c>
       <c r="H36" s="11">
         <v>0</v>
       </c>
       <c r="I36" s="11">
-        <v>2711</v>
+        <v>0</v>
       </c>
       <c r="J36" s="11">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="K36" s="11">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="L36" s="11">
-        <v>714</v>
+        <v>0</v>
       </c>
       <c r="M36" s="11">
-        <v>66</v>
+        <v>1794</v>
       </c>
       <c r="N36" s="11">
         <v>0</v>
       </c>
       <c r="O36" s="11">
-        <v>1794</v>
+        <v>258</v>
       </c>
       <c r="P36" s="11">
-        <v>0</v>
+        <v>952</v>
       </c>
       <c r="Q36" s="11">
-        <v>258</v>
+        <v>1018</v>
       </c>
       <c r="R36" s="11">
-        <v>952</v>
+        <v>2427</v>
       </c>
       <c r="S36" s="11">
-        <v>1018</v>
+        <v>0</v>
       </c>
       <c r="T36" s="11">
-        <v>2427</v>
+        <v>0</v>
       </c>
       <c r="U36" s="11">
         <v>0</v>
       </c>
       <c r="V36" s="11">
-        <v>0</v>
+        <v>4200</v>
       </c>
       <c r="W36" s="11">
         <v>0</v>
       </c>
       <c r="X36" s="11">
-        <v>4200</v>
+        <v>893</v>
       </c>
       <c r="Y36" s="11">
-        <v>0</v>
+        <v>2056</v>
       </c>
       <c r="Z36" s="11">
-        <v>893</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="11">
-        <v>2056</v>
+        <v>2907</v>
       </c>
       <c r="AB36" s="11">
         <v>0</v>
       </c>
       <c r="AC36" s="11">
-        <v>2907</v>
+        <v>1724</v>
       </c>
       <c r="AD36" s="11">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="AE36" s="11">
-        <v>1724</v>
+        <v>0</v>
       </c>
       <c r="AF36" s="11">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="11">
-        <v>0</v>
+        <v>541</v>
       </c>
       <c r="AH36" s="11">
-        <v>0</v>
+        <v>1998</v>
       </c>
       <c r="AI36" s="11">
-        <v>541</v>
+        <v>2019</v>
       </c>
       <c r="AJ36" s="11">
-        <v>1998</v>
+        <v>2209</v>
       </c>
       <c r="AK36" s="11">
-        <v>2019</v>
+        <v>4137</v>
       </c>
       <c r="AL36" s="11">
-        <v>2209</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="11">
-        <v>4137</v>
+        <v>0</v>
       </c>
       <c r="AN36" s="11">
         <v>0</v>
@@ -4917,13 +4917,13 @@
         <v>0</v>
       </c>
       <c r="BA36" s="11">
-        <v>0</v>
+        <v>1678</v>
       </c>
       <c r="BB36" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="12" t="s">
         <v>62</v>
       </c>
@@ -4988,11 +4988,11 @@
       <c r="W37" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="X37" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y37" s="13" t="s">
-        <v>60</v>
+      <c r="X37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="13">
+        <v>0</v>
       </c>
       <c r="Z37" s="13">
         <v>0</v>
@@ -5012,14 +5012,14 @@
       <c r="AE37" s="13">
         <v>0</v>
       </c>
-      <c r="AF37" s="13">
-        <v>0</v>
+      <c r="AF37" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AG37" s="13">
         <v>0</v>
       </c>
-      <c r="AH37" s="13" t="s">
-        <v>60</v>
+      <c r="AH37" s="13">
+        <v>0</v>
       </c>
       <c r="AI37" s="13">
         <v>0</v>
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="10" t="s">
         <v>63</v>
       </c>
@@ -5177,14 +5177,14 @@
       <c r="AG38" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH38" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI38" s="11" t="s">
-        <v>60</v>
+      <c r="AH38" s="11">
+        <v>500</v>
+      </c>
+      <c r="AI38" s="11">
+        <v>25</v>
       </c>
       <c r="AJ38" s="11">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AK38" s="11">
         <v>25</v>
@@ -5193,55 +5193,55 @@
         <v>0</v>
       </c>
       <c r="AM38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="11">
+        <v>100</v>
+      </c>
+      <c r="AO38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="11">
         <v>25</v>
       </c>
-      <c r="AN38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AO38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="11">
-        <v>100</v>
-      </c>
       <c r="AQ38" s="11">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AR38" s="11">
+        <v>150</v>
+      </c>
+      <c r="AS38" s="11">
+        <v>1425</v>
+      </c>
+      <c r="AT38" s="11">
         <v>25</v>
       </c>
-      <c r="AS38" s="11">
+      <c r="AU38" s="11">
+        <v>25</v>
+      </c>
+      <c r="AV38" s="11">
+        <v>75</v>
+      </c>
+      <c r="AW38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="11">
+        <v>25</v>
+      </c>
+      <c r="AY38" s="11">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="11">
+        <v>200</v>
+      </c>
+      <c r="BA38" s="11">
         <v>50</v>
       </c>
-      <c r="AT38" s="11">
-        <v>150</v>
-      </c>
-      <c r="AU38" s="11">
-        <v>1425</v>
-      </c>
-      <c r="AV38" s="11">
-        <v>25</v>
-      </c>
-      <c r="AW38" s="11">
-        <v>25</v>
-      </c>
-      <c r="AX38" s="11">
-        <v>75</v>
-      </c>
-      <c r="AY38" s="11">
-        <v>0</v>
-      </c>
-      <c r="AZ38" s="11">
-        <v>25</v>
-      </c>
-      <c r="BA38" s="11">
-        <v>0</v>
-      </c>
       <c r="BB38" s="11">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="12" t="s">
         <v>64</v>
       </c>
@@ -5378,14 +5378,14 @@
       <c r="AU39" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AV39" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW39" s="13" t="s">
-        <v>60</v>
+      <c r="AV39" s="13">
+        <v>439</v>
+      </c>
+      <c r="AW39" s="13">
+        <v>0</v>
       </c>
       <c r="AX39" s="13">
-        <v>439</v>
+        <v>0</v>
       </c>
       <c r="AY39" s="13">
         <v>0</v>
@@ -5400,7 +5400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="8" t="s">
         <v>65</v>
       </c>
@@ -5457,7 +5457,7 @@
       <c r="BA40" s="9"/>
       <c r="BB40" s="9"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="10" t="s">
         <v>55</v>
       </c>
@@ -5546,14 +5546,14 @@
       <c r="AE41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF41" s="11" t="s">
-        <v>60</v>
+      <c r="AF41" s="11">
+        <v>0</v>
       </c>
       <c r="AG41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH41" s="11">
-        <v>0</v>
+      <c r="AH41" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AI41" s="11" t="s">
         <v>60</v>
@@ -5582,8 +5582,8 @@
       <c r="AQ41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR41" s="11">
-        <v>0</v>
+      <c r="AR41" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AS41" s="11" t="s">
         <v>60</v>
@@ -5594,29 +5594,29 @@
       <c r="AU41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AV41" s="11">
-        <v>0</v>
+      <c r="AV41" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AW41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX41" s="11">
-        <v>0</v>
+      <c r="AX41" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AY41" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AZ41" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA41" s="11">
-        <v>0</v>
+      <c r="AZ41" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA41" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="BB41" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
         <v>57</v>
       </c>
@@ -5669,20 +5669,20 @@
       <c r="S42" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="T42" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U42" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="V42" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W42" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X42" s="13" t="s">
-        <v>60</v>
+      <c r="T42" s="13">
+        <v>0</v>
+      </c>
+      <c r="U42" s="13">
+        <v>0</v>
+      </c>
+      <c r="V42" s="13">
+        <v>0</v>
+      </c>
+      <c r="W42" s="13">
+        <v>0</v>
+      </c>
+      <c r="X42" s="13">
+        <v>0</v>
       </c>
       <c r="Y42" s="13">
         <v>0</v>
@@ -5705,11 +5705,11 @@
       <c r="AE42" s="13">
         <v>0</v>
       </c>
-      <c r="AF42" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG42" s="13">
-        <v>0</v>
+      <c r="AF42" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG42" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AH42" s="13" t="s">
         <v>60</v>
@@ -5775,7 +5775,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>61</v>
       </c>
@@ -5828,80 +5828,80 @@
       <c r="S43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="T43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>60</v>
+      <c r="T43" s="11">
+        <v>0</v>
+      </c>
+      <c r="U43" s="11">
+        <v>0</v>
+      </c>
+      <c r="V43" s="11">
+        <v>1941</v>
+      </c>
+      <c r="W43" s="11">
+        <v>0</v>
+      </c>
+      <c r="X43" s="11">
+        <v>1119</v>
       </c>
       <c r="Y43" s="11">
         <v>0</v>
       </c>
       <c r="Z43" s="11">
-        <v>1119</v>
+        <v>0</v>
       </c>
       <c r="AA43" s="11">
         <v>0</v>
       </c>
       <c r="AB43" s="11">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="AC43" s="11">
         <v>0</v>
       </c>
       <c r="AD43" s="11">
-        <v>1187</v>
+        <v>1794</v>
       </c>
       <c r="AE43" s="11">
         <v>0</v>
       </c>
       <c r="AF43" s="11">
-        <v>1794</v>
-      </c>
-      <c r="AG43" s="11">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="AG43" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AH43" s="11">
-        <v>0</v>
+        <v>2980</v>
       </c>
       <c r="AI43" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AJ43" s="11">
-        <v>2980</v>
-      </c>
-      <c r="AK43" s="11" t="s">
-        <v>60</v>
+        <v>1234</v>
+      </c>
+      <c r="AK43" s="11">
+        <v>2194</v>
       </c>
       <c r="AL43" s="11">
-        <v>1234</v>
+        <v>3142</v>
       </c>
       <c r="AM43" s="11">
-        <v>2194</v>
-      </c>
-      <c r="AN43" s="11">
-        <v>3142</v>
+        <v>2642</v>
+      </c>
+      <c r="AN43" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AO43" s="11">
-        <v>2642</v>
-      </c>
-      <c r="AP43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AQ43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AR43" s="11">
-        <v>5897</v>
+        <v>0</v>
+      </c>
+      <c r="AP43" s="11">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR43" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AS43" s="11" t="s">
         <v>60</v>
@@ -5909,32 +5909,32 @@
       <c r="AT43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AU43" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AV43" s="11">
-        <v>0</v>
-      </c>
-      <c r="AW43" s="11">
+      <c r="AU43" s="11">
         <v>718</v>
       </c>
-      <c r="AX43" s="11">
-        <v>0</v>
+      <c r="AV43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AW43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX43" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AY43" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AZ43" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA43" s="11">
-        <v>0</v>
+      <c r="AZ43" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA43" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="BB43" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>66</v>
       </c>
@@ -6071,29 +6071,29 @@
       <c r="AU44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AV44" s="13">
-        <v>0</v>
+      <c r="AV44" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AW44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AX44" s="13">
-        <v>0</v>
+      <c r="AX44" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AY44" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AZ44" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA44" s="13">
-        <v>0</v>
+      <c r="AZ44" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA44" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="BB44" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>67</v>
       </c>
@@ -6144,71 +6144,71 @@
       <c r="S45" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T45" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="U45" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="V45" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="W45" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X45" s="15" t="s">
-        <v>60</v>
+      <c r="T45" s="15">
+        <v>0</v>
+      </c>
+      <c r="U45" s="15">
+        <v>0</v>
+      </c>
+      <c r="V45" s="15">
+        <v>1941</v>
+      </c>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+      <c r="X45" s="15">
+        <v>1119</v>
       </c>
       <c r="Y45" s="15">
         <v>0</v>
       </c>
       <c r="Z45" s="15">
-        <v>1119</v>
+        <v>0</v>
       </c>
       <c r="AA45" s="15">
         <v>0</v>
       </c>
       <c r="AB45" s="15">
-        <v>0</v>
+        <v>1187</v>
       </c>
       <c r="AC45" s="15">
         <v>0</v>
       </c>
       <c r="AD45" s="15">
-        <v>1187</v>
+        <v>1794</v>
       </c>
       <c r="AE45" s="15">
         <v>0</v>
       </c>
       <c r="AF45" s="15">
-        <v>1794</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="15">
         <v>0</v>
       </c>
       <c r="AH45" s="15">
-        <v>0</v>
+        <v>2980</v>
       </c>
       <c r="AI45" s="15">
         <v>0</v>
       </c>
       <c r="AJ45" s="15">
-        <v>2980</v>
+        <v>1234</v>
       </c>
       <c r="AK45" s="15">
-        <v>0</v>
+        <v>2194</v>
       </c>
       <c r="AL45" s="15">
-        <v>1234</v>
+        <v>3142</v>
       </c>
       <c r="AM45" s="15">
-        <v>2194</v>
+        <v>2642</v>
       </c>
       <c r="AN45" s="15">
-        <v>3142</v>
+        <v>0</v>
       </c>
       <c r="AO45" s="15">
-        <v>2642</v>
+        <v>0</v>
       </c>
       <c r="AP45" s="15">
         <v>0</v>
@@ -6217,7 +6217,7 @@
         <v>0</v>
       </c>
       <c r="AR45" s="15">
-        <v>5897</v>
+        <v>0</v>
       </c>
       <c r="AS45" s="15">
         <v>0</v>
@@ -6226,13 +6226,13 @@
         <v>0</v>
       </c>
       <c r="AU45" s="15">
-        <v>0</v>
+        <v>718</v>
       </c>
       <c r="AV45" s="15">
         <v>0</v>
       </c>
       <c r="AW45" s="15">
-        <v>718</v>
+        <v>0</v>
       </c>
       <c r="AX45" s="15">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>70</v>
       </c>
@@ -6307,7 +6307,7 @@
       <c r="BA46" s="19"/>
       <c r="BB46" s="19"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
         <v>71</v>
       </c>
@@ -6358,20 +6358,20 @@
       <c r="S47" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T47" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="U47" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="V47" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="W47" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X47" s="15" t="s">
-        <v>60</v>
+      <c r="T47" s="15">
+        <v>0</v>
+      </c>
+      <c r="U47" s="15">
+        <v>0</v>
+      </c>
+      <c r="V47" s="15">
+        <v>0</v>
+      </c>
+      <c r="W47" s="15">
+        <v>0</v>
+      </c>
+      <c r="X47" s="15">
+        <v>0</v>
       </c>
       <c r="Y47" s="15">
         <v>0</v>
@@ -6464,164 +6464,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C48" s="17"/>
       <c r="D48" s="17"/>
       <c r="E48" s="17">
-        <v>2016</v>
+        <v>4572</v>
       </c>
       <c r="F48" s="17">
-        <v>2837</v>
+        <v>1834</v>
       </c>
       <c r="G48" s="17">
-        <v>4572</v>
+        <v>7927</v>
       </c>
       <c r="H48" s="17">
-        <v>1834</v>
+        <v>120</v>
       </c>
       <c r="I48" s="17">
-        <v>7927</v>
+        <v>1689</v>
       </c>
       <c r="J48" s="17">
-        <v>120</v>
+        <v>13657</v>
       </c>
       <c r="K48" s="17">
-        <v>1689</v>
+        <v>5018</v>
       </c>
       <c r="L48" s="17">
-        <v>13657</v>
+        <v>1619</v>
       </c>
       <c r="M48" s="17">
-        <v>5018</v>
+        <v>2094</v>
       </c>
       <c r="N48" s="17">
-        <v>1619</v>
+        <v>869</v>
       </c>
       <c r="O48" s="17">
-        <v>2094</v>
+        <v>327</v>
       </c>
       <c r="P48" s="17">
-        <v>869</v>
+        <v>2591</v>
       </c>
       <c r="Q48" s="17">
-        <v>327</v>
+        <v>2715</v>
       </c>
       <c r="R48" s="17">
-        <v>2591</v>
+        <v>8559</v>
       </c>
       <c r="S48" s="17">
-        <v>2715</v>
+        <v>2339</v>
       </c>
       <c r="T48" s="17">
-        <v>8559</v>
+        <v>454</v>
       </c>
       <c r="U48" s="17">
-        <v>2339</v>
+        <v>2922</v>
       </c>
       <c r="V48" s="17">
-        <v>454</v>
+        <v>8710</v>
       </c>
       <c r="W48" s="17">
-        <v>2922</v>
+        <v>3804</v>
       </c>
       <c r="X48" s="17">
-        <v>6769</v>
+        <v>3660</v>
       </c>
       <c r="Y48" s="17">
-        <v>3804</v>
+        <v>7602</v>
       </c>
       <c r="Z48" s="17">
-        <v>3660</v>
+        <v>6252</v>
       </c>
       <c r="AA48" s="17">
-        <v>7602</v>
+        <v>4578</v>
       </c>
       <c r="AB48" s="17">
-        <v>6252</v>
+        <v>5367</v>
       </c>
       <c r="AC48" s="17">
-        <v>4578</v>
+        <v>2340</v>
       </c>
       <c r="AD48" s="17">
-        <v>5367</v>
+        <v>5628</v>
       </c>
       <c r="AE48" s="17">
-        <v>2340</v>
+        <v>240</v>
       </c>
       <c r="AF48" s="17">
-        <v>5628</v>
+        <v>145</v>
       </c>
       <c r="AG48" s="17">
-        <v>240</v>
+        <v>5532</v>
       </c>
       <c r="AH48" s="17">
-        <v>145</v>
+        <v>9949</v>
       </c>
       <c r="AI48" s="17">
-        <v>5532</v>
+        <v>4483</v>
       </c>
       <c r="AJ48" s="17">
-        <v>9949</v>
+        <v>6276</v>
       </c>
       <c r="AK48" s="17">
-        <v>4483</v>
+        <v>9364</v>
       </c>
       <c r="AL48" s="17">
-        <v>6276</v>
+        <v>5742</v>
       </c>
       <c r="AM48" s="17">
-        <v>9364</v>
+        <v>5293</v>
       </c>
       <c r="AN48" s="17">
-        <v>5742</v>
+        <v>5053</v>
       </c>
       <c r="AO48" s="17">
-        <v>5293</v>
+        <v>3139</v>
       </c>
       <c r="AP48" s="17">
-        <v>5053</v>
+        <v>5098</v>
       </c>
       <c r="AQ48" s="17">
-        <v>3139</v>
+        <v>6925</v>
       </c>
       <c r="AR48" s="17">
-        <v>10941</v>
+        <v>1149</v>
       </c>
       <c r="AS48" s="17">
-        <v>6925</v>
+        <v>2574</v>
       </c>
       <c r="AT48" s="17">
-        <v>1149</v>
+        <v>10711</v>
       </c>
       <c r="AU48" s="17">
-        <v>2574</v>
+        <v>6393</v>
       </c>
       <c r="AV48" s="17">
-        <v>10711</v>
+        <v>3636</v>
       </c>
       <c r="AW48" s="17">
-        <v>6393</v>
+        <v>4470</v>
       </c>
       <c r="AX48" s="17">
-        <v>4233</v>
+        <v>3325</v>
       </c>
       <c r="AY48" s="17">
-        <v>4470</v>
+        <v>3099</v>
       </c>
       <c r="AZ48" s="17">
-        <v>3922</v>
+        <v>13591</v>
       </c>
       <c r="BA48" s="17">
-        <v>3696</v>
+        <v>3543</v>
       </c>
       <c r="BB48" s="17">
-        <v>13591</v>
+        <v>4391</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6676,7 +6676,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -6731,7 +6731,7 @@
       <c r="BA50" s="1"/>
       <c r="BB50" s="1"/>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6786,7 +6786,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
         <v>72</v>
       </c>
@@ -6943,7 +6943,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -6998,7 +6998,7 @@
       <c r="BA53" s="1"/>
       <c r="BB53" s="1"/>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>72</v>
       </c>
@@ -7055,7 +7055,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>55</v>
       </c>
@@ -7064,157 +7064,157 @@
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11">
-        <v>12945</v>
+        <v>17935</v>
       </c>
       <c r="F55" s="11">
-        <v>12325</v>
+        <v>46860</v>
       </c>
       <c r="G55" s="11">
-        <v>17935</v>
+        <v>103020</v>
       </c>
       <c r="H55" s="11">
-        <v>46860</v>
+        <v>6299</v>
       </c>
       <c r="I55" s="11">
-        <v>103020</v>
+        <v>109221</v>
       </c>
       <c r="J55" s="11">
-        <v>6299</v>
+        <v>10750</v>
       </c>
       <c r="K55" s="11">
-        <v>109221</v>
+        <v>52572</v>
       </c>
       <c r="L55" s="11">
-        <v>10750</v>
+        <v>2544</v>
       </c>
       <c r="M55" s="11">
-        <v>52572</v>
+        <v>51655</v>
       </c>
       <c r="N55" s="11">
-        <v>2544</v>
+        <v>28776</v>
       </c>
       <c r="O55" s="11">
-        <v>51655</v>
+        <v>31276</v>
       </c>
       <c r="P55" s="11">
-        <v>28776</v>
+        <v>182989</v>
       </c>
       <c r="Q55" s="11">
-        <v>31276</v>
+        <v>197320</v>
       </c>
       <c r="R55" s="11">
-        <v>182989</v>
+        <v>0</v>
       </c>
       <c r="S55" s="11">
-        <v>197320</v>
+        <v>0</v>
       </c>
       <c r="T55" s="11">
-        <v>147722</v>
+        <v>13754</v>
       </c>
       <c r="U55" s="11">
-        <v>140038</v>
+        <v>56779</v>
       </c>
       <c r="V55" s="11">
-        <v>13754</v>
+        <v>33730</v>
       </c>
       <c r="W55" s="11">
-        <v>56779</v>
+        <v>43867</v>
       </c>
       <c r="X55" s="11">
-        <v>33730</v>
+        <v>25753</v>
       </c>
       <c r="Y55" s="11">
-        <v>43867</v>
+        <v>57358</v>
       </c>
       <c r="Z55" s="11">
-        <v>25753</v>
+        <v>50558</v>
       </c>
       <c r="AA55" s="11">
-        <v>57358</v>
+        <v>64396</v>
       </c>
       <c r="AB55" s="11">
-        <v>50558</v>
+        <v>88119</v>
       </c>
       <c r="AC55" s="11">
-        <v>64396</v>
+        <v>68728</v>
       </c>
       <c r="AD55" s="11">
-        <v>88119</v>
+        <v>71452</v>
       </c>
       <c r="AE55" s="11">
-        <v>68728</v>
+        <v>14733</v>
       </c>
       <c r="AF55" s="11">
-        <v>71452</v>
+        <v>4751</v>
       </c>
       <c r="AG55" s="11">
-        <v>14733</v>
+        <v>23232</v>
       </c>
       <c r="AH55" s="11">
-        <v>4751</v>
+        <v>3373</v>
       </c>
       <c r="AI55" s="11">
-        <v>23232</v>
+        <v>11890</v>
       </c>
       <c r="AJ55" s="11">
-        <v>3373</v>
+        <v>12740</v>
       </c>
       <c r="AK55" s="11">
-        <v>11890</v>
+        <v>2130</v>
       </c>
       <c r="AL55" s="11">
-        <v>12740</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="11">
-        <v>2130</v>
+        <v>3029</v>
       </c>
       <c r="AN55" s="11">
-        <v>0</v>
+        <v>5668</v>
       </c>
       <c r="AO55" s="11">
-        <v>3029</v>
+        <v>3096</v>
       </c>
       <c r="AP55" s="11">
-        <v>5668</v>
+        <v>7587</v>
       </c>
       <c r="AQ55" s="11">
-        <v>3096</v>
+        <v>3841</v>
       </c>
       <c r="AR55" s="11">
-        <v>7587</v>
+        <v>0</v>
       </c>
       <c r="AS55" s="11">
-        <v>3841</v>
+        <v>13487</v>
       </c>
       <c r="AT55" s="11">
-        <v>0</v>
+        <v>4858</v>
       </c>
       <c r="AU55" s="11">
-        <v>13487</v>
+        <v>6609</v>
       </c>
       <c r="AV55" s="11">
-        <v>4858</v>
+        <v>10703</v>
       </c>
       <c r="AW55" s="11">
-        <v>6609</v>
+        <v>16255</v>
       </c>
       <c r="AX55" s="11">
-        <v>-32380</v>
+        <v>5905</v>
       </c>
       <c r="AY55" s="11">
-        <v>16255</v>
+        <v>6430</v>
       </c>
       <c r="AZ55" s="11">
-        <v>-37178</v>
+        <v>1237</v>
       </c>
       <c r="BA55" s="11">
-        <v>-36653</v>
+        <v>8462</v>
       </c>
       <c r="BB55" s="11">
-        <v>1237</v>
+        <v>6396</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>57</v>
       </c>
@@ -7223,121 +7223,121 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>1806</v>
+        <v>9998</v>
       </c>
       <c r="F56" s="13">
-        <v>0</v>
+        <v>180242</v>
       </c>
       <c r="G56" s="13">
-        <v>9998</v>
+        <v>109184</v>
       </c>
       <c r="H56" s="13">
-        <v>180242</v>
+        <v>0</v>
       </c>
       <c r="I56" s="13">
-        <v>109184</v>
+        <v>107115</v>
       </c>
       <c r="J56" s="13">
-        <v>0</v>
+        <v>103005</v>
       </c>
       <c r="K56" s="13">
-        <v>107115</v>
+        <v>107783</v>
       </c>
       <c r="L56" s="13">
-        <v>103005</v>
+        <v>100993</v>
       </c>
       <c r="M56" s="13">
-        <v>107783</v>
+        <v>0</v>
       </c>
       <c r="N56" s="13">
-        <v>100993</v>
+        <v>73508</v>
       </c>
       <c r="O56" s="13">
-        <v>0</v>
+        <v>3520</v>
       </c>
       <c r="P56" s="13">
-        <v>73508</v>
+        <v>83794</v>
       </c>
       <c r="Q56" s="13">
-        <v>3520</v>
+        <v>0</v>
       </c>
       <c r="R56" s="13">
-        <v>83794</v>
+        <v>0</v>
       </c>
       <c r="S56" s="13">
         <v>0</v>
       </c>
       <c r="T56" s="13">
-        <v>14289</v>
+        <v>0</v>
       </c>
       <c r="U56" s="13">
-        <v>1649</v>
+        <v>0</v>
       </c>
       <c r="V56" s="13">
         <v>0</v>
       </c>
       <c r="W56" s="13">
-        <v>0</v>
+        <v>52199</v>
       </c>
       <c r="X56" s="13">
-        <v>0</v>
+        <v>150669</v>
       </c>
       <c r="Y56" s="13">
-        <v>52199</v>
+        <v>209481</v>
       </c>
       <c r="Z56" s="13">
-        <v>150669</v>
+        <v>231043</v>
       </c>
       <c r="AA56" s="13">
-        <v>209481</v>
+        <v>227905</v>
       </c>
       <c r="AB56" s="13">
-        <v>231043</v>
+        <v>48453</v>
       </c>
       <c r="AC56" s="13">
-        <v>227905</v>
+        <v>163036</v>
       </c>
       <c r="AD56" s="13">
-        <v>48453</v>
+        <v>15575</v>
       </c>
       <c r="AE56" s="13">
-        <v>163036</v>
+        <v>0</v>
       </c>
       <c r="AF56" s="13">
-        <v>15575</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="13">
-        <v>0</v>
+        <v>228075</v>
       </c>
       <c r="AH56" s="13">
-        <v>0</v>
+        <v>290662</v>
       </c>
       <c r="AI56" s="13">
-        <v>228075</v>
+        <v>201548</v>
       </c>
       <c r="AJ56" s="13">
-        <v>290662</v>
+        <v>71928</v>
       </c>
       <c r="AK56" s="13">
-        <v>201548</v>
+        <v>243294</v>
       </c>
       <c r="AL56" s="13">
-        <v>71928</v>
+        <v>153563</v>
       </c>
       <c r="AM56" s="13">
-        <v>243294</v>
+        <v>111071</v>
       </c>
       <c r="AN56" s="13">
-        <v>153563</v>
+        <v>74240</v>
       </c>
       <c r="AO56" s="13">
-        <v>111071</v>
+        <v>49945</v>
       </c>
       <c r="AP56" s="13">
-        <v>74240</v>
+        <v>0</v>
       </c>
       <c r="AQ56" s="13">
-        <v>49945</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="13">
         <v>0</v>
@@ -7349,13 +7349,13 @@
         <v>0</v>
       </c>
       <c r="AU56" s="13">
-        <v>0</v>
+        <v>750227</v>
       </c>
       <c r="AV56" s="13">
         <v>0</v>
       </c>
       <c r="AW56" s="13">
-        <v>750227</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="13">
         <v>0</v>
@@ -7373,7 +7373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
         <v>58</v>
       </c>
@@ -7382,157 +7382,157 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>117392</v>
+        <v>614219</v>
       </c>
       <c r="F57" s="11">
-        <v>192625</v>
+        <v>0</v>
       </c>
       <c r="G57" s="11">
-        <v>614219</v>
+        <v>982811</v>
       </c>
       <c r="H57" s="11">
-        <v>0</v>
+        <v>34467</v>
       </c>
       <c r="I57" s="11">
-        <v>982811</v>
+        <v>250287</v>
       </c>
       <c r="J57" s="11">
-        <v>34467</v>
+        <v>2717049</v>
       </c>
       <c r="K57" s="11">
-        <v>250287</v>
+        <v>1040878</v>
       </c>
       <c r="L57" s="11">
-        <v>2717049</v>
+        <v>171956</v>
       </c>
       <c r="M57" s="11">
-        <v>1040878</v>
+        <v>74815</v>
       </c>
       <c r="N57" s="11">
-        <v>171956</v>
+        <v>0</v>
       </c>
       <c r="O57" s="11">
-        <v>74815</v>
+        <v>8006</v>
       </c>
       <c r="P57" s="11">
-        <v>0</v>
+        <v>195493</v>
       </c>
       <c r="Q57" s="11">
-        <v>8006</v>
+        <v>438769</v>
       </c>
       <c r="R57" s="11">
-        <v>195493</v>
+        <v>2</v>
       </c>
       <c r="S57" s="11">
-        <v>438769</v>
+        <v>1</v>
       </c>
       <c r="T57" s="11">
-        <v>1660643</v>
+        <v>120339</v>
       </c>
       <c r="U57" s="11">
-        <v>636209</v>
+        <v>858578</v>
       </c>
       <c r="V57" s="11">
-        <v>120339</v>
+        <v>797425</v>
       </c>
       <c r="W57" s="11">
-        <v>858578</v>
+        <v>1233819</v>
       </c>
       <c r="X57" s="11">
-        <v>797425</v>
+        <v>300284</v>
       </c>
       <c r="Y57" s="11">
-        <v>1233819</v>
+        <v>2367017</v>
       </c>
       <c r="Z57" s="11">
-        <v>300284</v>
+        <v>2909361</v>
       </c>
       <c r="AA57" s="11">
-        <v>2367017</v>
+        <v>509342</v>
       </c>
       <c r="AB57" s="11">
-        <v>2909361</v>
+        <v>2624036</v>
       </c>
       <c r="AC57" s="11">
-        <v>509342</v>
+        <v>36951</v>
       </c>
       <c r="AD57" s="11">
-        <v>2624036</v>
+        <v>2039006</v>
       </c>
       <c r="AE57" s="11">
-        <v>36951</v>
+        <v>147940</v>
       </c>
       <c r="AF57" s="11">
-        <v>2039006</v>
+        <v>85325</v>
       </c>
       <c r="AG57" s="11">
-        <v>147940</v>
+        <v>2541984</v>
       </c>
       <c r="AH57" s="11">
-        <v>85325</v>
+        <v>2066909</v>
       </c>
       <c r="AI57" s="11">
-        <v>2541984</v>
+        <v>1127328</v>
       </c>
       <c r="AJ57" s="11">
-        <v>2066909</v>
+        <v>1732985</v>
       </c>
       <c r="AK57" s="11">
-        <v>1127328</v>
+        <v>1656590</v>
       </c>
       <c r="AL57" s="11">
-        <v>1732985</v>
+        <v>1574923</v>
       </c>
       <c r="AM57" s="11">
-        <v>1656590</v>
+        <v>1702412</v>
       </c>
       <c r="AN57" s="11">
-        <v>1574923</v>
+        <v>3657221</v>
       </c>
       <c r="AO57" s="11">
-        <v>1702412</v>
+        <v>2480629</v>
       </c>
       <c r="AP57" s="11">
-        <v>3657221</v>
+        <v>4378441</v>
       </c>
       <c r="AQ57" s="11">
-        <v>2480629</v>
+        <v>5934217</v>
       </c>
       <c r="AR57" s="11">
-        <v>4425218</v>
+        <v>1030589</v>
       </c>
       <c r="AS57" s="11">
-        <v>5934217</v>
+        <v>1086915</v>
       </c>
       <c r="AT57" s="11">
-        <v>1030589</v>
+        <v>9366745</v>
       </c>
       <c r="AU57" s="11">
-        <v>1086915</v>
+        <v>2671952</v>
       </c>
       <c r="AV57" s="11">
-        <v>9373335</v>
+        <v>2571805</v>
       </c>
       <c r="AW57" s="11">
-        <v>2671952</v>
+        <v>3741776</v>
       </c>
       <c r="AX57" s="11">
-        <v>3038294</v>
+        <v>2626454</v>
       </c>
       <c r="AY57" s="11">
-        <v>3741776</v>
+        <v>2473428</v>
       </c>
       <c r="AZ57" s="11">
-        <v>3092943</v>
+        <v>11216055</v>
       </c>
       <c r="BA57" s="11">
-        <v>2939917</v>
+        <v>1795118</v>
       </c>
       <c r="BB57" s="11">
-        <v>11216055</v>
+        <v>4622504</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
         <v>59</v>
       </c>
@@ -7585,11 +7585,11 @@
       <c r="S58" s="13">
         <v>0</v>
       </c>
-      <c r="T58" s="13">
-        <v>0</v>
-      </c>
-      <c r="U58" s="13">
-        <v>0</v>
+      <c r="T58" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U58" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="V58" s="13" t="s">
         <v>60</v>
@@ -7691,7 +7691,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>61</v>
       </c>
@@ -7700,109 +7700,109 @@
       </c>
       <c r="D59" s="11"/>
       <c r="E59" s="11">
-        <v>31645</v>
+        <v>84560</v>
       </c>
       <c r="F59" s="11">
-        <v>37737</v>
+        <v>0</v>
       </c>
       <c r="G59" s="11">
-        <v>84560</v>
+        <v>88802</v>
       </c>
       <c r="H59" s="11">
         <v>0</v>
       </c>
       <c r="I59" s="11">
-        <v>88802</v>
+        <v>0</v>
       </c>
       <c r="J59" s="11">
-        <v>0</v>
+        <v>12724</v>
       </c>
       <c r="K59" s="11">
-        <v>0</v>
+        <v>1075</v>
       </c>
       <c r="L59" s="11">
-        <v>12724</v>
+        <v>0</v>
       </c>
       <c r="M59" s="11">
-        <v>1075</v>
+        <v>75447</v>
       </c>
       <c r="N59" s="11">
         <v>0</v>
       </c>
       <c r="O59" s="11">
-        <v>75447</v>
+        <v>6341</v>
       </c>
       <c r="P59" s="11">
-        <v>0</v>
+        <v>22297</v>
       </c>
       <c r="Q59" s="11">
-        <v>6341</v>
+        <v>20070</v>
       </c>
       <c r="R59" s="11">
-        <v>22297</v>
+        <v>0</v>
       </c>
       <c r="S59" s="11">
-        <v>20070</v>
+        <v>0</v>
       </c>
       <c r="T59" s="11">
-        <v>53498</v>
+        <v>0</v>
       </c>
       <c r="U59" s="11">
         <v>0</v>
       </c>
       <c r="V59" s="11">
-        <v>0</v>
+        <v>125806</v>
       </c>
       <c r="W59" s="11">
         <v>0</v>
       </c>
       <c r="X59" s="11">
-        <v>125806</v>
+        <v>30759</v>
       </c>
       <c r="Y59" s="11">
-        <v>0</v>
+        <v>58764</v>
       </c>
       <c r="Z59" s="11">
-        <v>30759</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="11">
-        <v>58764</v>
+        <v>131096</v>
       </c>
       <c r="AB59" s="11">
         <v>0</v>
       </c>
       <c r="AC59" s="11">
-        <v>131096</v>
+        <v>125506</v>
       </c>
       <c r="AD59" s="11">
-        <v>0</v>
+        <v>34544</v>
       </c>
       <c r="AE59" s="11">
-        <v>125506</v>
+        <v>0</v>
       </c>
       <c r="AF59" s="11">
-        <v>34544</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="11">
-        <v>0</v>
+        <v>31657</v>
       </c>
       <c r="AH59" s="11">
-        <v>0</v>
+        <v>190777</v>
       </c>
       <c r="AI59" s="11">
-        <v>31657</v>
+        <v>153208</v>
       </c>
       <c r="AJ59" s="11">
-        <v>190777</v>
+        <v>241544</v>
       </c>
       <c r="AK59" s="11">
-        <v>153208</v>
+        <v>316234</v>
       </c>
       <c r="AL59" s="11">
-        <v>241544</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="11">
-        <v>316234</v>
+        <v>0</v>
       </c>
       <c r="AN59" s="11">
         <v>0</v>
@@ -7817,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="AR59" s="11">
-        <v>21892</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="11">
         <v>0</v>
@@ -7844,13 +7844,13 @@
         <v>0</v>
       </c>
       <c r="BA59" s="11">
-        <v>0</v>
+        <v>164297</v>
       </c>
       <c r="BB59" s="11">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>62</v>
       </c>
@@ -7915,11 +7915,11 @@
       <c r="W60" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="X60" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y60" s="13" t="s">
-        <v>60</v>
+      <c r="X60" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="13">
+        <v>0</v>
       </c>
       <c r="Z60" s="13">
         <v>0</v>
@@ -7939,14 +7939,14 @@
       <c r="AE60" s="13">
         <v>0</v>
       </c>
-      <c r="AF60" s="13">
-        <v>0</v>
+      <c r="AF60" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AG60" s="13">
         <v>0</v>
       </c>
-      <c r="AH60" s="13" t="s">
-        <v>60</v>
+      <c r="AH60" s="13">
+        <v>0</v>
       </c>
       <c r="AI60" s="13">
         <v>0</v>
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>63</v>
       </c>
@@ -8104,71 +8104,71 @@
       <c r="AG61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AH61" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI61" s="11" t="s">
-        <v>60</v>
+      <c r="AH61" s="11">
+        <v>256500</v>
+      </c>
+      <c r="AI61" s="11">
+        <v>14825</v>
       </c>
       <c r="AJ61" s="11">
-        <v>256500</v>
+        <v>0</v>
       </c>
       <c r="AK61" s="11">
-        <v>14825</v>
+        <v>16760</v>
       </c>
       <c r="AL61" s="11">
         <v>0</v>
       </c>
       <c r="AM61" s="11">
-        <v>16760</v>
+        <v>0</v>
       </c>
       <c r="AN61" s="11">
-        <v>0</v>
+        <v>67777</v>
       </c>
       <c r="AO61" s="11">
         <v>0</v>
       </c>
       <c r="AP61" s="11">
-        <v>67777</v>
+        <v>17713</v>
       </c>
       <c r="AQ61" s="11">
-        <v>0</v>
+        <v>29668</v>
       </c>
       <c r="AR61" s="11">
-        <v>17713</v>
+        <v>89453</v>
       </c>
       <c r="AS61" s="11">
-        <v>29668</v>
+        <v>929778</v>
       </c>
       <c r="AT61" s="11">
-        <v>89453</v>
+        <v>16335</v>
       </c>
       <c r="AU61" s="11">
-        <v>929778</v>
+        <v>17750</v>
       </c>
       <c r="AV61" s="11">
-        <v>16335</v>
+        <v>52741</v>
       </c>
       <c r="AW61" s="11">
-        <v>17750</v>
+        <v>0</v>
       </c>
       <c r="AX61" s="11">
-        <v>52741</v>
+        <v>18060</v>
       </c>
       <c r="AY61" s="11">
         <v>0</v>
       </c>
       <c r="AZ61" s="11">
-        <v>18060</v>
+        <v>136853</v>
       </c>
       <c r="BA61" s="11">
-        <v>0</v>
+        <v>41500</v>
       </c>
       <c r="BB61" s="11">
-        <v>136853</v>
+        <v>99517</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>64</v>
       </c>
@@ -8305,14 +8305,14 @@
       <c r="AU62" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AV62" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW62" s="13" t="s">
-        <v>60</v>
+      <c r="AV62" s="13">
+        <v>344975</v>
+      </c>
+      <c r="AW62" s="13">
+        <v>0</v>
       </c>
       <c r="AX62" s="13">
-        <v>344975</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="13">
         <v>0</v>
@@ -8327,7 +8327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
         <v>74</v>
       </c>
@@ -8384,7 +8384,7 @@
       <c r="BA63" s="9"/>
       <c r="BB63" s="9"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
         <v>55</v>
       </c>
@@ -8473,11 +8473,11 @@
       <c r="AE64" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF64" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG64" s="11" t="s">
-        <v>60</v>
+      <c r="AF64" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="11">
+        <v>0</v>
       </c>
       <c r="AH64" s="11">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
         <v>57</v>
       </c>
@@ -8596,20 +8596,20 @@
       <c r="S65" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="T65" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U65" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="V65" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W65" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X65" s="13" t="s">
-        <v>60</v>
+      <c r="T65" s="13">
+        <v>0</v>
+      </c>
+      <c r="U65" s="13">
+        <v>0</v>
+      </c>
+      <c r="V65" s="13">
+        <v>0</v>
+      </c>
+      <c r="W65" s="13">
+        <v>0</v>
+      </c>
+      <c r="X65" s="13">
+        <v>0</v>
       </c>
       <c r="Y65" s="13">
         <v>0</v>
@@ -8632,11 +8632,11 @@
       <c r="AE65" s="13">
         <v>0</v>
       </c>
-      <c r="AF65" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG65" s="13">
-        <v>0</v>
+      <c r="AF65" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG65" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AH65" s="13" t="s">
         <v>60</v>
@@ -8702,7 +8702,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="10" t="s">
         <v>61</v>
       </c>
@@ -8755,71 +8755,71 @@
       <c r="S66" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="T66" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U66" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V66" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W66" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X66" s="11" t="s">
-        <v>60</v>
+      <c r="T66" s="11">
+        <v>0</v>
+      </c>
+      <c r="U66" s="11">
+        <v>0</v>
+      </c>
+      <c r="V66" s="11">
+        <v>3735</v>
+      </c>
+      <c r="W66" s="11">
+        <v>0</v>
+      </c>
+      <c r="X66" s="11">
+        <v>912</v>
       </c>
       <c r="Y66" s="11">
         <v>0</v>
       </c>
       <c r="Z66" s="11">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="AA66" s="11">
         <v>0</v>
       </c>
       <c r="AB66" s="11">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="AC66" s="11">
         <v>0</v>
       </c>
       <c r="AD66" s="11">
-        <v>946</v>
+        <v>3398</v>
       </c>
       <c r="AE66" s="11">
         <v>0</v>
       </c>
       <c r="AF66" s="11">
-        <v>3398</v>
+        <v>0</v>
       </c>
       <c r="AG66" s="11">
         <v>0</v>
       </c>
       <c r="AH66" s="11">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="AI66" s="11">
         <v>0</v>
       </c>
       <c r="AJ66" s="11">
-        <v>4405</v>
+        <v>962</v>
       </c>
       <c r="AK66" s="11">
-        <v>0</v>
+        <v>1811</v>
       </c>
       <c r="AL66" s="11">
-        <v>962</v>
+        <v>4556</v>
       </c>
       <c r="AM66" s="11">
-        <v>1811</v>
+        <v>4491</v>
       </c>
       <c r="AN66" s="11">
-        <v>4556</v>
+        <v>0</v>
       </c>
       <c r="AO66" s="11">
-        <v>4491</v>
+        <v>0</v>
       </c>
       <c r="AP66" s="11">
         <v>0</v>
@@ -8828,7 +8828,7 @@
         <v>0</v>
       </c>
       <c r="AR66" s="11">
-        <v>25575</v>
+        <v>0</v>
       </c>
       <c r="AS66" s="11">
         <v>0</v>
@@ -8837,13 +8837,13 @@
         <v>0</v>
       </c>
       <c r="AU66" s="11">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="AV66" s="11">
         <v>0</v>
       </c>
       <c r="AW66" s="11">
-        <v>1929</v>
+        <v>0</v>
       </c>
       <c r="AX66" s="11">
         <v>0</v>
@@ -8861,7 +8861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
         <v>66</v>
       </c>
@@ -8986,11 +8986,11 @@
       <c r="AQ67" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AR67" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS67" s="13" t="s">
-        <v>60</v>
+      <c r="AR67" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="13">
+        <v>0</v>
       </c>
       <c r="AT67" s="13">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
         <v>67</v>
       </c>
@@ -9073,71 +9073,71 @@
       <c r="S68" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T68" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="U68" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="V68" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="W68" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X68" s="15" t="s">
-        <v>60</v>
+      <c r="T68" s="15">
+        <v>0</v>
+      </c>
+      <c r="U68" s="15">
+        <v>0</v>
+      </c>
+      <c r="V68" s="15">
+        <v>3735</v>
+      </c>
+      <c r="W68" s="15">
+        <v>0</v>
+      </c>
+      <c r="X68" s="15">
+        <v>912</v>
       </c>
       <c r="Y68" s="15">
         <v>0</v>
       </c>
       <c r="Z68" s="15">
-        <v>912</v>
+        <v>0</v>
       </c>
       <c r="AA68" s="15">
         <v>0</v>
       </c>
       <c r="AB68" s="15">
-        <v>0</v>
+        <v>946</v>
       </c>
       <c r="AC68" s="15">
         <v>0</v>
       </c>
       <c r="AD68" s="15">
-        <v>946</v>
+        <v>3398</v>
       </c>
       <c r="AE68" s="15">
         <v>0</v>
       </c>
       <c r="AF68" s="15">
-        <v>3398</v>
+        <v>0</v>
       </c>
       <c r="AG68" s="15">
         <v>0</v>
       </c>
       <c r="AH68" s="15">
-        <v>0</v>
+        <v>4405</v>
       </c>
       <c r="AI68" s="15">
         <v>0</v>
       </c>
       <c r="AJ68" s="15">
-        <v>4405</v>
+        <v>962</v>
       </c>
       <c r="AK68" s="15">
-        <v>0</v>
+        <v>1811</v>
       </c>
       <c r="AL68" s="15">
-        <v>962</v>
+        <v>4556</v>
       </c>
       <c r="AM68" s="15">
-        <v>1811</v>
+        <v>4491</v>
       </c>
       <c r="AN68" s="15">
-        <v>4556</v>
+        <v>0</v>
       </c>
       <c r="AO68" s="15">
-        <v>4491</v>
+        <v>0</v>
       </c>
       <c r="AP68" s="15">
         <v>0</v>
@@ -9146,7 +9146,7 @@
         <v>0</v>
       </c>
       <c r="AR68" s="15">
-        <v>25575</v>
+        <v>0</v>
       </c>
       <c r="AS68" s="15">
         <v>0</v>
@@ -9155,13 +9155,13 @@
         <v>0</v>
       </c>
       <c r="AU68" s="15">
-        <v>0</v>
+        <v>1929</v>
       </c>
       <c r="AV68" s="15">
         <v>0</v>
       </c>
       <c r="AW68" s="15">
-        <v>1929</v>
+        <v>0</v>
       </c>
       <c r="AX68" s="15">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="18" t="s">
         <v>75</v>
       </c>
@@ -9236,7 +9236,7 @@
       <c r="BA69" s="19"/>
       <c r="BB69" s="19"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="14" t="s">
         <v>71</v>
       </c>
@@ -9289,20 +9289,20 @@
       <c r="S70" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="T70" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="U70" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="V70" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="W70" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="X70" s="15" t="s">
-        <v>60</v>
+      <c r="T70" s="15">
+        <v>0</v>
+      </c>
+      <c r="U70" s="15">
+        <v>0</v>
+      </c>
+      <c r="V70" s="15">
+        <v>0</v>
+      </c>
+      <c r="W70" s="15">
+        <v>0</v>
+      </c>
+      <c r="X70" s="15">
+        <v>0</v>
       </c>
       <c r="Y70" s="15">
         <v>0</v>
@@ -9395,7 +9395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
         <v>76</v>
       </c>
@@ -9452,7 +9452,7 @@
       <c r="BA71" s="9"/>
       <c r="BB71" s="9"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>77</v>
       </c>
@@ -9505,20 +9505,20 @@
       <c r="S72" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="T72" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U72" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V72" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W72" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X72" s="11" t="s">
-        <v>60</v>
+      <c r="T72" s="11">
+        <v>0</v>
+      </c>
+      <c r="U72" s="11">
+        <v>0</v>
+      </c>
+      <c r="V72" s="11">
+        <v>0</v>
+      </c>
+      <c r="W72" s="11">
+        <v>0</v>
+      </c>
+      <c r="X72" s="11">
+        <v>0</v>
       </c>
       <c r="Y72" s="11">
         <v>0</v>
@@ -9611,164 +9611,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="16" t="s">
         <v>68</v>
       </c>
       <c r="C73" s="17"/>
       <c r="D73" s="17"/>
       <c r="E73" s="17">
-        <v>163788</v>
+        <v>726712</v>
       </c>
       <c r="F73" s="17">
-        <v>242687</v>
+        <v>227102</v>
       </c>
       <c r="G73" s="17">
-        <v>726712</v>
+        <v>1283817</v>
       </c>
       <c r="H73" s="17">
-        <v>227102</v>
+        <v>40766</v>
       </c>
       <c r="I73" s="17">
-        <v>1283817</v>
+        <v>466623</v>
       </c>
       <c r="J73" s="17">
-        <v>40766</v>
+        <v>2843528</v>
       </c>
       <c r="K73" s="17">
-        <v>466623</v>
+        <v>1202308</v>
       </c>
       <c r="L73" s="17">
-        <v>2843528</v>
+        <v>275493</v>
       </c>
       <c r="M73" s="17">
-        <v>1202308</v>
+        <v>201917</v>
       </c>
       <c r="N73" s="17">
-        <v>275493</v>
+        <v>102284</v>
       </c>
       <c r="O73" s="17">
-        <v>201917</v>
+        <v>49143</v>
       </c>
       <c r="P73" s="17">
-        <v>102284</v>
+        <v>484573</v>
       </c>
       <c r="Q73" s="17">
-        <v>49143</v>
+        <v>656159</v>
       </c>
       <c r="R73" s="17">
-        <v>484573</v>
+        <v>2</v>
       </c>
       <c r="S73" s="17">
-        <v>656159</v>
+        <v>1</v>
       </c>
       <c r="T73" s="17">
-        <v>1876152</v>
+        <v>134093</v>
       </c>
       <c r="U73" s="17">
-        <v>777896</v>
+        <v>915357</v>
       </c>
       <c r="V73" s="17">
-        <v>134093</v>
+        <v>960696</v>
       </c>
       <c r="W73" s="17">
-        <v>915357</v>
+        <v>1329885</v>
       </c>
       <c r="X73" s="17">
-        <v>956961</v>
+        <v>508377</v>
       </c>
       <c r="Y73" s="17">
-        <v>1329885</v>
+        <v>2692620</v>
       </c>
       <c r="Z73" s="17">
-        <v>508377</v>
+        <v>3190962</v>
       </c>
       <c r="AA73" s="17">
-        <v>2692620</v>
+        <v>932739</v>
       </c>
       <c r="AB73" s="17">
-        <v>3190962</v>
+        <v>2761554</v>
       </c>
       <c r="AC73" s="17">
-        <v>932739</v>
+        <v>394221</v>
       </c>
       <c r="AD73" s="17">
-        <v>2761554</v>
+        <v>2163975</v>
       </c>
       <c r="AE73" s="17">
-        <v>394221</v>
+        <v>162673</v>
       </c>
       <c r="AF73" s="17">
-        <v>2163975</v>
+        <v>90076</v>
       </c>
       <c r="AG73" s="17">
-        <v>162673</v>
+        <v>2824948</v>
       </c>
       <c r="AH73" s="17">
-        <v>90076</v>
+        <v>2812626</v>
       </c>
       <c r="AI73" s="17">
-        <v>2824948</v>
+        <v>1508799</v>
       </c>
       <c r="AJ73" s="17">
-        <v>2812626</v>
+        <v>2060159</v>
       </c>
       <c r="AK73" s="17">
-        <v>1508799</v>
+        <v>2236819</v>
       </c>
       <c r="AL73" s="17">
-        <v>2060159</v>
+        <v>1733042</v>
       </c>
       <c r="AM73" s="17">
-        <v>2236819</v>
+        <v>1821003</v>
       </c>
       <c r="AN73" s="17">
-        <v>1733042</v>
+        <v>3804906</v>
       </c>
       <c r="AO73" s="17">
-        <v>1821003</v>
+        <v>2533670</v>
       </c>
       <c r="AP73" s="17">
-        <v>3804906</v>
+        <v>4403741</v>
       </c>
       <c r="AQ73" s="17">
-        <v>2533670</v>
+        <v>5967726</v>
       </c>
       <c r="AR73" s="17">
-        <v>4497985</v>
+        <v>1120042</v>
       </c>
       <c r="AS73" s="17">
-        <v>5967726</v>
+        <v>2030180</v>
       </c>
       <c r="AT73" s="17">
-        <v>1120042</v>
+        <v>9387938</v>
       </c>
       <c r="AU73" s="17">
-        <v>2030180</v>
+        <v>3448467</v>
       </c>
       <c r="AV73" s="17">
-        <v>9394528</v>
+        <v>2980224</v>
       </c>
       <c r="AW73" s="17">
-        <v>3448467</v>
+        <v>3758031</v>
       </c>
       <c r="AX73" s="17">
-        <v>3403630</v>
+        <v>2650419</v>
       </c>
       <c r="AY73" s="17">
-        <v>3758031</v>
+        <v>2479858</v>
       </c>
       <c r="AZ73" s="17">
-        <v>3073825</v>
+        <v>11354145</v>
       </c>
       <c r="BA73" s="17">
-        <v>2903264</v>
+        <v>2009377</v>
       </c>
       <c r="BB73" s="17">
-        <v>11354145</v>
+        <v>4728417</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -9823,7 +9823,7 @@
       <c r="BA74" s="1"/>
       <c r="BB74" s="1"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9878,7 +9878,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -9933,7 +9933,7 @@
       <c r="BA76" s="1"/>
       <c r="BB76" s="1"/>
     </row>
-    <row r="77" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B77" s="7" t="s">
         <v>78</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -10145,7 +10145,7 @@
       <c r="BA78" s="1"/>
       <c r="BB78" s="1"/>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>79</v>
       </c>
@@ -10202,7 +10202,7 @@
       <c r="BA79" s="9"/>
       <c r="BB79" s="9"/>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="10" t="s">
         <v>55</v>
       </c>
@@ -10255,11 +10255,11 @@
       <c r="S80" s="11">
         <v>0</v>
       </c>
-      <c r="T80" s="11">
-        <v>0</v>
-      </c>
-      <c r="U80" s="11">
-        <v>0</v>
+      <c r="T80" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U80" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="V80" s="11" t="s">
         <v>60</v>
@@ -10273,14 +10273,14 @@
       <c r="Y80" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Z80" s="11" t="s">
-        <v>60</v>
+      <c r="Z80" s="11">
+        <v>404464000</v>
       </c>
       <c r="AA80" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AB80" s="11">
-        <v>404464000</v>
+      <c r="AB80" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AC80" s="11" t="s">
         <v>60</v>
@@ -10361,7 +10361,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="12" t="s">
         <v>57</v>
       </c>
@@ -10370,124 +10370,124 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13">
-        <v>40133333</v>
+        <v>72449275</v>
       </c>
       <c r="F81" s="13">
-        <v>0</v>
+        <v>98278081</v>
       </c>
       <c r="G81" s="13">
-        <v>72449275</v>
+        <v>118420824</v>
       </c>
       <c r="H81" s="13">
-        <v>98278081</v>
+        <v>0</v>
       </c>
       <c r="I81" s="13">
-        <v>118420824</v>
+        <v>119414716</v>
       </c>
       <c r="J81" s="13">
-        <v>0</v>
+        <v>116389831</v>
       </c>
       <c r="K81" s="13">
-        <v>119414716</v>
+        <v>117282916</v>
       </c>
       <c r="L81" s="13">
-        <v>116389831</v>
+        <v>107439362</v>
       </c>
       <c r="M81" s="13">
-        <v>117282916</v>
+        <v>0</v>
       </c>
       <c r="N81" s="13">
-        <v>107439362</v>
+        <v>84589183</v>
       </c>
       <c r="O81" s="13">
-        <v>0</v>
+        <v>83809524</v>
       </c>
       <c r="P81" s="13">
-        <v>84589183</v>
+        <v>95546180</v>
       </c>
       <c r="Q81" s="13">
-        <v>83809524</v>
+        <v>0</v>
       </c>
       <c r="R81" s="13">
-        <v>95546180</v>
+        <v>75603175</v>
       </c>
       <c r="S81" s="13">
-        <v>0</v>
-      </c>
-      <c r="T81" s="13">
-        <v>75603175</v>
-      </c>
-      <c r="U81" s="13">
         <v>91611111</v>
       </c>
+      <c r="T81" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U81" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="V81" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="W81" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X81" s="13" t="s">
-        <v>60</v>
+      <c r="W81" s="13">
+        <v>86709302</v>
+      </c>
+      <c r="X81" s="13">
+        <v>152190909</v>
       </c>
       <c r="Y81" s="13">
-        <v>86709302</v>
+        <v>197065851</v>
       </c>
       <c r="Z81" s="13">
-        <v>152190909</v>
+        <v>255861573</v>
       </c>
       <c r="AA81" s="13">
-        <v>197065851</v>
+        <v>257229120</v>
       </c>
       <c r="AB81" s="13">
-        <v>255861573</v>
+        <v>269183333</v>
       </c>
       <c r="AC81" s="13">
-        <v>257229120</v>
+        <v>289070922</v>
       </c>
       <c r="AD81" s="13">
-        <v>269183333</v>
-      </c>
-      <c r="AE81" s="13">
-        <v>289070922</v>
-      </c>
-      <c r="AF81" s="13">
         <v>305392157</v>
       </c>
-      <c r="AG81" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH81" s="13" t="s">
-        <v>60</v>
+      <c r="AE81" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF81" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG81" s="13">
+        <v>319880785</v>
+      </c>
+      <c r="AH81" s="13">
+        <v>290662000</v>
       </c>
       <c r="AI81" s="13">
-        <v>319880785</v>
+        <v>304913767</v>
       </c>
       <c r="AJ81" s="13">
-        <v>290662000</v>
+        <v>294786885</v>
       </c>
       <c r="AK81" s="13">
-        <v>304913767</v>
+        <v>399497537</v>
       </c>
       <c r="AL81" s="13">
-        <v>294786885</v>
+        <v>323972574</v>
       </c>
       <c r="AM81" s="13">
-        <v>399497537</v>
+        <v>338631098</v>
       </c>
       <c r="AN81" s="13">
-        <v>323972574</v>
+        <v>337454545</v>
       </c>
       <c r="AO81" s="13">
-        <v>338631098</v>
-      </c>
-      <c r="AP81" s="13">
-        <v>337454545</v>
-      </c>
-      <c r="AQ81" s="13">
         <v>332966667</v>
       </c>
-      <c r="AR81" s="13">
-        <v>0</v>
+      <c r="AP81" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ81" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AR81" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AS81" s="13" t="s">
         <v>60</v>
@@ -10495,32 +10495,32 @@
       <c r="AT81" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AU81" s="13" t="s">
-        <v>60</v>
+      <c r="AU81" s="13">
+        <v>302877271</v>
       </c>
       <c r="AV81" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AW81" s="13">
-        <v>302877271</v>
-      </c>
-      <c r="AX81" s="13">
-        <v>0</v>
+      <c r="AW81" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX81" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AY81" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AZ81" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA81" s="13">
-        <v>0</v>
+      <c r="AZ81" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA81" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="BB81" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>58</v>
       </c>
@@ -10529,157 +10529,157 @@
       </c>
       <c r="D82" s="11"/>
       <c r="E82" s="11">
-        <v>301005128</v>
+        <v>291237079</v>
       </c>
       <c r="F82" s="11">
-        <v>262074830</v>
+        <v>0</v>
       </c>
       <c r="G82" s="11">
-        <v>291237079</v>
+        <v>228880065</v>
       </c>
       <c r="H82" s="11">
-        <v>0</v>
+        <v>287225000</v>
       </c>
       <c r="I82" s="11">
-        <v>228880065</v>
+        <v>316018939</v>
       </c>
       <c r="J82" s="11">
-        <v>287225000</v>
+        <v>225331647</v>
       </c>
       <c r="K82" s="11">
-        <v>316018939</v>
+        <v>258090255</v>
       </c>
       <c r="L82" s="11">
-        <v>225331647</v>
+        <v>253248895</v>
       </c>
       <c r="M82" s="11">
-        <v>258090255</v>
+        <v>249383333</v>
       </c>
       <c r="N82" s="11">
-        <v>253248895</v>
+        <v>0</v>
       </c>
       <c r="O82" s="11">
-        <v>249383333</v>
+        <v>296518519</v>
       </c>
       <c r="P82" s="11">
-        <v>0</v>
+        <v>256552493</v>
       </c>
       <c r="Q82" s="11">
-        <v>296518519</v>
+        <v>258555687</v>
       </c>
       <c r="R82" s="11">
-        <v>256552493</v>
+        <v>279428403</v>
       </c>
       <c r="S82" s="11">
-        <v>258555687</v>
+        <v>274109866</v>
       </c>
       <c r="T82" s="11">
-        <v>279428403</v>
+        <v>265063877</v>
       </c>
       <c r="U82" s="11">
-        <v>274109866</v>
+        <v>293832307</v>
       </c>
       <c r="V82" s="11">
-        <v>265063877</v>
+        <v>310402881</v>
       </c>
       <c r="W82" s="11">
-        <v>293832307</v>
+        <v>385327608</v>
       </c>
       <c r="X82" s="11">
-        <v>310402881</v>
+        <v>456358663</v>
       </c>
       <c r="Y82" s="11">
-        <v>385327608</v>
+        <v>527998439</v>
       </c>
       <c r="Z82" s="11">
-        <v>456358663</v>
+        <v>556922090</v>
       </c>
       <c r="AA82" s="11">
-        <v>527998439</v>
+        <v>648843312</v>
       </c>
       <c r="AB82" s="11">
-        <v>556922090</v>
+        <v>656009000</v>
       </c>
       <c r="AC82" s="11">
-        <v>648843312</v>
+        <v>710596154</v>
       </c>
       <c r="AD82" s="11">
-        <v>656009000</v>
+        <v>645050933</v>
       </c>
       <c r="AE82" s="11">
-        <v>710596154</v>
+        <v>616416667</v>
       </c>
       <c r="AF82" s="11">
-        <v>645050933</v>
+        <v>588448276</v>
       </c>
       <c r="AG82" s="11">
-        <v>616416667</v>
+        <v>594199158</v>
       </c>
       <c r="AH82" s="11">
-        <v>588448276</v>
+        <v>595479401</v>
       </c>
       <c r="AI82" s="11">
-        <v>594199158</v>
+        <v>634042745</v>
       </c>
       <c r="AJ82" s="11">
-        <v>595479401</v>
+        <v>669364620</v>
       </c>
       <c r="AK82" s="11">
-        <v>634042745</v>
+        <v>690533556</v>
       </c>
       <c r="AL82" s="11">
-        <v>669364620</v>
+        <v>740791627</v>
       </c>
       <c r="AM82" s="11">
-        <v>690533556</v>
+        <v>732850624</v>
       </c>
       <c r="AN82" s="11">
-        <v>740791627</v>
+        <v>772706740</v>
       </c>
       <c r="AO82" s="11">
-        <v>732850624</v>
+        <v>829919371</v>
       </c>
       <c r="AP82" s="11">
-        <v>772706740</v>
+        <v>863087128</v>
       </c>
       <c r="AQ82" s="11">
-        <v>829919371</v>
+        <v>863158836</v>
       </c>
       <c r="AR82" s="11">
-        <v>865775150</v>
+        <v>1031620621</v>
       </c>
       <c r="AS82" s="11">
-        <v>863158836</v>
+        <v>945966057</v>
       </c>
       <c r="AT82" s="11">
-        <v>1031620621</v>
+        <v>876543608</v>
       </c>
       <c r="AU82" s="11">
-        <v>945966057</v>
+        <v>842090136</v>
       </c>
       <c r="AV82" s="11">
-        <v>877057088</v>
+        <v>823768418</v>
       </c>
       <c r="AW82" s="11">
-        <v>842090136</v>
+        <v>837086353</v>
       </c>
       <c r="AX82" s="11">
-        <v>820940492</v>
+        <v>795895152</v>
       </c>
       <c r="AY82" s="11">
-        <v>837086353</v>
+        <v>798137464</v>
       </c>
       <c r="AZ82" s="11">
-        <v>793672825</v>
+        <v>837581585</v>
       </c>
       <c r="BA82" s="11">
-        <v>795432089</v>
+        <v>989045730</v>
       </c>
       <c r="BB82" s="11">
-        <v>837581585</v>
+        <v>1082300164</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>59</v>
       </c>
@@ -10732,11 +10732,11 @@
       <c r="S83" s="13">
         <v>0</v>
       </c>
-      <c r="T83" s="13">
-        <v>0</v>
-      </c>
-      <c r="U83" s="13">
-        <v>0</v>
+      <c r="T83" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="U83" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="V83" s="13" t="s">
         <v>60</v>
@@ -10838,7 +10838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>61</v>
       </c>
@@ -10847,110 +10847,110 @@
       </c>
       <c r="D84" s="11"/>
       <c r="E84" s="11">
-        <v>20015813</v>
+        <v>36369892</v>
       </c>
       <c r="F84" s="11">
-        <v>17952902</v>
+        <v>0</v>
       </c>
       <c r="G84" s="11">
-        <v>36369892</v>
+        <v>32756179</v>
       </c>
       <c r="H84" s="11">
         <v>0</v>
       </c>
       <c r="I84" s="11">
-        <v>32756179</v>
+        <v>0</v>
       </c>
       <c r="J84" s="11">
-        <v>0</v>
+        <v>17820728</v>
       </c>
       <c r="K84" s="11">
-        <v>0</v>
+        <v>16287879</v>
       </c>
       <c r="L84" s="11">
-        <v>17820728</v>
+        <v>0</v>
       </c>
       <c r="M84" s="11">
-        <v>16287879</v>
+        <v>42055184</v>
       </c>
       <c r="N84" s="11">
         <v>0</v>
       </c>
       <c r="O84" s="11">
-        <v>42055184</v>
+        <v>24577519</v>
       </c>
       <c r="P84" s="11">
-        <v>0</v>
+        <v>23421218</v>
       </c>
       <c r="Q84" s="11">
-        <v>24577519</v>
+        <v>19715128</v>
       </c>
       <c r="R84" s="11">
-        <v>23421218</v>
+        <v>22042851</v>
       </c>
       <c r="S84" s="11">
-        <v>19715128</v>
-      </c>
-      <c r="T84" s="11">
-        <v>22042851</v>
-      </c>
-      <c r="U84" s="11">
-        <v>0</v>
-      </c>
-      <c r="V84" s="11" t="s">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="T84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="U84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="V84" s="11">
+        <v>29953810</v>
       </c>
       <c r="W84" s="11" t="s">
         <v>60</v>
       </c>
       <c r="X84" s="11">
-        <v>29953810</v>
-      </c>
-      <c r="Y84" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="Z84" s="11">
         <v>34444569</v>
       </c>
+      <c r="Y84" s="11">
+        <v>28581712</v>
+      </c>
+      <c r="Z84" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AA84" s="11">
-        <v>28581712</v>
+        <v>45096663</v>
       </c>
       <c r="AB84" s="11" t="s">
         <v>60</v>
       </c>
       <c r="AC84" s="11">
-        <v>45096663</v>
-      </c>
-      <c r="AD84" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE84" s="11">
         <v>72799304</v>
       </c>
-      <c r="AF84" s="11">
+      <c r="AD84" s="11">
         <v>55536977</v>
       </c>
-      <c r="AG84" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AH84" s="11" t="s">
-        <v>60</v>
+      <c r="AE84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AF84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG84" s="11">
+        <v>58515712</v>
+      </c>
+      <c r="AH84" s="11">
+        <v>95483984</v>
       </c>
       <c r="AI84" s="11">
-        <v>58515712</v>
+        <v>75883110</v>
       </c>
       <c r="AJ84" s="11">
-        <v>95483984</v>
+        <v>109345405</v>
       </c>
       <c r="AK84" s="11">
-        <v>75883110</v>
-      </c>
-      <c r="AL84" s="11">
-        <v>109345405</v>
-      </c>
-      <c r="AM84" s="11">
         <v>76440416</v>
       </c>
+      <c r="AL84" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM84" s="11" t="s">
+        <v>60</v>
+      </c>
       <c r="AN84" s="11" t="s">
         <v>60</v>
       </c>
@@ -10963,8 +10963,8 @@
       <c r="AQ84" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AR84" s="11">
-        <v>2007704</v>
+      <c r="AR84" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AS84" s="11" t="s">
         <v>60</v>
@@ -10990,14 +10990,14 @@
       <c r="AZ84" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="BA84" s="11" t="s">
-        <v>60</v>
+      <c r="BA84" s="11">
+        <v>97912396</v>
       </c>
       <c r="BB84" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="12" t="s">
         <v>63</v>
       </c>
@@ -11092,71 +11092,71 @@
       <c r="AG85" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AH85" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI85" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ85" s="13">
+      <c r="AH85" s="13">
         <v>513000000</v>
       </c>
+      <c r="AI85" s="13">
+        <v>593000000</v>
+      </c>
+      <c r="AJ85" s="13" t="s">
+        <v>60</v>
+      </c>
       <c r="AK85" s="13">
-        <v>593000000</v>
+        <v>670400000</v>
       </c>
       <c r="AL85" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AM85" s="13">
-        <v>670400000</v>
-      </c>
-      <c r="AN85" s="13" t="s">
-        <v>60</v>
+      <c r="AM85" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN85" s="13">
+        <v>677770000</v>
       </c>
       <c r="AO85" s="13" t="s">
         <v>60</v>
       </c>
       <c r="AP85" s="13">
-        <v>677770000</v>
-      </c>
-      <c r="AQ85" s="13" t="s">
-        <v>60</v>
+        <v>708520000</v>
+      </c>
+      <c r="AQ85" s="13">
+        <v>593360000</v>
       </c>
       <c r="AR85" s="13">
-        <v>708520000</v>
+        <v>596353333</v>
       </c>
       <c r="AS85" s="13">
-        <v>593360000</v>
+        <v>652475789</v>
       </c>
       <c r="AT85" s="13">
-        <v>596353333</v>
+        <v>653400000</v>
       </c>
       <c r="AU85" s="13">
-        <v>652475789</v>
+        <v>710000000</v>
       </c>
       <c r="AV85" s="13">
-        <v>653400000</v>
-      </c>
-      <c r="AW85" s="13">
-        <v>710000000</v>
+        <v>703213333</v>
+      </c>
+      <c r="AW85" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AX85" s="13">
-        <v>703213333</v>
+        <v>722400000</v>
       </c>
       <c r="AY85" s="13" t="s">
         <v>60</v>
       </c>
       <c r="AZ85" s="13">
-        <v>722400000</v>
+        <v>684265000</v>
       </c>
       <c r="BA85" s="13">
-        <v>0</v>
+        <v>830000000</v>
       </c>
       <c r="BB85" s="13">
-        <v>684265000</v>
+        <v>829308333</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
         <v>64</v>
       </c>
@@ -11293,29 +11293,29 @@
       <c r="AU86" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AV86" s="11" t="s">
-        <v>60</v>
+      <c r="AV86" s="11">
+        <v>785820046</v>
       </c>
       <c r="AW86" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AX86" s="11">
-        <v>785820046</v>
+      <c r="AX86" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="AY86" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AZ86" s="11">
-        <v>0</v>
-      </c>
-      <c r="BA86" s="11">
-        <v>0</v>
+      <c r="AZ86" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="BA86" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="BB86" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
         <v>81</v>
       </c>
@@ -11372,7 +11372,7 @@
       <c r="BA87" s="9"/>
       <c r="BB87" s="9"/>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
         <v>55</v>
       </c>
@@ -11461,11 +11461,11 @@
       <c r="AE88" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="AF88" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="AG88" s="11" t="s">
-        <v>60</v>
+      <c r="AF88" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="11">
+        <v>0</v>
       </c>
       <c r="AH88" s="11">
         <v>0</v>
@@ -11531,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="12" t="s">
         <v>57</v>
       </c>
@@ -11584,20 +11584,20 @@
       <c r="S89" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="T89" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="U89" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="V89" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="W89" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="X89" s="13" t="s">
-        <v>60</v>
+      <c r="T89" s="13">
+        <v>0</v>
+      </c>
+      <c r="U89" s="13">
+        <v>0</v>
+      </c>
+      <c r="V89" s="13">
+        <v>0</v>
+      </c>
+      <c r="W89" s="13">
+        <v>0</v>
+      </c>
+      <c r="X89" s="13">
+        <v>0</v>
       </c>
       <c r="Y89" s="13">
         <v>0</v>
@@ -11620,11 +11620,11 @@
       <c r="AE89" s="13">
         <v>0</v>
       </c>
-      <c r="AF89" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG89" s="13">
-        <v>0</v>
+      <c r="AF89" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="AG89" s="13" t="s">
+        <v>60</v>
       </c>
       <c r="AH89" s="13" t="s">
         <v>60</v>
@@ -11690,7 +11690,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
         <v>61</v>
       </c>
@@ -11743,71 +11743,71 @@
       <c r="S90" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="T90" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="U90" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="V90" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W90" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="X90" s="11" t="s">
-        <v>60</v>
+      <c r="T90" s="11">
+        <v>0</v>
+      </c>
+      <c r="U90" s="11">
+        <v>0</v>
+      </c>
+      <c r="V90" s="11">
+        <v>1924266</v>
+      </c>
+      <c r="W90" s="11">
+        <v>0</v>
+      </c>
+      <c r="X90" s="11">
+        <v>815013</v>
       </c>
       <c r="Y90" s="11">
         <v>0</v>
       </c>
       <c r="Z90" s="11">
-        <v>815013</v>
+        <v>0</v>
       </c>
       <c r="AA90" s="11">
         <v>0</v>
       </c>
       <c r="AB90" s="11">
-        <v>0</v>
+        <v>796967</v>
       </c>
       <c r="AC90" s="11">
         <v>0</v>
       </c>
       <c r="AD90" s="11">
-        <v>796967</v>
+        <v>1894091</v>
       </c>
       <c r="AE90" s="11">
         <v>0</v>
       </c>
       <c r="AF90" s="11">
-        <v>1894091</v>
+        <v>0</v>
       </c>
       <c r="AG90" s="11">
         <v>0</v>
       </c>
       <c r="AH90" s="11">
-        <v>0</v>
+        <v>1478188</v>
       </c>
       <c r="AI90" s="11">
         <v>0</v>
       </c>
       <c r="AJ90" s="11">
-        <v>1478188</v>
+        <v>779579</v>
       </c>
       <c r="AK90" s="11">
-        <v>0</v>
+        <v>825433</v>
       </c>
       <c r="AL90" s="11">
-        <v>779579</v>
+        <v>1450032</v>
       </c>
       <c r="AM90" s="11">
-        <v>825433</v>
+        <v>1699849</v>
       </c>
       <c r="AN90" s="11">
-        <v>1450032</v>
+        <v>0</v>
       </c>
       <c r="AO90" s="11">
-        <v>1699849</v>
+        <v>0</v>
       </c>
       <c r="AP90" s="11">
         <v>0</v>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
       <c r="AR90" s="11">
-        <v>980006</v>
+        <v>0</v>
       </c>
       <c r="AS90" s="11">
         <v>0</v>
@@ -11825,13 +11825,13 @@
         <v>0</v>
       </c>
       <c r="AU90" s="11">
-        <v>0</v>
+        <v>2686630</v>
       </c>
       <c r="AV90" s="11">
         <v>0</v>
       </c>
       <c r="AW90" s="11">
-        <v>2686630</v>
+        <v>0</v>
       </c>
       <c r="AX90" s="11">
         <v>0</v>
@@ -11849,7 +11849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="12" t="s">
         <v>66</v>
       </c>
@@ -11974,11 +11974,11 @@
       <c r="AQ91" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="AR91" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="AS91" s="13" t="s">
-        <v>60</v>
+      <c r="AR91" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS91" s="13">
+        <v>0</v>
       </c>
       <c r="AT91" s="13">
         <v>0</v>
